--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>540</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-21.34831460674157</v>
+      </c>
       <c r="L12" t="n">
         <v>8986</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>555</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-17.39130434782609</v>
+      </c>
       <c r="L13" t="n">
         <v>8978</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>675</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.896551724137931</v>
+      </c>
       <c r="L14" t="n">
         <v>8982</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>795</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-23.80952380952381</v>
+      </c>
       <c r="L15" t="n">
         <v>8974</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>795</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-4</v>
+      </c>
       <c r="L16" t="n">
         <v>8959</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>795</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-31.64556962025317</v>
+      </c>
       <c r="L17" t="n">
         <v>8957</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>795</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-22.85714285714286</v>
+      </c>
       <c r="L18" t="n">
         <v>8944.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>830</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-10.52631578947368</v>
+      </c>
       <c r="L19" t="n">
         <v>8940</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>835</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>15.25423728813559</v>
+      </c>
       <c r="L20" t="n">
         <v>8935.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>895</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.57746478873239</v>
+      </c>
       <c r="L21" t="n">
         <v>8946</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>980</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.176470588235294</v>
+      </c>
       <c r="L22" t="n">
         <v>8948</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>980</v>
       </c>
       <c r="K23" t="n">
-        <v>-8.474576271186439</v>
+        <v>-37.70491803278689</v>
       </c>
       <c r="L23" t="n">
         <v>8948.5</v>
@@ -1466,7 +1488,7 @@
         <v>985</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.865168539325842</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L24" t="n">
         <v>8937.5</v>
@@ -1515,7 +1537,7 @@
         <v>990</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.262569832402235</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L25" t="n">
         <v>8939</v>
@@ -1564,7 +1586,7 @@
         <v>1065</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>8948</v>
@@ -1613,7 +1635,7 @@
         <v>1090</v>
       </c>
       <c r="K27" t="n">
-        <v>5.660377358490567</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L27" t="n">
         <v>8954.5</v>
@@ -1662,7 +1684,7 @@
         <v>1125</v>
       </c>
       <c r="K28" t="n">
-        <v>-13.10344827586207</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L28" t="n">
         <v>8957.5</v>
@@ -1711,7 +1733,7 @@
         <v>1190</v>
       </c>
       <c r="K29" t="n">
-        <v>2.013422818791946</v>
+        <v>18.30985915492958</v>
       </c>
       <c r="L29" t="n">
         <v>8963.5</v>
@@ -1760,7 +1782,7 @@
         <v>1245</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.40251572327044</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>8964.5</v>
@@ -1809,7 +1831,7 @@
         <v>1245</v>
       </c>
       <c r="K31" t="n">
-        <v>7.801418439716312</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L31" t="n">
         <v>8959.5</v>
@@ -1860,7 +1882,7 @@
         <v>1245</v>
       </c>
       <c r="K32" t="n">
-        <v>7.801418439716312</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L32" t="n">
         <v>8963</v>
@@ -1911,7 +1933,7 @@
         <v>1255</v>
       </c>
       <c r="K33" t="n">
-        <v>4.285714285714286</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L33" t="n">
         <v>8965.5</v>
@@ -1962,7 +1984,7 @@
         <v>1255</v>
       </c>
       <c r="K34" t="n">
-        <v>-15.51724137931035</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L34" t="n">
         <v>8967.5</v>
@@ -2013,7 +2035,7 @@
         <v>1255</v>
       </c>
       <c r="K35" t="n">
-        <v>6.521739130434782</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L35" t="n">
         <v>8969</v>
@@ -2064,7 +2086,7 @@
         <v>1260</v>
       </c>
       <c r="K36" t="n">
-        <v>7.526881720430108</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L36" t="n">
         <v>8963.5</v>
@@ -2115,7 +2137,7 @@
         <v>1260</v>
       </c>
       <c r="K37" t="n">
-        <v>7.526881720430108</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L37" t="n">
         <v>8960.5</v>
@@ -2166,7 +2188,7 @@
         <v>1260</v>
       </c>
       <c r="K38" t="n">
-        <v>7.526881720430108</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L38" t="n">
         <v>8961</v>
@@ -2217,7 +2239,7 @@
         <v>1280</v>
       </c>
       <c r="K39" t="n">
-        <v>4.444444444444445</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L39" t="n">
         <v>8957</v>
@@ -2268,7 +2290,7 @@
         <v>1295</v>
       </c>
       <c r="K40" t="n">
-        <v>8.695652173913043</v>
+        <v>60</v>
       </c>
       <c r="L40" t="n">
         <v>8960</v>
@@ -2319,7 +2341,7 @@
         <v>1295</v>
       </c>
       <c r="K41" t="n">
-        <v>-5</v>
+        <v>60</v>
       </c>
       <c r="L41" t="n">
         <v>8963</v>
@@ -2370,7 +2392,7 @@
         <v>1320</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76470588235294</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L42" t="n">
         <v>8963.5</v>
@@ -2421,7 +2443,7 @@
         <v>1320</v>
       </c>
       <c r="K43" t="n">
-        <v>11.76470588235294</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L43" t="n">
         <v>8965</v>
@@ -2472,7 +2494,7 @@
         <v>1320</v>
       </c>
       <c r="K44" t="n">
-        <v>10.44776119402985</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L44" t="n">
         <v>8966.5</v>
@@ -2523,7 +2545,7 @@
         <v>1320</v>
       </c>
       <c r="K45" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>8968</v>
@@ -2574,7 +2596,7 @@
         <v>1325</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.38461538461539</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L46" t="n">
         <v>8969.5</v>
@@ -2625,7 +2647,7 @@
         <v>1330</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>8970.5</v>
@@ -2676,7 +2698,7 @@
         <v>1335</v>
       </c>
       <c r="K48" t="n">
-        <v>9.523809523809524</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>8972</v>
@@ -2727,7 +2749,7 @@
         <v>1335</v>
       </c>
       <c r="K49" t="n">
-        <v>-31.03448275862069</v>
+        <v>-50</v>
       </c>
       <c r="L49" t="n">
         <v>8971.5</v>
@@ -2778,7 +2800,7 @@
         <v>1340</v>
       </c>
       <c r="K50" t="n">
-        <v>15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>8970</v>
@@ -2829,7 +2851,7 @@
         <v>1375</v>
       </c>
       <c r="K51" t="n">
-        <v>38.46153846153847</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L51" t="n">
         <v>8972</v>
@@ -2880,7 +2902,7 @@
         <v>1405</v>
       </c>
       <c r="K52" t="n">
-        <v>12.5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L52" t="n">
         <v>8973.5</v>
@@ -2931,7 +2953,7 @@
         <v>1420</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>8973.5</v>
@@ -2982,7 +3004,7 @@
         <v>1420</v>
       </c>
       <c r="K54" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>8973.5</v>
@@ -3033,7 +3055,7 @@
         <v>1420</v>
       </c>
       <c r="K55" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L55" t="n">
         <v>8973.5</v>
@@ -3135,7 +3157,7 @@
         <v>1435</v>
       </c>
       <c r="K57" t="n">
-        <v>14.28571428571428</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
         <v>8976</v>
@@ -3186,7 +3208,7 @@
         <v>1440</v>
       </c>
       <c r="K58" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>8977.5</v>
@@ -3237,7 +3259,7 @@
         <v>1495</v>
       </c>
       <c r="K59" t="n">
-        <v>30.23255813953488</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L59" t="n">
         <v>8984.5</v>
@@ -3288,7 +3310,7 @@
         <v>1530</v>
       </c>
       <c r="K60" t="n">
-        <v>6.382978723404255</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L60" t="n">
         <v>8987.5</v>
@@ -3339,7 +3361,7 @@
         <v>1530</v>
       </c>
       <c r="K61" t="n">
-        <v>6.382978723404255</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
         <v>8987</v>
@@ -3390,7 +3412,7 @@
         <v>1555</v>
       </c>
       <c r="K62" t="n">
-        <v>6.382978723404255</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>8987</v>
@@ -3441,7 +3463,7 @@
         <v>1560</v>
       </c>
       <c r="K63" t="n">
-        <v>4.166666666666666</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L63" t="n">
         <v>8988</v>
@@ -3543,7 +3565,7 @@
         <v>1570</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>8988</v>
@@ -3594,7 +3616,7 @@
         <v>1570</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.040816326530612</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L66" t="n">
         <v>8986.5</v>
@@ -3645,7 +3667,7 @@
         <v>1570</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L67" t="n">
         <v>8985</v>
@@ -3696,7 +3718,7 @@
         <v>1640</v>
       </c>
       <c r="K68" t="n">
-        <v>21.31147540983606</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L68" t="n">
         <v>8990</v>
@@ -3747,7 +3769,7 @@
         <v>1710</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.333333333333333</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L69" t="n">
         <v>8982.5</v>
@@ -3798,7 +3820,7 @@
         <v>1720</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L70" t="n">
         <v>8979.5</v>
@@ -3849,7 +3871,7 @@
         <v>1725</v>
       </c>
       <c r="K71" t="n">
-        <v>-8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>8977</v>
@@ -3900,7 +3922,7 @@
         <v>1725</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L72" t="n">
         <v>8977</v>
@@ -3951,7 +3973,7 @@
         <v>1730</v>
       </c>
       <c r="K73" t="n">
-        <v>3.225806451612903</v>
+        <v>6.25</v>
       </c>
       <c r="L73" t="n">
         <v>8977</v>
@@ -4002,7 +4024,7 @@
         <v>1790</v>
       </c>
       <c r="K74" t="n">
-        <v>18.91891891891892</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L74" t="n">
         <v>8984</v>
@@ -4053,7 +4075,7 @@
         <v>1850</v>
       </c>
       <c r="K75" t="n">
-        <v>2.325581395348837</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L75" t="n">
         <v>8985</v>
@@ -4104,7 +4126,7 @@
         <v>1855</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.380952380952381</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L76" t="n">
         <v>8985.5</v>
@@ -4155,7 +4177,7 @@
         <v>1860</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.176470588235294</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L77" t="n">
         <v>8986.5</v>
@@ -4206,7 +4228,7 @@
         <v>1860</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.380952380952381</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L78" t="n">
         <v>8980.5</v>
@@ -4257,7 +4279,7 @@
         <v>1860</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.80821917808219</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>8981.5</v>
@@ -4308,7 +4330,7 @@
         <v>1865</v>
       </c>
       <c r="K80" t="n">
-        <v>-10.44776119402985</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L80" t="n">
         <v>8981</v>
@@ -4359,7 +4381,7 @@
         <v>1865</v>
       </c>
       <c r="K81" t="n">
-        <v>-10.44776119402985</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L81" t="n">
         <v>8980</v>
@@ -4410,7 +4432,7 @@
         <v>1915</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111111</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L82" t="n">
         <v>8984</v>
@@ -4461,7 +4483,7 @@
         <v>1965</v>
       </c>
       <c r="K83" t="n">
-        <v>-1.234567901234568</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L83" t="n">
         <v>8983.5</v>
@@ -4512,7 +4534,7 @@
         <v>1965</v>
       </c>
       <c r="K84" t="n">
-        <v>1.265822784810127</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L84" t="n">
         <v>8977</v>
@@ -4563,7 +4585,7 @@
         <v>2020</v>
       </c>
       <c r="K85" t="n">
-        <v>13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>8982</v>
@@ -4614,7 +4636,7 @@
         <v>2070</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>8982.5</v>
@@ -4665,7 +4687,7 @@
         <v>2070</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>8982.5</v>
@@ -4716,7 +4738,7 @@
         <v>2075</v>
       </c>
       <c r="K88" t="n">
-        <v>-12.64367816091954</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L88" t="n">
         <v>8983</v>
@@ -4767,7 +4789,7 @@
         <v>2080</v>
       </c>
       <c r="K89" t="n">
-        <v>2.702702702702703</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L89" t="n">
         <v>8983</v>
@@ -4818,7 +4840,7 @@
         <v>2080</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L90" t="n">
         <v>8983.5</v>
@@ -4869,7 +4891,7 @@
         <v>2080</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.408450704225352</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L91" t="n">
         <v>8984</v>
@@ -4920,7 +4942,7 @@
         <v>2080</v>
       </c>
       <c r="K92" t="n">
-        <v>-1.408450704225352</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L92" t="n">
         <v>8979.5</v>
@@ -4971,7 +4993,7 @@
         <v>2080</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L93" t="n">
         <v>8980</v>
@@ -5022,7 +5044,7 @@
         <v>2080</v>
       </c>
       <c r="K94" t="n">
-        <v>-20.68965517241379</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L94" t="n">
         <v>8980.5</v>
@@ -5124,7 +5146,7 @@
         <v>2080</v>
       </c>
       <c r="K96" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>8975.5</v>
@@ -5175,7 +5197,7 @@
         <v>2080</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>8975.5</v>
@@ -5225,9 +5247,7 @@
       <c r="J98" t="n">
         <v>2080</v>
       </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>8975</v>
       </c>
@@ -5276,9 +5296,7 @@
       <c r="J99" t="n">
         <v>2080</v>
       </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>8975</v>
       </c>
@@ -5327,9 +5345,7 @@
       <c r="J100" t="n">
         <v>2080</v>
       </c>
-      <c r="K100" t="n">
-        <v>2.325581395348837</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>8975</v>
       </c>
@@ -5378,9 +5394,7 @@
       <c r="J101" t="n">
         <v>2080</v>
       </c>
-      <c r="K101" t="n">
-        <v>2.325581395348837</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>8975</v>
       </c>
@@ -5429,9 +5443,7 @@
       <c r="J102" t="n">
         <v>2080</v>
       </c>
-      <c r="K102" t="n">
-        <v>-27.27272727272727</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>8975</v>
       </c>
@@ -5480,9 +5492,7 @@
       <c r="J103" t="n">
         <v>2080</v>
       </c>
-      <c r="K103" t="n">
-        <v>4.347826086956522</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>8975</v>
       </c>
@@ -5531,9 +5541,7 @@
       <c r="J104" t="n">
         <v>2080</v>
       </c>
-      <c r="K104" t="n">
-        <v>4.347826086956522</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>8975</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>2085</v>
       </c>
       <c r="K105" t="n">
-        <v>-84.61538461538461</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>8974.5</v>
@@ -5634,7 +5642,7 @@
         <v>2090</v>
       </c>
       <c r="K106" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>8973.5</v>
@@ -5685,7 +5693,7 @@
         <v>2105</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>8974</v>
@@ -5736,7 +5744,7 @@
         <v>2115</v>
       </c>
       <c r="K108" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>8973.5</v>
@@ -6042,7 +6050,7 @@
         <v>2160</v>
       </c>
       <c r="K114" t="n">
-        <v>-12.5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L114" t="n">
         <v>8969.5</v>
@@ -6093,7 +6101,7 @@
         <v>2160</v>
       </c>
       <c r="K115" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>8969</v>
@@ -6144,7 +6152,7 @@
         <v>2160</v>
       </c>
       <c r="K116" t="n">
-        <v>-12.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L116" t="n">
         <v>8969</v>
@@ -6195,7 +6203,7 @@
         <v>2160</v>
       </c>
       <c r="K117" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L117" t="n">
         <v>8967.5</v>
@@ -6246,7 +6254,7 @@
         <v>2195</v>
       </c>
       <c r="K118" t="n">
-        <v>21.73913043478261</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>8970.5</v>
@@ -6297,7 +6305,7 @@
         <v>2230</v>
       </c>
       <c r="K119" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>8970.5</v>
@@ -6348,7 +6356,7 @@
         <v>2320</v>
       </c>
       <c r="K120" t="n">
-        <v>33.33333333333333</v>
+        <v>45</v>
       </c>
       <c r="L120" t="n">
         <v>8979.5</v>
@@ -6399,7 +6407,7 @@
         <v>2405</v>
       </c>
       <c r="K121" t="n">
-        <v>-1.538461538461539</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L121" t="n">
         <v>8980</v>
@@ -6450,7 +6458,7 @@
         <v>2495</v>
       </c>
       <c r="K122" t="n">
-        <v>20.48192771084337</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="L122" t="n">
         <v>8989.5</v>
@@ -6501,7 +6509,7 @@
         <v>2495</v>
       </c>
       <c r="K123" t="n">
-        <v>20.48192771084337</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L123" t="n">
         <v>8997</v>
@@ -6552,7 +6560,7 @@
         <v>2575</v>
       </c>
       <c r="K124" t="n">
-        <v>1.01010101010101</v>
+        <v>3.614457831325301</v>
       </c>
       <c r="L124" t="n">
         <v>8998.5</v>
@@ -6603,7 +6611,7 @@
         <v>2585</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L125" t="n">
         <v>8999</v>
@@ -6654,7 +6662,7 @@
         <v>2660</v>
       </c>
       <c r="K126" t="n">
-        <v>14.03508771929824</v>
+        <v>16</v>
       </c>
       <c r="L126" t="n">
         <v>9007</v>
@@ -6705,7 +6713,7 @@
         <v>2735</v>
       </c>
       <c r="K127" t="n">
-        <v>-1.587301587301587</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L127" t="n">
         <v>9007.5</v>
@@ -6756,7 +6764,7 @@
         <v>2820</v>
       </c>
       <c r="K128" t="n">
-        <v>12.05673758865248</v>
+        <v>15.25423728813559</v>
       </c>
       <c r="L128" t="n">
         <v>9013</v>
@@ -6807,7 +6815,7 @@
         <v>2900</v>
       </c>
       <c r="K129" t="n">
-        <v>1.282051282051282</v>
+        <v>-13.79310344827586</v>
       </c>
       <c r="L129" t="n">
         <v>9014</v>
@@ -6858,7 +6866,7 @@
         <v>2910</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-0.9900990099009901</v>
       </c>
       <c r="L130" t="n">
         <v>9005</v>
@@ -6909,7 +6917,7 @@
         <v>2925</v>
       </c>
       <c r="K131" t="n">
-        <v>1.863354037267081</v>
+        <v>-18.6046511627907</v>
       </c>
       <c r="L131" t="n">
         <v>9006</v>
@@ -6960,7 +6968,7 @@
         <v>2925</v>
       </c>
       <c r="K132" t="n">
-        <v>1.863354037267081</v>
+        <v>-18.6046511627907</v>
       </c>
       <c r="L132" t="n">
         <v>8998</v>
@@ -7011,7 +7019,7 @@
         <v>2940</v>
       </c>
       <c r="K133" t="n">
-        <v>1.25</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="L133" t="n">
         <v>8991.5</v>
@@ -7062,7 +7070,7 @@
         <v>2945</v>
       </c>
       <c r="K134" t="n">
-        <v>4.45859872611465</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L134" t="n">
         <v>8993.5</v>
@@ -7113,7 +7121,7 @@
         <v>2945</v>
       </c>
       <c r="K135" t="n">
-        <v>4.45859872611465</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L135" t="n">
         <v>8996.5</v>
@@ -7164,7 +7172,7 @@
         <v>2950</v>
       </c>
       <c r="K136" t="n">
-        <v>3.79746835443038</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L136" t="n">
         <v>8991.5</v>
@@ -7215,7 +7223,7 @@
         <v>2950</v>
       </c>
       <c r="K137" t="n">
-        <v>3.79746835443038</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L137" t="n">
         <v>8994</v>
@@ -7266,7 +7274,7 @@
         <v>2950</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.6622516556291391</v>
+        <v>40</v>
       </c>
       <c r="L138" t="n">
         <v>8988</v>
@@ -7317,7 +7325,7 @@
         <v>2950</v>
       </c>
       <c r="K139" t="n">
-        <v>4.166666666666666</v>
+        <v>75</v>
       </c>
       <c r="L139" t="n">
         <v>8990</v>
@@ -7368,7 +7376,7 @@
         <v>2950</v>
       </c>
       <c r="K140" t="n">
-        <v>-9.523809523809524</v>
+        <v>60</v>
       </c>
       <c r="L140" t="n">
         <v>8993</v>
@@ -7419,7 +7427,7 @@
         <v>2950</v>
       </c>
       <c r="K141" t="n">
-        <v>4.587155963302752</v>
+        <v>60</v>
       </c>
       <c r="L141" t="n">
         <v>8994.5</v>
@@ -7470,7 +7478,7 @@
         <v>2950</v>
       </c>
       <c r="K142" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>8996</v>
@@ -7521,7 +7529,7 @@
         <v>2950</v>
       </c>
       <c r="K143" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L143" t="n">
         <v>8996</v>
@@ -7572,7 +7580,7 @@
         <v>2950</v>
       </c>
       <c r="K144" t="n">
-        <v>4</v>
+        <v>-100</v>
       </c>
       <c r="L144" t="n">
         <v>8995.5</v>
@@ -7622,9 +7630,7 @@
       <c r="J145" t="n">
         <v>2950</v>
       </c>
-      <c r="K145" t="n">
-        <v>6.849315068493151</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>8995</v>
       </c>
@@ -7673,9 +7679,7 @@
       <c r="J146" t="n">
         <v>2950</v>
       </c>
-      <c r="K146" t="n">
-        <v>-17.24137931034483</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>8995</v>
       </c>
@@ -7724,9 +7728,7 @@
       <c r="J147" t="n">
         <v>2950</v>
       </c>
-      <c r="K147" t="n">
-        <v>11.62790697674419</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>8995</v>
       </c>
@@ -7775,9 +7777,7 @@
       <c r="J148" t="n">
         <v>2950</v>
       </c>
-      <c r="K148" t="n">
-        <v>-46.15384615384615</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>8995</v>
       </c>
@@ -7826,9 +7826,7 @@
       <c r="J149" t="n">
         <v>2950</v>
       </c>
-      <c r="K149" t="n">
-        <v>40</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>8995</v>
       </c>
@@ -7877,9 +7875,7 @@
       <c r="J150" t="n">
         <v>2950</v>
       </c>
-      <c r="K150" t="n">
-        <v>75</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>8995</v>
       </c>
@@ -7929,7 +7925,7 @@
         <v>2980</v>
       </c>
       <c r="K151" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>8992</v>
@@ -7980,7 +7976,7 @@
         <v>2980</v>
       </c>
       <c r="K152" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>8989</v>
@@ -8031,7 +8027,7 @@
         <v>2980</v>
       </c>
       <c r="K153" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>8986</v>
@@ -8133,7 +8129,7 @@
         <v>3080</v>
       </c>
       <c r="K155" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>8979.5</v>
@@ -8388,7 +8384,7 @@
         <v>3265</v>
       </c>
       <c r="K160" t="n">
-        <v>23.80952380952381</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L160" t="n">
         <v>9002</v>
@@ -8439,7 +8435,7 @@
         <v>3290</v>
       </c>
       <c r="K161" t="n">
-        <v>29.41176470588236</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L161" t="n">
         <v>9015</v>
@@ -8490,7 +8486,7 @@
         <v>3295</v>
       </c>
       <c r="K162" t="n">
-        <v>30.43478260869566</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L162" t="n">
         <v>9028.5</v>
@@ -8541,7 +8537,7 @@
         <v>3350</v>
       </c>
       <c r="K163" t="n">
-        <v>40</v>
+        <v>67.16417910447761</v>
       </c>
       <c r="L163" t="n">
         <v>9047.5</v>
@@ -8592,7 +8588,7 @@
         <v>3375</v>
       </c>
       <c r="K164" t="n">
-        <v>43.52941176470588</v>
+        <v>62.71186440677966</v>
       </c>
       <c r="L164" t="n">
         <v>9072.5</v>
@@ -8643,7 +8639,7 @@
         <v>3375</v>
       </c>
       <c r="K165" t="n">
-        <v>43.52941176470588</v>
+        <v>100</v>
       </c>
       <c r="L165" t="n">
         <v>9091</v>
@@ -8694,7 +8690,7 @@
         <v>3420</v>
       </c>
       <c r="K166" t="n">
-        <v>48.93617021276596</v>
+        <v>100</v>
       </c>
       <c r="L166" t="n">
         <v>9119.5</v>
@@ -8745,7 +8741,7 @@
         <v>3585</v>
       </c>
       <c r="K167" t="n">
-        <v>62.20472440944882</v>
+        <v>100</v>
       </c>
       <c r="L167" t="n">
         <v>9153.5</v>
@@ -8796,7 +8792,7 @@
         <v>3710</v>
       </c>
       <c r="K168" t="n">
-        <v>35.52631578947368</v>
+        <v>43.82022471910113</v>
       </c>
       <c r="L168" t="n">
         <v>9173</v>
@@ -8847,7 +8843,7 @@
         <v>3835</v>
       </c>
       <c r="K169" t="n">
-        <v>44.63276836158192</v>
+        <v>56.14035087719298</v>
       </c>
       <c r="L169" t="n">
         <v>9205</v>
@@ -8898,7 +8894,7 @@
         <v>3835</v>
       </c>
       <c r="K170" t="n">
-        <v>44.63276836158192</v>
+        <v>54.12844036697248</v>
       </c>
       <c r="L170" t="n">
         <v>9237</v>
@@ -8949,7 +8945,7 @@
         <v>3845</v>
       </c>
       <c r="K171" t="n">
-        <v>47.97687861271676</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="L171" t="n">
         <v>9265.5</v>
@@ -9000,7 +8996,7 @@
         <v>3950</v>
       </c>
       <c r="K172" t="n">
-        <v>31.95876288659793</v>
+        <v>20</v>
       </c>
       <c r="L172" t="n">
         <v>9283</v>
@@ -9051,7 +9047,7 @@
         <v>3965</v>
       </c>
       <c r="K173" t="n">
-        <v>29.94923857868021</v>
+        <v>13.5593220338983</v>
       </c>
       <c r="L173" t="n">
         <v>9293.5</v>
@@ -9102,7 +9098,7 @@
         <v>4225</v>
       </c>
       <c r="K174" t="n">
-        <v>5.785123966942149</v>
+        <v>-21.17647058823529</v>
       </c>
       <c r="L174" t="n">
         <v>9275.5</v>
@@ -9153,7 +9149,7 @@
         <v>4425</v>
       </c>
       <c r="K175" t="n">
-        <v>15.24163568773234</v>
+        <v>-2.487562189054727</v>
       </c>
       <c r="L175" t="n">
         <v>9277.5</v>
@@ -9204,7 +9200,7 @@
         <v>4445</v>
       </c>
       <c r="K176" t="n">
-        <v>18.3206106870229</v>
+        <v>-24.41860465116279</v>
       </c>
       <c r="L176" t="n">
         <v>9273</v>
@@ -9255,7 +9251,7 @@
         <v>4455</v>
       </c>
       <c r="K177" t="n">
-        <v>9.917355371900827</v>
+        <v>-12.75167785234899</v>
       </c>
       <c r="L177" t="n">
         <v>9251</v>
@@ -9306,7 +9302,7 @@
         <v>4460</v>
       </c>
       <c r="K178" t="n">
-        <v>8.786610878661087</v>
+        <v>-34.4</v>
       </c>
       <c r="L178" t="n">
         <v>9242</v>
@@ -9357,7 +9353,7 @@
         <v>4465</v>
       </c>
       <c r="K179" t="n">
-        <v>9.166666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>9221</v>
@@ -9408,7 +9404,7 @@
         <v>4530</v>
       </c>
       <c r="K180" t="n">
-        <v>13.83399209486166</v>
+        <v>-19.70802919708029</v>
       </c>
       <c r="L180" t="n">
         <v>9206.5</v>
@@ -9459,7 +9455,7 @@
         <v>4535</v>
       </c>
       <c r="K181" t="n">
-        <v>11.64658634538153</v>
+        <v>-5.982905982905983</v>
       </c>
       <c r="L181" t="n">
         <v>9192.5</v>
@@ -9510,7 +9506,7 @@
         <v>4545</v>
       </c>
       <c r="K182" t="n">
-        <v>10.4</v>
+        <v>-5.172413793103448</v>
       </c>
       <c r="L182" t="n">
         <v>9188</v>
@@ -9561,7 +9557,7 @@
         <v>4590</v>
       </c>
       <c r="K183" t="n">
-        <v>2.419354838709677</v>
+        <v>50.68493150684932</v>
       </c>
       <c r="L183" t="n">
         <v>9180.5</v>
@@ -9612,7 +9608,7 @@
         <v>4635</v>
       </c>
       <c r="K184" t="n">
-        <v>3.968253968253968</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>9203.5</v>
@@ -9663,7 +9659,7 @@
         <v>4775</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.428571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L185" t="n">
         <v>9192.5</v>
@@ -9714,7 +9710,7 @@
         <v>5015</v>
       </c>
       <c r="K186" t="n">
-        <v>6.583072100313479</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L186" t="n">
         <v>9207.5</v>
@@ -9765,7 +9761,7 @@
         <v>5180</v>
       </c>
       <c r="K187" t="n">
-        <v>-14.10658307210031</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="L187" t="n">
         <v>9207</v>
@@ -9816,7 +9812,7 @@
         <v>5195</v>
       </c>
       <c r="K188" t="n">
-        <v>-7.744107744107744</v>
+        <v>-4.10958904109589</v>
       </c>
       <c r="L188" t="n">
         <v>9204.5</v>
@@ -9867,7 +9863,7 @@
         <v>5225</v>
       </c>
       <c r="K189" t="n">
-        <v>-15.10791366906475</v>
+        <v>-9.352517985611511</v>
       </c>
       <c r="L189" t="n">
         <v>9204.5</v>
@@ -9918,7 +9914,7 @@
         <v>5270</v>
       </c>
       <c r="K190" t="n">
-        <v>-11.49825783972125</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L190" t="n">
         <v>9202.5</v>
@@ -9969,7 +9965,7 @@
         <v>5315</v>
       </c>
       <c r="K191" t="n">
-        <v>-13.60544217687075</v>
+        <v>-6.493506493506493</v>
       </c>
       <c r="L191" t="n">
         <v>9196.5</v>
@@ -10020,7 +10016,7 @@
         <v>5315</v>
       </c>
       <c r="K192" t="n">
-        <v>-6.95970695970696</v>
+        <v>-0.6896551724137931</v>
       </c>
       <c r="L192" t="n">
         <v>9191.5</v>
@@ -10071,7 +10067,7 @@
         <v>5315</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.925925925925926</v>
+        <v>-7.352941176470589</v>
       </c>
       <c r="L193" t="n">
         <v>9191</v>
@@ -10122,7 +10118,7 @@
         <v>5360</v>
       </c>
       <c r="K194" t="n">
-        <v>19.82378854625551</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L194" t="n">
         <v>9190.5</v>
@@ -10173,7 +10169,7 @@
         <v>5460</v>
       </c>
       <c r="K195" t="n">
-        <v>-7.246376811594203</v>
+        <v>-46.06741573033708</v>
       </c>
       <c r="L195" t="n">
         <v>9194</v>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S195"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>8942.666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8905</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8905</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>8945.083333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8905</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>8947.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>95</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8905</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>9000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9000</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>8952</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>165</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>9070</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>8952.333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>8940</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +704,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +736,19 @@
         <v>8954.75</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>445</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>9000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9000</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +778,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" t="n">
-        <v>450</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +821,16 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>540</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>8986</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +857,23 @@
         <v>8952.75</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>540</v>
+        <v>8905</v>
       </c>
       <c r="K12" t="n">
-        <v>-21.34831460674157</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8986</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +900,23 @@
         <v>8951.833333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>555</v>
+        <v>8930</v>
       </c>
       <c r="K13" t="n">
-        <v>-17.39130434782609</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8978</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +943,23 @@
         <v>8952.833333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>675</v>
+        <v>9040</v>
       </c>
       <c r="K14" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8982</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +986,23 @@
         <v>8952.833333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>795</v>
+        <v>8920</v>
       </c>
       <c r="K15" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8974</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1029,23 @@
         <v>8951.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>795</v>
+        <v>8920</v>
       </c>
       <c r="K16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8959</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1072,23 @@
         <v>8950.25</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>795</v>
+        <v>8920</v>
       </c>
       <c r="K17" t="n">
-        <v>-31.64556962025317</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8957</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1115,23 @@
         <v>8949</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>795</v>
+        <v>8920</v>
       </c>
       <c r="K18" t="n">
-        <v>-22.85714285714286</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8944.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1158,23 @@
         <v>8948.333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>830</v>
+        <v>8955</v>
       </c>
       <c r="K19" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8940</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1201,23 @@
         <v>8948.75</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>835</v>
+        <v>8945</v>
       </c>
       <c r="K20" t="n">
-        <v>15.25423728813559</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8935.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1244,23 @@
         <v>8950.083333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>895</v>
+        <v>9010</v>
       </c>
       <c r="K21" t="n">
-        <v>29.57746478873239</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8946</v>
+        <v>9000</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>8966</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1287,23 @@
         <v>8950</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>980</v>
+        <v>8925</v>
       </c>
       <c r="K22" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8948</v>
+        <v>9000</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>8967</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1330,23 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>980</v>
+        <v>8925</v>
       </c>
       <c r="K23" t="n">
-        <v>-37.70491803278689</v>
-      </c>
-      <c r="L23" t="n">
-        <v>8948.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>8963.25</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1373,23 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>985</v>
+        <v>8935</v>
       </c>
       <c r="K24" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8937.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>8959.75</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1416,23 @@
         <v>8950</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>990</v>
+        <v>8995</v>
       </c>
       <c r="K25" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8939</v>
+        <v>9000</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>8956.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1459,23 @@
         <v>8951.333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1065</v>
+        <v>9010</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8948</v>
+        <v>9000</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>8953.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1502,23 @@
         <v>8952.25</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1090</v>
+        <v>8980</v>
       </c>
       <c r="K27" t="n">
-        <v>22.03389830508474</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8954.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>8955.75</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1545,23 @@
         <v>8952.583333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1125</v>
+        <v>8950</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.694915254237288</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8957.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>8951</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1588,23 @@
         <v>8954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1190</v>
+        <v>8960</v>
       </c>
       <c r="K29" t="n">
-        <v>18.30985915492958</v>
-      </c>
-      <c r="L29" t="n">
-        <v>8963.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>8951.75</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1631,23 @@
         <v>8954.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1245</v>
+        <v>8950</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8964.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>8950</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1674,23 @@
         <v>8955</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1245</v>
+        <v>8960</v>
       </c>
       <c r="K31" t="n">
-        <v>13.20754716981132</v>
-      </c>
-      <c r="L31" t="n">
-        <v>8959.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>8952.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8963.833333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1717,23 @@
         <v>8955.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1245</v>
+        <v>8960</v>
       </c>
       <c r="K32" t="n">
-        <v>13.20754716981132</v>
-      </c>
-      <c r="L32" t="n">
-        <v>8963</v>
+        <v>9000</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>8955.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8965.666666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1760,23 @@
         <v>8955.833333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1255</v>
+        <v>8960</v>
       </c>
       <c r="K33" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8965.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>8957</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8964</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1803,23 @@
         <v>8956.166666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1255</v>
+        <v>8950</v>
       </c>
       <c r="K34" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L34" t="n">
-        <v>8967.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>8952.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8962.333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1846,23 @@
         <v>8956.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1255</v>
+        <v>8950</v>
       </c>
       <c r="K35" t="n">
-        <v>-31.57894736842105</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8969</v>
+        <v>9000</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>8954</v>
-      </c>
-      <c r="N35" t="n">
-        <v>8960.666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1889,23 @@
         <v>8956.916666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1260</v>
+        <v>8950</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L36" t="n">
-        <v>8963.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>8955.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8956.833333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1932,23 @@
         <v>8957.333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1260</v>
+        <v>8955</v>
       </c>
       <c r="K37" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8960.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>8957.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8957.333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1975,23 @@
         <v>8957.666666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1260</v>
+        <v>8955</v>
       </c>
       <c r="K38" t="n">
-        <v>-85.71428571428571</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8961</v>
+        <v>9000</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>8959.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>8954.333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +2018,23 @@
         <v>8958.333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1280</v>
+        <v>8975</v>
       </c>
       <c r="K39" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8957</v>
+        <v>9000</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>8960.25</v>
-      </c>
-      <c r="N39" t="n">
-        <v>8953.5</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +2061,23 @@
         <v>8959.25</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1295</v>
+        <v>8990</v>
       </c>
       <c r="K40" t="n">
-        <v>60</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8960</v>
+        <v>9000</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>8962.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>8953.333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2104,23 @@
         <v>8960.166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1295</v>
+        <v>8990</v>
       </c>
       <c r="K41" t="n">
-        <v>60</v>
-      </c>
-      <c r="L41" t="n">
-        <v>8963</v>
+        <v>9000</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>8961.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>8956.166666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2147,23 @@
         <v>8960.666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1320</v>
+        <v>8990</v>
       </c>
       <c r="K42" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L42" t="n">
-        <v>8963.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>8963.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8958.166666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2190,23 @@
         <v>8961.25</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1320</v>
+        <v>8965</v>
       </c>
       <c r="K43" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L43" t="n">
-        <v>8965</v>
+        <v>9000</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>8965.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>8959.666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2233,23 @@
         <v>8962.083333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1320</v>
+        <v>8965</v>
       </c>
       <c r="K44" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L44" t="n">
-        <v>8966.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>8967</v>
-      </c>
-      <c r="N44" t="n">
-        <v>8957.166666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2276,23 @@
         <v>8962.916666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1320</v>
+        <v>9015</v>
       </c>
       <c r="K45" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L45" t="n">
-        <v>8968</v>
+        <v>9000</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>8968.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8958.666666666666</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2319,23 @@
         <v>8963.833333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1325</v>
+        <v>8970</v>
       </c>
       <c r="K46" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L46" t="n">
-        <v>8969.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>8966.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>8960.333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2362,23 @@
         <v>8964.666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1330</v>
+        <v>8965</v>
       </c>
       <c r="K47" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>8970.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>8965.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>8961.833333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2405,23 @@
         <v>8964.333333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1335</v>
+        <v>8970</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8972</v>
+        <v>9000</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>8966.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>8963.5</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2448,23 @@
         <v>8963.916666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1335</v>
+        <v>8970</v>
       </c>
       <c r="K49" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L49" t="n">
-        <v>8971.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>8964.25</v>
-      </c>
-      <c r="N49" t="n">
-        <v>8964</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2491,23 @@
         <v>8963.583333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1340</v>
+        <v>8980</v>
       </c>
       <c r="K50" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>8970</v>
+        <v>9000</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>8965</v>
-      </c>
-      <c r="N50" t="n">
-        <v>8964.833333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2534,23 @@
         <v>8964.583333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1375</v>
+        <v>9010</v>
       </c>
       <c r="K51" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L51" t="n">
-        <v>8972</v>
+        <v>9000</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>8967.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>8964.833333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2577,23 @@
         <v>8965.083333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1405</v>
+        <v>8980</v>
       </c>
       <c r="K52" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L52" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>8968.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>8966.666666666666</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2620,23 @@
         <v>8964.75</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1420</v>
+        <v>8975</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>8969.25</v>
-      </c>
-      <c r="N53" t="n">
-        <v>8968</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2663,23 @@
         <v>8965.583333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1420</v>
+        <v>8965</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>8970</v>
-      </c>
-      <c r="N54" t="n">
-        <v>8969.166666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2706,23 @@
         <v>8966.416666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1420</v>
+        <v>8965</v>
       </c>
       <c r="K55" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L55" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>8970.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>8970.166666666666</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2749,23 @@
         <v>8968.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1435</v>
+        <v>8980</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>8974.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>8972</v>
-      </c>
-      <c r="N56" t="n">
-        <v>8969.166666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2792,23 @@
         <v>8968.25</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1435</v>
+        <v>8985</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
-      </c>
-      <c r="L57" t="n">
-        <v>8976</v>
+        <v>9000</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>8973.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>8969</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2835,23 @@
         <v>8968.083333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1440</v>
+        <v>9010</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8977.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>8974.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>8970.166666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2878,23 @@
         <v>8968.75</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1495</v>
+        <v>9040</v>
       </c>
       <c r="K59" t="n">
-        <v>41.93548387096774</v>
-      </c>
-      <c r="L59" t="n">
-        <v>8984.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>8978</v>
-      </c>
-      <c r="N59" t="n">
-        <v>8971</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2921,23 @@
         <v>8968.833333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1530</v>
+        <v>9000</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L60" t="n">
-        <v>8987.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>8978.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>8972.5</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2967,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>20</v>
-      </c>
-      <c r="L61" t="n">
-        <v>8987</v>
+        <v>9000</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>8974</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +3008,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>75</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L62" t="n">
-        <v>8987</v>
+        <v>9000</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>8980.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>8974.666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +3049,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>70</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L63" t="n">
-        <v>8988</v>
+        <v>9000</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>8980.75</v>
-      </c>
-      <c r="N63" t="n">
-        <v>8975.5</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3090,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>60</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>8988</v>
+        <v>9000</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>8980.75</v>
-      </c>
-      <c r="N64" t="n">
-        <v>8976</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3131,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>60</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L65" t="n">
-        <v>8988</v>
+        <v>9000</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>8980.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>8976.5</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +3169,23 @@
         <v>8966.833333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1570</v>
+        <v>8965</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L66" t="n">
-        <v>8986.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>8980.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>8976.833333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +3212,23 @@
         <v>8967.25</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1570</v>
+        <v>8965</v>
       </c>
       <c r="K67" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8985</v>
+        <v>9000</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>8980.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>8977.166666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3258,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>130</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L68" t="n">
-        <v>8990</v>
+        <v>9000</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>8983.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>8979.833333333334</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +3296,23 @@
         <v>8966.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1710</v>
+        <v>8965</v>
       </c>
       <c r="K69" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L69" t="n">
-        <v>8982.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>8983.5</v>
-      </c>
-      <c r="N69" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3342,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>70</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>8983.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>8979</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3383,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>75</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8977</v>
+        <v>9000</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>8982</v>
-      </c>
-      <c r="N71" t="n">
-        <v>8978.666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3421,23 @@
         <v>8968.666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1725</v>
+        <v>8980</v>
       </c>
       <c r="K72" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8977</v>
+        <v>9000</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>8982</v>
-      </c>
-      <c r="N72" t="n">
-        <v>8979.166666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3464,23 @@
         <v>8969.583333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1730</v>
+        <v>8975</v>
       </c>
       <c r="K73" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8977</v>
+        <v>9000</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>8982.5</v>
-      </c>
-      <c r="N73" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3507,23 @@
         <v>8969.5</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1790</v>
+        <v>9035</v>
       </c>
       <c r="K74" t="n">
-        <v>31.81818181818182</v>
-      </c>
-      <c r="L74" t="n">
-        <v>8984</v>
+        <v>9000</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>8986</v>
-      </c>
-      <c r="N74" t="n">
-        <v>8981.833333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3550,23 @@
         <v>8970.416666666666</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1850</v>
+        <v>8975</v>
       </c>
       <c r="K75" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="L75" t="n">
-        <v>8985</v>
+        <v>9000</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>8986.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>8982.166666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3596,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>65</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="L76" t="n">
-        <v>8985.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>8986</v>
-      </c>
-      <c r="N76" t="n">
-        <v>8982.166666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3637,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>70</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8986.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>8985.75</v>
-      </c>
-      <c r="N77" t="n">
-        <v>8982.5</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3678,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>70</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L78" t="n">
-        <v>8980.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>8985.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>8982.666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3719,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>70</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>8981.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>8982</v>
-      </c>
-      <c r="N79" t="n">
-        <v>8982.833333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3757,23 @@
         <v>8973.75</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1865</v>
+        <v>8970</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L80" t="n">
-        <v>8981</v>
+        <v>9000</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>8980.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>8982.666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3800,23 @@
         <v>8973.083333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1865</v>
+        <v>8970</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8980</v>
+        <v>9000</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>8978.5</v>
-      </c>
-      <c r="N81" t="n">
-        <v>8981.333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3843,23 @@
         <v>8974.666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1915</v>
+        <v>9020</v>
       </c>
       <c r="K82" t="n">
-        <v>24.32432432432433</v>
-      </c>
-      <c r="L82" t="n">
-        <v>8984</v>
+        <v>9000</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>8980.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>8982.666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3886,23 @@
         <v>8975.416666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1965</v>
+        <v>8970</v>
       </c>
       <c r="K83" t="n">
-        <v>-37.14285714285715</v>
-      </c>
-      <c r="L83" t="n">
-        <v>8983.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>8980.25</v>
-      </c>
-      <c r="N83" t="n">
-        <v>8982.833333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3932,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>65</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L84" t="n">
-        <v>8977</v>
+        <v>9000</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>8980.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>8983</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3973,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>120</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L85" t="n">
-        <v>8982</v>
+        <v>9000</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>8983.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>8985</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +4011,23 @@
         <v>8977</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2070</v>
+        <v>8975</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>8982.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>8984</v>
-      </c>
-      <c r="N86" t="n">
-        <v>8984.833333333334</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +4057,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>70</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>8982.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>8984.5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>8984.666666666666</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +4098,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L88" t="n">
-        <v>8983</v>
+        <v>9000</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>8981.75</v>
-      </c>
-      <c r="N88" t="n">
-        <v>8984.5</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +4139,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>70</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L89" t="n">
-        <v>8983</v>
+        <v>9000</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>8982.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>8982.333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4180,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>70</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L90" t="n">
-        <v>8983.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>8982.25</v>
-      </c>
-      <c r="N90" t="n">
-        <v>8981.333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4221,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>70</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L91" t="n">
-        <v>8984</v>
+        <v>9000</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>8982</v>
-      </c>
-      <c r="N91" t="n">
-        <v>8980.333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4262,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>70</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L92" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>8981.75</v>
-      </c>
-      <c r="N92" t="n">
-        <v>8980.166666666666</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4303,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>70</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L93" t="n">
-        <v>8980</v>
+        <v>9000</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>8981.75</v>
-      </c>
-      <c r="N93" t="n">
-        <v>8980.166666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +4341,23 @@
         <v>8978.25</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2080</v>
+        <v>8975</v>
       </c>
       <c r="K94" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8980.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>8978.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>8980.5</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +4384,23 @@
         <v>8978.666666666666</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2080</v>
+        <v>8975</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>8975.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>8978.75</v>
-      </c>
-      <c r="N95" t="n">
-        <v>8980.833333333334</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +4427,23 @@
         <v>8979</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2080</v>
+        <v>8975</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>8975.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>8979</v>
-      </c>
-      <c r="N96" t="n">
-        <v>8981.166666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4470,23 @@
         <v>8979.333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2080</v>
+        <v>8975</v>
       </c>
       <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>8975.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>8979</v>
-      </c>
-      <c r="N97" t="n">
-        <v>8981.5</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,29 +4513,23 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>8975</v>
+        <v>8975</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>8979</v>
-      </c>
-      <c r="N98" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,29 +4556,23 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>8975</v>
+        <v>8975</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>8979</v>
-      </c>
-      <c r="N99" t="n">
-        <v>8979.833333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,29 +4599,23 @@
         <v>8979.416666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>8975</v>
+        <v>8975</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>8979.25</v>
-      </c>
-      <c r="N100" t="n">
-        <v>8979.833333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,29 +4642,23 @@
         <v>8979.166666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>8975</v>
+        <v>8975</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>8979.666666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,29 +4685,23 @@
         <v>8979.333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>8975</v>
+        <v>8975</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>8977.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,26 +4731,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>70</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>8975</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>8977.5</v>
-      </c>
-      <c r="N103" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,26 +4772,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>70</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>8975</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>8977.75</v>
-      </c>
-      <c r="N104" t="n">
-        <v>8977.5</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,31 +4810,23 @@
         <v>8979.75</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2085</v>
+        <v>8970</v>
       </c>
       <c r="K105" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>8974.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>8975</v>
-      </c>
-      <c r="N105" t="n">
-        <v>8977.333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5633,31 +4853,23 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2090</v>
+        <v>8970</v>
       </c>
       <c r="K106" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>8974.5</v>
-      </c>
-      <c r="N106" t="n">
-        <v>8977.166666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,31 +4896,23 @@
         <v>8979.916666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2105</v>
+        <v>8980</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
-      </c>
-      <c r="L107" t="n">
-        <v>8974</v>
+        <v>9000</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>8974.75</v>
-      </c>
-      <c r="N107" t="n">
-        <v>8977.333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5735,31 +4939,23 @@
         <v>8979.916666666666</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2115</v>
+        <v>8970</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L108" t="n">
-        <v>8973.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>8974.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>8977.166666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5789,28 +4985,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>60</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L109" t="n">
-        <v>8972.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>8973.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>8976.833333333334</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,31 +5023,23 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2120</v>
+        <v>8965</v>
       </c>
       <c r="K110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L110" t="n">
-        <v>8971.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>8973.25</v>
-      </c>
-      <c r="N110" t="n">
-        <v>8976.666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,31 +5066,23 @@
         <v>8978.916666666666</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2120</v>
+        <v>8965</v>
       </c>
       <c r="K111" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L111" t="n">
-        <v>8970.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>8972.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>8976.5</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5939,31 +5109,23 @@
         <v>8978.666666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2120</v>
+        <v>8965</v>
       </c>
       <c r="K112" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L112" t="n">
-        <v>8969.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>8972.25</v>
-      </c>
-      <c r="N112" t="n">
-        <v>8974.666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,31 +5152,23 @@
         <v>8979</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2140</v>
+        <v>8985</v>
       </c>
       <c r="K113" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L113" t="n">
-        <v>8970.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>8972.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>8975.166666666666</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,31 +5195,23 @@
         <v>8979</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2160</v>
+        <v>8970</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L114" t="n">
-        <v>8969.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>8972.25</v>
-      </c>
-      <c r="N114" t="n">
-        <v>8975</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,31 +5238,23 @@
         <v>8979</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2160</v>
+        <v>8970</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>8969</v>
+        <v>9000</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>8971.75</v>
-      </c>
-      <c r="N115" t="n">
-        <v>8973</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6143,31 +5281,23 @@
         <v>8978.75</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2160</v>
+        <v>8965</v>
       </c>
       <c r="K116" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L116" t="n">
-        <v>8969</v>
+        <v>9000</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>8971.25</v>
-      </c>
-      <c r="N116" t="n">
-        <v>8972.666666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,31 +5324,23 @@
         <v>8978.5</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2160</v>
+        <v>8965</v>
       </c>
       <c r="K117" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L117" t="n">
-        <v>8967.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>8970.75</v>
-      </c>
-      <c r="N117" t="n">
-        <v>8972.333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6245,31 +5367,23 @@
         <v>8978.75</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2195</v>
+        <v>9000</v>
       </c>
       <c r="K118" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L118" t="n">
-        <v>8970.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>8972</v>
-      </c>
-      <c r="N118" t="n">
-        <v>8973</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,31 +5410,23 @@
         <v>8977.5</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2230</v>
+        <v>8965</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>8970.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>8971.5</v>
-      </c>
-      <c r="N119" t="n">
-        <v>8972.666666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,28 +5456,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>150</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>45</v>
-      </c>
-      <c r="L120" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>8975.5</v>
-      </c>
-      <c r="N120" t="n">
-        <v>8975.333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,31 +5494,23 @@
         <v>8977.75</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2405</v>
+        <v>9055</v>
       </c>
       <c r="K121" t="n">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="L121" t="n">
-        <v>8980</v>
+        <v>9000</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>8975.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>8975.166666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,28 +5540,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>155</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>21.12676056338028</v>
-      </c>
-      <c r="L122" t="n">
-        <v>8989.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>8979.5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>8978</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,28 +5581,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>155</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>28.35820895522388</v>
-      </c>
-      <c r="L123" t="n">
-        <v>8997</v>
+        <v>9000</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>8983.75</v>
-      </c>
-      <c r="N123" t="n">
-        <v>8980.833333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,28 +5622,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>75</v>
-      </c>
-      <c r="J124" t="n">
-        <v>2575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>3.614457831325301</v>
-      </c>
-      <c r="L124" t="n">
-        <v>8998.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>8984</v>
-      </c>
-      <c r="N124" t="n">
-        <v>8981</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,28 +5663,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>65</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="L125" t="n">
-        <v>8999</v>
+        <v>9000</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>8984</v>
-      </c>
-      <c r="N125" t="n">
-        <v>8980.833333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,28 +5704,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>140</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>16</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9007</v>
+        <v>9000</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>8988</v>
-      </c>
-      <c r="N126" t="n">
-        <v>8983.166666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,28 +5745,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>65</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>-5.555555555555555</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9007.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>8987.5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>8983</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6758,28 +5786,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>150</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>15.25423728813559</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9013</v>
+        <v>9000</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>8991.75</v>
-      </c>
-      <c r="N128" t="n">
-        <v>8985.666666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,28 +5827,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>70</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>-13.79310344827586</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9014</v>
+        <v>9000</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>8992.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>8985.666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,28 +5868,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>60</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>-0.9900990099009901</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9005</v>
+        <v>9000</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>8992.25</v>
-      </c>
-      <c r="N130" t="n">
-        <v>8985.333333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6911,28 +5909,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>75</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>-18.6046511627907</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9006</v>
+        <v>9000</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>8993</v>
-      </c>
-      <c r="N131" t="n">
-        <v>8985.5</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6962,28 +5950,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>75</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>-18.6046511627907</v>
-      </c>
-      <c r="L132" t="n">
-        <v>8998</v>
+        <v>9000</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>8993.75</v>
-      </c>
-      <c r="N132" t="n">
-        <v>8985.666666666666</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,28 +5991,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>90</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="L133" t="n">
-        <v>8991.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>8994.25</v>
-      </c>
-      <c r="N133" t="n">
-        <v>8986.333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,28 +6032,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>95</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L134" t="n">
-        <v>8993.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>8996</v>
-      </c>
-      <c r="N134" t="n">
-        <v>8987.166666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,28 +6073,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>95</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L135" t="n">
-        <v>8996.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>8997.75</v>
-      </c>
-      <c r="N135" t="n">
-        <v>8988.166666666666</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7166,28 +6114,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>90</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="L136" t="n">
-        <v>8991.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>8999.25</v>
-      </c>
-      <c r="N136" t="n">
-        <v>8989.166666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7217,28 +6155,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>90</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>-46.15384615384615</v>
-      </c>
-      <c r="L137" t="n">
-        <v>8994</v>
+        <v>9000</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>9000.75</v>
-      </c>
-      <c r="N137" t="n">
-        <v>8989.666666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,28 +6196,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>90</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>40</v>
-      </c>
-      <c r="L138" t="n">
-        <v>8988</v>
+        <v>9000</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>9000.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>8990.5</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,28 +6237,18 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>90</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>75</v>
-      </c>
-      <c r="L139" t="n">
-        <v>8990</v>
+        <v>9000</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>9002</v>
-      </c>
-      <c r="N139" t="n">
-        <v>8991.5</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7370,28 +6278,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>90</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>60</v>
-      </c>
-      <c r="L140" t="n">
-        <v>8993</v>
+        <v>9000</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>8999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>8992.5</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7421,28 +6319,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>90</v>
-      </c>
-      <c r="J141" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>60</v>
-      </c>
-      <c r="L141" t="n">
-        <v>8994.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>9000.25</v>
-      </c>
-      <c r="N141" t="n">
-        <v>8993.5</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7472,28 +6360,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>90</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>8996</v>
+        <v>9000</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>8997</v>
-      </c>
-      <c r="N142" t="n">
-        <v>8994.5</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,28 +6401,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>90</v>
-      </c>
-      <c r="J143" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L143" t="n">
-        <v>8996</v>
+        <v>9000</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>8993.75</v>
-      </c>
-      <c r="N143" t="n">
-        <v>8994.833333333334</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7574,28 +6442,18 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>90</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>8995.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>8994.5</v>
-      </c>
-      <c r="N144" t="n">
-        <v>8995.833333333334</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7625,26 +6483,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>90</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>8995.75</v>
-      </c>
-      <c r="N145" t="n">
-        <v>8996.833333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,26 +6524,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>90</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>8993.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>8997.833333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7723,26 +6565,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>90</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>8994.5</v>
-      </c>
-      <c r="N147" t="n">
-        <v>8998.833333333334</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7772,26 +6606,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>90</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>8991.5</v>
-      </c>
-      <c r="N148" t="n">
-        <v>8998.666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7821,26 +6647,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>90</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>8992.5</v>
-      </c>
-      <c r="N149" t="n">
-        <v>8999.666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7870,26 +6688,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>90</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>8995</v>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>8994</v>
-      </c>
-      <c r="N150" t="n">
-        <v>8997.666666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,28 +6729,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>60</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L151" t="n">
-        <v>8992</v>
+        <v>9000</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>8993.25</v>
-      </c>
-      <c r="N151" t="n">
-        <v>8997.5</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7970,28 +6770,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>60</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>8989</v>
+        <v>9000</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>8992.5</v>
-      </c>
-      <c r="N152" t="n">
-        <v>8994.333333333334</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,28 +6811,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>60</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>8986</v>
+        <v>9000</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>8991</v>
-      </c>
-      <c r="N153" t="n">
-        <v>8991.166666666666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8072,28 +6852,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>25</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>8987.5</v>
-      </c>
-      <c r="N154" t="n">
-        <v>8989.5</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8123,28 +6893,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>90</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>8987.25</v>
-      </c>
-      <c r="N155" t="n">
-        <v>8990.333333333334</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8171,31 +6931,23 @@
         <v>8985</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>3135</v>
+        <v>8940</v>
       </c>
       <c r="K156" t="n">
-        <v>-29.72972972972973</v>
-      </c>
-      <c r="L156" t="n">
-        <v>8974</v>
+        <v>9000</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>8984.5</v>
-      </c>
-      <c r="N156" t="n">
-        <v>8986.833333333334</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8225,28 +6977,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>145</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>18.64406779661017</v>
-      </c>
-      <c r="L157" t="n">
-        <v>8979.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>8987.25</v>
-      </c>
-      <c r="N157" t="n">
-        <v>8989.5</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,31 +7015,23 @@
         <v>8987.833333333334</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>3265</v>
+        <v>9050</v>
       </c>
       <c r="K158" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L158" t="n">
-        <v>8987</v>
+        <v>9000</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>8991</v>
-      </c>
-      <c r="N158" t="n">
-        <v>8990</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8327,28 +7061,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>165</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L159" t="n">
-        <v>8994.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>8994.75</v>
-      </c>
-      <c r="N159" t="n">
-        <v>8993.166666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,28 +7102,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>165</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L160" t="n">
-        <v>9002</v>
+        <v>9000</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>8998.5</v>
-      </c>
-      <c r="N160" t="n">
-        <v>8996.666666666666</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,28 +7143,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>190</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>41.93548387096774</v>
-      </c>
-      <c r="L161" t="n">
-        <v>9015</v>
+        <v>9000</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>9003.5</v>
-      </c>
-      <c r="N161" t="n">
-        <v>9000.5</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8480,28 +7184,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>195</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L162" t="n">
-        <v>9028.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>9008.75</v>
-      </c>
-      <c r="N162" t="n">
-        <v>9004.5</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,28 +7225,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>250</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>67.16417910447761</v>
-      </c>
-      <c r="L163" t="n">
-        <v>9047.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>9016.75</v>
-      </c>
-      <c r="N163" t="n">
-        <v>9009.833333333334</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8582,28 +7266,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>275</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>62.71186440677966</v>
-      </c>
-      <c r="L164" t="n">
-        <v>9072.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>9026</v>
-      </c>
-      <c r="N164" t="n">
-        <v>9015.833333333334</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8633,28 +7307,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>275</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>100</v>
-      </c>
-      <c r="L165" t="n">
-        <v>9091</v>
+        <v>9000</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>9035.25</v>
-      </c>
-      <c r="N165" t="n">
-        <v>9021.833333333334</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,28 +7348,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>320</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>100</v>
-      </c>
-      <c r="L166" t="n">
-        <v>9119.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>9046.75</v>
-      </c>
-      <c r="N166" t="n">
-        <v>9029.5</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8735,28 +7389,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>485</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>100</v>
-      </c>
-      <c r="L167" t="n">
-        <v>9153.5</v>
+        <v>9000</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>9066.5</v>
-      </c>
-      <c r="N167" t="n">
-        <v>9042.666666666666</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8786,28 +7430,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>360</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>43.82022471910113</v>
-      </c>
-      <c r="L168" t="n">
-        <v>9173</v>
+        <v>9000</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>9080</v>
-      </c>
-      <c r="N168" t="n">
-        <v>9051.666666666666</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8837,29 +7471,19 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>485</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3835</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>56.14035087719298</v>
-      </c>
-      <c r="L169" t="n">
-        <v>9205</v>
+        <v>9000</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>9099.75</v>
-      </c>
-      <c r="N169" t="n">
-        <v>9064.833333333334</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
+        <v>1.038333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -8888,28 +7512,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>485</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3835</v>
-      </c>
-      <c r="K170" t="n">
-        <v>54.12844036697248</v>
-      </c>
-      <c r="L170" t="n">
-        <v>9237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>9119.5</v>
-      </c>
-      <c r="N170" t="n">
-        <v>9078</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8939,28 +7547,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>475</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3845</v>
-      </c>
-      <c r="K171" t="n">
-        <v>50.90909090909091</v>
-      </c>
-      <c r="L171" t="n">
-        <v>9265.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>9140.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>9090.833333333334</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8990,28 +7582,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>370</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3950</v>
-      </c>
-      <c r="K172" t="n">
-        <v>20</v>
-      </c>
-      <c r="L172" t="n">
-        <v>9283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>9155.75</v>
-      </c>
-      <c r="N172" t="n">
-        <v>9100.166666666666</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9041,28 +7617,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>355</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3965</v>
-      </c>
-      <c r="K173" t="n">
-        <v>13.5593220338983</v>
-      </c>
-      <c r="L173" t="n">
-        <v>9293.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>9170.5</v>
-      </c>
-      <c r="N173" t="n">
-        <v>9109</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9092,1099 +7652,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>95</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4225</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-21.17647058823529</v>
-      </c>
-      <c r="L174" t="n">
-        <v>9275.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>9174</v>
-      </c>
-      <c r="N174" t="n">
-        <v>9109.166666666666</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9200</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9200</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9200</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>9056.416666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>295</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4425</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-2.487562189054727</v>
-      </c>
-      <c r="L175" t="n">
-        <v>9277.5</v>
-      </c>
-      <c r="M175" t="n">
-        <v>9184.25</v>
-      </c>
-      <c r="N175" t="n">
-        <v>9116</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9135</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9120</v>
-      </c>
-      <c r="F176" t="n">
-        <v>124.0021</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9060</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>275</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4445</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-24.41860465116279</v>
-      </c>
-      <c r="L176" t="n">
-        <v>9273</v>
-      </c>
-      <c r="M176" t="n">
-        <v>9196.25</v>
-      </c>
-      <c r="N176" t="n">
-        <v>9122.166666666666</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F177" t="n">
-        <v>93.6694</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9063.416666666666</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>265</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4455</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-12.75167785234899</v>
-      </c>
-      <c r="L177" t="n">
-        <v>9251</v>
-      </c>
-      <c r="M177" t="n">
-        <v>9202.25</v>
-      </c>
-      <c r="N177" t="n">
-        <v>9128</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9066.333333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>270</v>
-      </c>
-      <c r="J178" t="n">
-        <v>4460</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-34.4</v>
-      </c>
-      <c r="L178" t="n">
-        <v>9242</v>
-      </c>
-      <c r="M178" t="n">
-        <v>9207.5</v>
-      </c>
-      <c r="N178" t="n">
-        <v>9134</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F179" t="n">
-        <v>55.8657</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9069.916666666666</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>275</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4465</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L179" t="n">
-        <v>9221</v>
-      </c>
-      <c r="M179" t="n">
-        <v>9213</v>
-      </c>
-      <c r="N179" t="n">
-        <v>9140.166666666666</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9190</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9245</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9245</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9190</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9073.083333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>340</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4530</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-19.70802919708029</v>
-      </c>
-      <c r="L180" t="n">
-        <v>9206.5</v>
-      </c>
-      <c r="M180" t="n">
-        <v>9221.75</v>
-      </c>
-      <c r="N180" t="n">
-        <v>9148.5</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9145</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F181" t="n">
-        <v>71.6874</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9077.583333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>335</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-5.982905982905983</v>
-      </c>
-      <c r="L181" t="n">
-        <v>9192.5</v>
-      </c>
-      <c r="M181" t="n">
-        <v>9229</v>
-      </c>
-      <c r="N181" t="n">
-        <v>9157.666666666666</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9150</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9060</v>
-      </c>
-      <c r="F182" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9080.416666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>325</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4545</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-5.172413793103448</v>
-      </c>
-      <c r="L182" t="n">
-        <v>9188</v>
-      </c>
-      <c r="M182" t="n">
-        <v>9235.5</v>
-      </c>
-      <c r="N182" t="n">
-        <v>9166.5</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9185</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F183" t="n">
-        <v>234.4358</v>
-      </c>
-      <c r="G183" t="n">
-        <v>9082.5</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>280</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4590</v>
-      </c>
-      <c r="K183" t="n">
-        <v>50.68493150684932</v>
-      </c>
-      <c r="L183" t="n">
-        <v>9180.5</v>
-      </c>
-      <c r="M183" t="n">
-        <v>9237</v>
-      </c>
-      <c r="N183" t="n">
-        <v>9173.833333333334</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F184" t="n">
-        <v>239.6645</v>
-      </c>
-      <c r="G184" t="n">
-        <v>9086.666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>325</v>
-      </c>
-      <c r="J184" t="n">
-        <v>4635</v>
-      </c>
-      <c r="K184" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L184" t="n">
-        <v>9203.5</v>
-      </c>
-      <c r="M184" t="n">
-        <v>9239.5</v>
-      </c>
-      <c r="N184" t="n">
-        <v>9183.833333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9230</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9090</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9365</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F185" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="G185" t="n">
-        <v>9088.666666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>185</v>
-      </c>
-      <c r="J185" t="n">
-        <v>4775</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L185" t="n">
-        <v>9192.5</v>
-      </c>
-      <c r="M185" t="n">
-        <v>9235</v>
-      </c>
-      <c r="N185" t="n">
-        <v>9187</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>9093.416666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>425</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5015</v>
-      </c>
-      <c r="K186" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L186" t="n">
-        <v>9207.5</v>
-      </c>
-      <c r="M186" t="n">
-        <v>9240.25</v>
-      </c>
-      <c r="N186" t="n">
-        <v>9200</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4.9337</v>
-      </c>
-      <c r="G187" t="n">
-        <v>9096.666666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>260</v>
-      </c>
-      <c r="J187" t="n">
-        <v>5180</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="L187" t="n">
-        <v>9207</v>
-      </c>
-      <c r="M187" t="n">
-        <v>9229</v>
-      </c>
-      <c r="N187" t="n">
-        <v>9203.833333333334</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9160</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9160</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.66</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9098.25</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>245</v>
-      </c>
-      <c r="J188" t="n">
-        <v>5195</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-4.10958904109589</v>
-      </c>
-      <c r="L188" t="n">
-        <v>9204.5</v>
-      </c>
-      <c r="M188" t="n">
-        <v>9223.25</v>
-      </c>
-      <c r="N188" t="n">
-        <v>9206.5</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F189" t="n">
-        <v>22.2451</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9101.666666666666</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>275</v>
-      </c>
-      <c r="J189" t="n">
-        <v>5225</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-9.352517985611511</v>
-      </c>
-      <c r="L189" t="n">
-        <v>9204.5</v>
-      </c>
-      <c r="M189" t="n">
-        <v>9212.75</v>
-      </c>
-      <c r="N189" t="n">
-        <v>9210.166666666666</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9225</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9225</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F190" t="n">
-        <v>319</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9106</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>320</v>
-      </c>
-      <c r="J190" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-2.040816326530612</v>
-      </c>
-      <c r="L190" t="n">
-        <v>9202.5</v>
-      </c>
-      <c r="M190" t="n">
-        <v>9204.5</v>
-      </c>
-      <c r="N190" t="n">
-        <v>9215.333333333334</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.2236</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9109.333333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>275</v>
-      </c>
-      <c r="J191" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-6.493506493506493</v>
-      </c>
-      <c r="L191" t="n">
-        <v>9196.5</v>
-      </c>
-      <c r="M191" t="n">
-        <v>9194.5</v>
-      </c>
-      <c r="N191" t="n">
-        <v>9218.166666666666</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F192" t="n">
-        <v>24.9207</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9112.666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>275</v>
-      </c>
-      <c r="J192" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-0.6896551724137931</v>
-      </c>
-      <c r="L192" t="n">
-        <v>9191.5</v>
-      </c>
-      <c r="M192" t="n">
-        <v>9189.75</v>
-      </c>
-      <c r="N192" t="n">
-        <v>9220.833333333334</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6.5858</v>
-      </c>
-      <c r="G193" t="n">
-        <v>9115.75</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>275</v>
-      </c>
-      <c r="J193" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-7.352941176470589</v>
-      </c>
-      <c r="L193" t="n">
-        <v>9191</v>
-      </c>
-      <c r="M193" t="n">
-        <v>9185.75</v>
-      </c>
-      <c r="N193" t="n">
-        <v>9221.666666666666</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="F194" t="n">
-        <v>13.831</v>
-      </c>
-      <c r="G194" t="n">
-        <v>9119.5</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>320</v>
-      </c>
-      <c r="J194" t="n">
-        <v>5360</v>
-      </c>
-      <c r="K194" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L194" t="n">
-        <v>9190.5</v>
-      </c>
-      <c r="M194" t="n">
-        <v>9197</v>
-      </c>
-      <c r="N194" t="n">
-        <v>9223.166666666666</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="F195" t="n">
-        <v>25.6179</v>
-      </c>
-      <c r="G195" t="n">
-        <v>9121.583333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>220</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5460</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-46.06741573033708</v>
-      </c>
-      <c r="L195" t="n">
-        <v>9194</v>
-      </c>
-      <c r="M195" t="n">
-        <v>9193.25</v>
-      </c>
-      <c r="N195" t="n">
-        <v>9221.333333333334</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -451,17 +451,13 @@
         <v>8942.666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8905</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8905</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>8945.083333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8905</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>8947.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8905</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>8952</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9070</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>8952.333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>8940</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -736,17 +696,13 @@
         <v>8954.75</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -781,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -822,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -857,22 +801,14 @@
         <v>8952.75</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8905</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -900,22 +836,14 @@
         <v>8951.833333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8930</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,22 +871,14 @@
         <v>8952.833333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9040</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -986,22 +906,14 @@
         <v>8952.833333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1029,22 +941,14 @@
         <v>8951.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1072,22 +976,14 @@
         <v>8950.25</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1115,22 +1011,14 @@
         <v>8949</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1046,14 @@
         <v>8948.333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>8955</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1201,22 +1081,14 @@
         <v>8948.75</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1244,22 +1116,14 @@
         <v>8950.083333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,22 +1151,14 @@
         <v>8950</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>8925</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1330,22 +1186,14 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>8925</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1373,22 +1221,14 @@
         <v>8949.916666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>8935</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,22 +1256,14 @@
         <v>8950</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1459,22 +1291,14 @@
         <v>8951.333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1502,22 +1326,14 @@
         <v>8952.25</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1545,22 +1361,14 @@
         <v>8952.583333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1396,14 @@
         <v>8954</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1631,22 +1431,14 @@
         <v>8954.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1674,22 +1466,14 @@
         <v>8955</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1717,22 +1501,14 @@
         <v>8955.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1760,22 +1536,14 @@
         <v>8955.833333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1803,22 +1571,14 @@
         <v>8956.166666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1846,22 +1606,14 @@
         <v>8956.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1889,22 +1641,14 @@
         <v>8956.916666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +1676,14 @@
         <v>8957.333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>8955</v>
-      </c>
-      <c r="K37" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1975,22 +1711,14 @@
         <v>8957.666666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>8955</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2018,22 +1746,14 @@
         <v>8958.333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2061,22 +1781,14 @@
         <v>8959.25</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>8990</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2104,22 +1816,14 @@
         <v>8960.166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>8990</v>
-      </c>
-      <c r="K41" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2147,22 +1851,14 @@
         <v>8960.666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>8990</v>
-      </c>
-      <c r="K42" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2190,22 +1886,14 @@
         <v>8961.25</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2233,22 +1921,14 @@
         <v>8962.083333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K44" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +1956,14 @@
         <v>8962.916666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2319,22 +1991,14 @@
         <v>8963.833333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2026,14 @@
         <v>8964.666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2405,22 +2061,14 @@
         <v>8964.333333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2448,22 +2096,14 @@
         <v>8963.916666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2491,22 +2131,14 @@
         <v>8963.583333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K50" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2534,22 +2166,14 @@
         <v>8964.583333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2577,22 +2201,14 @@
         <v>8965.083333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2236,14 @@
         <v>8964.75</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K53" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2663,22 +2271,14 @@
         <v>8965.583333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2306,14 @@
         <v>8966.416666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K55" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2749,22 +2341,14 @@
         <v>8968.5</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K56" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2792,22 +2376,14 @@
         <v>8968.25</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>8985</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2835,22 +2411,14 @@
         <v>8968.083333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2878,22 +2446,14 @@
         <v>8968.75</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9040</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2921,22 +2481,14 @@
         <v>8968.833333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2970,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3011,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3134,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3169,22 +2691,14 @@
         <v>8966.833333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3212,22 +2726,14 @@
         <v>8967.25</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3261,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +2796,14 @@
         <v>8966.5</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3421,22 +2901,14 @@
         <v>8968.666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +2936,14 @@
         <v>8969.583333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3507,22 +2971,14 @@
         <v>8969.5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9035</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3550,22 +3006,14 @@
         <v>8970.416666666666</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K75" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3640,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3681,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3757,22 +3181,14 @@
         <v>8973.75</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3800,22 +3216,14 @@
         <v>8973.083333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K81" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3843,22 +3251,14 @@
         <v>8974.666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K82" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +3286,14 @@
         <v>8975.416666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3935,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3976,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4011,22 +3391,14 @@
         <v>8977</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4101,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4142,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4265,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4306,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4341,22 +3671,14 @@
         <v>8978.25</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K94" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4384,22 +3706,14 @@
         <v>8978.666666666666</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K95" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4427,22 +3741,14 @@
         <v>8979</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K96" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +3776,14 @@
         <v>8979.333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K97" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4513,22 +3811,14 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K98" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4565,13 +3855,9 @@
         <v>8975</v>
       </c>
       <c r="K99" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>8975</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +3894,11 @@
         <v>8975</v>
       </c>
       <c r="K100" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4642,20 +3928,18 @@
         <v>8979.166666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>8975</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4685,22 +3969,14 @@
         <v>8979.333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K102" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4775,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4816,16 +4080,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>8975</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4862,11 +4122,11 @@
         <v>8970</v>
       </c>
       <c r="K106" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4902,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="K107" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4945,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="K108" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4982,14 +4242,16 @@
         <v>8979.833333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8970</v>
+      </c>
       <c r="K109" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5023,16 +4285,14 @@
         <v>8979.666666666666</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5075,7 +4335,7 @@
         <v>8965</v>
       </c>
       <c r="K111" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5118,7 +4378,7 @@
         <v>8965</v>
       </c>
       <c r="K112" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5158,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="K113" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5201,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="K114" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5238,16 +4498,14 @@
         <v>8979</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>8970</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5290,7 +4548,7 @@
         <v>8965</v>
       </c>
       <c r="K116" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5333,7 +4591,7 @@
         <v>8965</v>
       </c>
       <c r="K117" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5373,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="K118" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5416,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="K119" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5460,7 +4718,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5494,16 +4752,14 @@
         <v>8977.75</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9055</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5544,7 +4800,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5585,7 +4841,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5626,7 +4882,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5667,7 +4923,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5708,7 +4964,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5749,7 +5005,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5790,7 +5046,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5831,7 +5087,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5872,7 +5128,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5913,7 +5169,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5954,7 +5210,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5995,7 +5251,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6036,7 +5292,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6077,7 +5333,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6118,7 +5374,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6159,7 +5415,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6200,7 +5456,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6241,7 +5497,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6282,7 +5538,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6323,7 +5579,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6364,7 +5620,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6405,7 +5661,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6446,7 +5702,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6487,7 +5743,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6528,7 +5784,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6569,7 +5825,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6610,7 +5866,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6651,7 +5907,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6692,7 +5948,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6733,7 +5989,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6774,7 +6030,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6815,7 +6071,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6856,7 +6112,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6897,7 +6153,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6931,16 +6187,14 @@
         <v>8985</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>8940</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6981,7 +6235,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -7024,7 +6278,7 @@
         <v>9050</v>
       </c>
       <c r="K158" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7058,14 +6312,16 @@
         <v>8989.416666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9070</v>
+      </c>
       <c r="K159" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7106,7 +6362,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7147,7 +6403,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7188,7 +6444,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7229,7 +6485,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7270,7 +6526,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7311,7 +6567,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7352,7 +6608,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7393,7 +6649,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7434,7 +6690,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7475,7 +6731,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7483,7 +6739,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>1.038333333333333</v>
+        <v>1.041239554317549</v>
       </c>
     </row>
     <row r="170">

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="C2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="D2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="E2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>97.11539999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>8942.666666666666</v>
+        <v>8941.833333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,31 +468,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>8905</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8905</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8905</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8905</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8942.666666666666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>9000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="K3" t="n">
         <v>9000</v>
       </c>
-      <c r="D3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>52.3259</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8945.083333333334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -515,20 +519,28 @@
         <v>9000</v>
       </c>
       <c r="F4" t="n">
-        <v>5.90955555</v>
+        <v>52.3259</v>
       </c>
       <c r="G4" t="n">
-        <v>8947.5</v>
+        <v>8945.083333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>8905</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,20 +562,28 @@
         <v>9000</v>
       </c>
       <c r="F5" t="n">
-        <v>43.7637</v>
+        <v>5.90955555</v>
       </c>
       <c r="G5" t="n">
-        <v>8949.916666666666</v>
+        <v>8947.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +593,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="C6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="E6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>43.7637</v>
       </c>
       <c r="G6" t="n">
-        <v>8952</v>
+        <v>8949.916666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="C7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="D7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="E7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>8952.333333333334</v>
+        <v>8952</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="C8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="D8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="E8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>8953.916666666666</v>
+        <v>8952.333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="C9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="D9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="E9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="F9" t="n">
-        <v>22.1975</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>8954.75</v>
+        <v>8953.916666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +733,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="E10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F10" t="n">
-        <v>11.802</v>
+        <v>22.1975</v>
       </c>
       <c r="G10" t="n">
-        <v>8955.083333333334</v>
+        <v>8954.75</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="C11" t="n">
-        <v>8905</v>
+        <v>8995</v>
       </c>
       <c r="D11" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="E11" t="n">
-        <v>8905</v>
+        <v>8995</v>
       </c>
       <c r="F11" t="n">
-        <v>233.3042</v>
+        <v>11.802</v>
       </c>
       <c r="G11" t="n">
-        <v>8953.916666666666</v>
+        <v>8955.083333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +803,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="C12" t="n">
         <v>8905</v>
       </c>
       <c r="D12" t="n">
-        <v>8905</v>
+        <v>9005</v>
       </c>
       <c r="E12" t="n">
         <v>8905</v>
       </c>
       <c r="F12" t="n">
-        <v>164</v>
+        <v>233.3042</v>
       </c>
       <c r="G12" t="n">
-        <v>8952.75</v>
+        <v>8953.916666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8930</v>
+        <v>8905</v>
       </c>
       <c r="C13" t="n">
-        <v>8920</v>
+        <v>8905</v>
       </c>
       <c r="D13" t="n">
-        <v>8930</v>
+        <v>8905</v>
       </c>
       <c r="E13" t="n">
-        <v>8920</v>
+        <v>8905</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="G13" t="n">
-        <v>8951.833333333334</v>
+        <v>8952.75</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9040</v>
+        <v>8930</v>
       </c>
       <c r="C14" t="n">
-        <v>9040</v>
+        <v>8920</v>
       </c>
       <c r="D14" t="n">
-        <v>9040</v>
+        <v>8930</v>
       </c>
       <c r="E14" t="n">
-        <v>9040</v>
+        <v>8920</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>8952.833333333334</v>
+        <v>8951.833333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,31 +908,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="C15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="D15" t="n">
-        <v>8925</v>
+        <v>9040</v>
       </c>
       <c r="E15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="F15" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>8952.833333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>8920</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8920</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -929,16 +953,16 @@
         <v>8920</v>
       </c>
       <c r="D16" t="n">
-        <v>8920</v>
+        <v>8925</v>
       </c>
       <c r="E16" t="n">
         <v>8920</v>
       </c>
       <c r="F16" t="n">
-        <v>65.5</v>
+        <v>123</v>
       </c>
       <c r="G16" t="n">
-        <v>8951.5</v>
+        <v>8952.833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +971,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -970,10 +1000,10 @@
         <v>8920</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>65.5</v>
       </c>
       <c r="G17" t="n">
-        <v>8950.25</v>
+        <v>8951.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1005,10 +1041,10 @@
         <v>8920</v>
       </c>
       <c r="F18" t="n">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>8949</v>
+        <v>8950.25</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1053,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="C19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="D19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="E19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="F19" t="n">
-        <v>5.581</v>
+        <v>103</v>
       </c>
       <c r="G19" t="n">
-        <v>8948.333333333334</v>
+        <v>8949</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1094,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,32 +1111,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8945</v>
+        <v>8955</v>
       </c>
       <c r="C20" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="D20" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="E20" t="n">
-        <v>8945</v>
+        <v>8955</v>
       </c>
       <c r="F20" t="n">
-        <v>48.6047</v>
+        <v>5.581</v>
       </c>
       <c r="G20" t="n">
-        <v>8948.75</v>
+        <v>8948.333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>8920</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,32 +1154,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9010</v>
+        <v>8945</v>
       </c>
       <c r="C21" t="n">
-        <v>9010</v>
+        <v>8950</v>
       </c>
       <c r="D21" t="n">
-        <v>9010</v>
+        <v>8950</v>
       </c>
       <c r="E21" t="n">
-        <v>9010</v>
+        <v>8945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2228</v>
+        <v>48.6047</v>
       </c>
       <c r="G21" t="n">
-        <v>8950.083333333334</v>
+        <v>8948.75</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>8955</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,32 +1197,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="C22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="D22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="E22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>0.2228</v>
       </c>
       <c r="G22" t="n">
+        <v>8950.083333333334</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>8950</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,10 +1252,10 @@
         <v>8925</v>
       </c>
       <c r="F23" t="n">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>8949.916666666666</v>
+        <v>8950</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1264,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,19 +1281,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="C24" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="D24" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="E24" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="F24" t="n">
-        <v>22.0776</v>
+        <v>230</v>
       </c>
       <c r="G24" t="n">
         <v>8949.916666666666</v>
@@ -1227,8 +1305,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1322,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8995</v>
+        <v>8935</v>
       </c>
       <c r="C25" t="n">
+        <v>8930</v>
+      </c>
+      <c r="D25" t="n">
         <v>8935</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9025</v>
       </c>
       <c r="E25" t="n">
         <v>8930</v>
       </c>
       <c r="F25" t="n">
-        <v>337.6297</v>
+        <v>22.0776</v>
       </c>
       <c r="G25" t="n">
-        <v>8950</v>
+        <v>8949.916666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1346,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9010</v>
+        <v>8995</v>
       </c>
       <c r="C26" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="D26" t="n">
-        <v>9010</v>
+        <v>9025</v>
       </c>
       <c r="E26" t="n">
-        <v>9010</v>
+        <v>8930</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2362</v>
+        <v>337.6297</v>
       </c>
       <c r="G26" t="n">
-        <v>8951.333333333334</v>
+        <v>8950</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1387,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1404,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="C27" t="n">
-        <v>8985</v>
+        <v>9010</v>
       </c>
       <c r="D27" t="n">
-        <v>8985</v>
+        <v>9010</v>
       </c>
       <c r="E27" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="F27" t="n">
-        <v>32.579</v>
+        <v>0.2362</v>
       </c>
       <c r="G27" t="n">
-        <v>8952.25</v>
+        <v>8951.333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1445,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="C28" t="n">
-        <v>8950</v>
+        <v>8985</v>
       </c>
       <c r="D28" t="n">
-        <v>8950</v>
+        <v>8985</v>
       </c>
       <c r="E28" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="F28" t="n">
-        <v>85.0809</v>
+        <v>32.579</v>
       </c>
       <c r="G28" t="n">
-        <v>8952.583333333334</v>
+        <v>8952.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1469,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1486,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="C29" t="n">
-        <v>9015</v>
+        <v>8950</v>
       </c>
       <c r="D29" t="n">
-        <v>9015</v>
+        <v>8950</v>
       </c>
       <c r="E29" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="F29" t="n">
-        <v>8.8452</v>
+        <v>85.0809</v>
       </c>
       <c r="G29" t="n">
-        <v>8954</v>
+        <v>8952.583333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1510,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1527,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="C30" t="n">
+        <v>9015</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9015</v>
+      </c>
+      <c r="E30" t="n">
         <v>8960</v>
       </c>
-      <c r="D30" t="n">
-        <v>8960</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8950</v>
-      </c>
       <c r="F30" t="n">
-        <v>33.9785</v>
+        <v>8.8452</v>
       </c>
       <c r="G30" t="n">
-        <v>8954.5</v>
+        <v>8954</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1551,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="C31" t="n">
         <v>8960</v>
@@ -1457,13 +1577,13 @@
         <v>8960</v>
       </c>
       <c r="E31" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>33.9785</v>
       </c>
       <c r="G31" t="n">
-        <v>8955</v>
+        <v>8954.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1592,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1621,10 @@
         <v>8960</v>
       </c>
       <c r="F32" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>8955.5</v>
+        <v>8955</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1633,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1653,19 @@
         <v>8960</v>
       </c>
       <c r="C33" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="D33" t="n">
         <v>8960</v>
       </c>
       <c r="E33" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="F33" t="n">
-        <v>63.5</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
-        <v>8955.833333333334</v>
+        <v>8955.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1674,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1691,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="C34" t="n">
         <v>8950</v>
       </c>
       <c r="D34" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="E34" t="n">
         <v>8950</v>
       </c>
       <c r="F34" t="n">
-        <v>130</v>
+        <v>63.5</v>
       </c>
       <c r="G34" t="n">
-        <v>8956.166666666666</v>
+        <v>8955.833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1715,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1744,10 @@
         <v>8950</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G35" t="n">
-        <v>8956.5</v>
+        <v>8956.166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1776,19 @@
         <v>8950</v>
       </c>
       <c r="C36" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="D36" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="E36" t="n">
         <v>8950</v>
       </c>
       <c r="F36" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>8956.916666666666</v>
+        <v>8956.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="C37" t="n">
         <v>8955</v>
@@ -1667,13 +1823,13 @@
         <v>8955</v>
       </c>
       <c r="E37" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="F37" t="n">
-        <v>33.5</v>
+        <v>91</v>
       </c>
       <c r="G37" t="n">
-        <v>8957.333333333334</v>
+        <v>8956.916666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1838,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1867,10 @@
         <v>8955</v>
       </c>
       <c r="F38" t="n">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="G38" t="n">
-        <v>8957.666666666666</v>
+        <v>8957.333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1879,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1896,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="C39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="D39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="E39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>32.5</v>
       </c>
       <c r="G39" t="n">
-        <v>8958.333333333334</v>
+        <v>8957.666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1937,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="C40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="D40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="E40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="F40" t="n">
-        <v>22.041</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>8959.25</v>
+        <v>8958.333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1961,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1990,10 @@
         <v>8990</v>
       </c>
       <c r="F41" t="n">
-        <v>44</v>
+        <v>22.041</v>
       </c>
       <c r="G41" t="n">
-        <v>8960.166666666666</v>
+        <v>8959.25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +2002,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +2022,19 @@
         <v>8990</v>
       </c>
       <c r="C42" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="D42" t="n">
         <v>8990</v>
       </c>
       <c r="E42" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="F42" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>8960.666666666666</v>
+        <v>8960.166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2043,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2060,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="C43" t="n">
         <v>8965</v>
       </c>
       <c r="D43" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="E43" t="n">
         <v>8965</v>
       </c>
       <c r="F43" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43" t="n">
-        <v>8961.25</v>
+        <v>8960.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2084,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2113,10 @@
         <v>8965</v>
       </c>
       <c r="F44" t="n">
-        <v>38.5</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>8962.083333333334</v>
+        <v>8961.25</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2142,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9015</v>
+        <v>8965</v>
       </c>
       <c r="C45" t="n">
         <v>8965</v>
       </c>
       <c r="D45" t="n">
-        <v>9015</v>
+        <v>8965</v>
       </c>
       <c r="E45" t="n">
         <v>8965</v>
       </c>
       <c r="F45" t="n">
-        <v>110.8614</v>
+        <v>38.5</v>
       </c>
       <c r="G45" t="n">
-        <v>8962.916666666666</v>
+        <v>8962.083333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2183,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8970</v>
+        <v>9015</v>
       </c>
       <c r="C46" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="D46" t="n">
-        <v>8970</v>
+        <v>9015</v>
       </c>
       <c r="E46" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="F46" t="n">
-        <v>332.9175</v>
+        <v>110.8614</v>
       </c>
       <c r="G46" t="n">
-        <v>8963.833333333334</v>
+        <v>8962.916666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2224,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9975000000000001</v>
+        <v>332.9175</v>
       </c>
       <c r="G47" t="n">
-        <v>8964.666666666666</v>
+        <v>8963.833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2265,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="C48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="D48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="E48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>8964.333333333334</v>
+        <v>8964.666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2318,10 @@
         <v>8970</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0255</v>
+        <v>60</v>
       </c>
       <c r="G49" t="n">
-        <v>8963.916666666666</v>
+        <v>8964.333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2347,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C50" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D50" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E50" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F50" t="n">
-        <v>70.2487</v>
+        <v>0.0255</v>
       </c>
       <c r="G50" t="n">
-        <v>8963.583333333334</v>
+        <v>8963.916666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2371,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2388,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="C51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="D51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="E51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="F51" t="n">
-        <v>10.9267</v>
+        <v>70.2487</v>
       </c>
       <c r="G51" t="n">
-        <v>8964.583333333334</v>
+        <v>8963.583333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2429,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="C52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="D52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="E52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="F52" t="n">
-        <v>5.5841</v>
+        <v>10.9267</v>
       </c>
       <c r="G52" t="n">
-        <v>8965.083333333334</v>
+        <v>8964.583333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2470,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C53" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="D53" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E53" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="F53" t="n">
-        <v>285.6626</v>
+        <v>5.5841</v>
       </c>
       <c r="G53" t="n">
-        <v>8964.75</v>
+        <v>8965.083333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2511,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C54" t="n">
         <v>8965</v>
       </c>
       <c r="D54" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E54" t="n">
         <v>8965</v>
       </c>
       <c r="F54" t="n">
-        <v>57.5</v>
+        <v>285.6626</v>
       </c>
       <c r="G54" t="n">
-        <v>8965.583333333334</v>
+        <v>8964.75</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2564,10 @@
         <v>8965</v>
       </c>
       <c r="F55" t="n">
-        <v>3.1399</v>
+        <v>57.5</v>
       </c>
       <c r="G55" t="n">
-        <v>8966.416666666666</v>
+        <v>8965.583333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2593,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="C56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="E56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F56" t="n">
-        <v>4.4159</v>
+        <v>3.1399</v>
       </c>
       <c r="G56" t="n">
-        <v>8968.5</v>
+        <v>8966.416666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2634,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="C57" t="n">
         <v>8980</v>
       </c>
       <c r="D57" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="E57" t="n">
         <v>8980</v>
       </c>
       <c r="F57" t="n">
-        <v>9.148099999999999</v>
+        <v>4.4159</v>
       </c>
       <c r="G57" t="n">
-        <v>8968.25</v>
+        <v>8968.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2675,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9010</v>
+        <v>8985</v>
       </c>
       <c r="C58" t="n">
+        <v>8980</v>
+      </c>
+      <c r="D58" t="n">
         <v>8985</v>
       </c>
-      <c r="D58" t="n">
-        <v>9045</v>
-      </c>
       <c r="E58" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="F58" t="n">
-        <v>324.17791127</v>
+        <v>9.148099999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>8968.083333333334</v>
+        <v>8968.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2699,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2716,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="C59" t="n">
-        <v>9040</v>
+        <v>8985</v>
       </c>
       <c r="D59" t="n">
-        <v>9040</v>
+        <v>9045</v>
       </c>
       <c r="E59" t="n">
-        <v>9040</v>
+        <v>8985</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>324.17791127</v>
       </c>
       <c r="G59" t="n">
-        <v>8968.75</v>
+        <v>8968.083333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2757,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9000</v>
+        <v>9040</v>
       </c>
       <c r="C60" t="n">
-        <v>9005</v>
+        <v>9040</v>
       </c>
       <c r="D60" t="n">
-        <v>9005</v>
+        <v>9040</v>
       </c>
       <c r="E60" t="n">
-        <v>9000</v>
+        <v>9040</v>
       </c>
       <c r="F60" t="n">
-        <v>99.40179999999999</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>8968.833333333334</v>
+        <v>8968.75</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2781,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2798,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="C61" t="n">
         <v>9005</v>
@@ -2507,13 +2807,13 @@
         <v>9005</v>
       </c>
       <c r="E61" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="F61" t="n">
-        <v>3.0075</v>
+        <v>99.40179999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>8968.916666666666</v>
+        <v>8968.833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2822,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2536,19 +2842,19 @@
         <v>9005</v>
       </c>
       <c r="C62" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="D62" t="n">
         <v>9005</v>
       </c>
       <c r="E62" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>3.0075</v>
       </c>
       <c r="G62" t="n">
-        <v>8970.166666666666</v>
+        <v>8968.916666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2863,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2880,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>9005</v>
+      </c>
+      <c r="C63" t="n">
         <v>8980</v>
       </c>
-      <c r="C63" t="n">
-        <v>8975</v>
-      </c>
       <c r="D63" t="n">
+        <v>9005</v>
+      </c>
+      <c r="E63" t="n">
         <v>8980</v>
       </c>
-      <c r="E63" t="n">
-        <v>8975</v>
-      </c>
       <c r="F63" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="G63" t="n">
-        <v>8969.75</v>
+        <v>8970.166666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2904,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2921,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C64" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D64" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E64" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F64" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G64" t="n">
-        <v>8969.166666666666</v>
+        <v>8969.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2945,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2962,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C65" t="n">
         <v>8965</v>
       </c>
       <c r="D65" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E65" t="n">
         <v>8965</v>
       </c>
       <c r="F65" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G65" t="n">
-        <v>8968.583333333334</v>
+        <v>8969.166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +3015,10 @@
         <v>8965</v>
       </c>
       <c r="F66" t="n">
-        <v>682.3686</v>
+        <v>46</v>
       </c>
       <c r="G66" t="n">
-        <v>8966.833333333334</v>
+        <v>8968.583333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +3027,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +3056,10 @@
         <v>8965</v>
       </c>
       <c r="F67" t="n">
-        <v>23.2463</v>
+        <v>682.3686</v>
       </c>
       <c r="G67" t="n">
-        <v>8967.25</v>
+        <v>8966.833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +3068,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +3085,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="C68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="D68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="E68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="F68" t="n">
-        <v>0.34</v>
+        <v>23.2463</v>
       </c>
       <c r="G68" t="n">
-        <v>8967.083333333334</v>
+        <v>8967.25</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +3109,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3126,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="C69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="D69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="E69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v>0.34</v>
       </c>
       <c r="G69" t="n">
-        <v>8966.5</v>
+        <v>8967.083333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3150,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3167,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="C70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="E70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F70" t="n">
-        <v>16.2487</v>
+        <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>8966.166666666666</v>
+        <v>8966.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3191,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3208,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2272</v>
+        <v>16.2487</v>
       </c>
       <c r="G71" t="n">
-        <v>8967.416666666666</v>
+        <v>8966.166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3232,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3261,10 @@
         <v>8980</v>
       </c>
       <c r="F72" t="n">
-        <v>5.7807</v>
+        <v>2.2272</v>
       </c>
       <c r="G72" t="n">
-        <v>8968.666666666666</v>
+        <v>8967.416666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3273,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3290,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F73" t="n">
-        <v>86.3215</v>
+        <v>5.7807</v>
       </c>
       <c r="G73" t="n">
-        <v>8969.583333333334</v>
+        <v>8968.666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,32 +3331,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="C74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="D74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="E74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01</v>
+        <v>86.3215</v>
       </c>
       <c r="G74" t="n">
-        <v>8969.5</v>
+        <v>8969.583333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8980</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3374,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="C75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="D75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="E75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="F75" t="n">
-        <v>2.639</v>
+        <v>0.01</v>
       </c>
       <c r="G75" t="n">
-        <v>8970.416666666666</v>
+        <v>8969.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3415,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01949861</v>
+        <v>2.639</v>
       </c>
       <c r="G76" t="n">
-        <v>8971.25</v>
+        <v>8970.416666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3439,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3456,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="C77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="E77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F77" t="n">
-        <v>5.7798</v>
+        <v>0.01949861</v>
       </c>
       <c r="G77" t="n">
-        <v>8972.166666666666</v>
+        <v>8971.25</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,20 +3509,28 @@
         <v>8975</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1114</v>
+        <v>5.7798</v>
       </c>
       <c r="G78" t="n">
-        <v>8973.083333333334</v>
+        <v>8972.166666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8970</v>
+      </c>
+      <c r="K78" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3552,10 @@
         <v>8975</v>
       </c>
       <c r="F79" t="n">
-        <v>6.9518</v>
+        <v>0.1114</v>
       </c>
       <c r="G79" t="n">
-        <v>8973.416666666666</v>
+        <v>8973.083333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,32 +3581,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F80" t="n">
         <v>6.9518</v>
       </c>
       <c r="G80" t="n">
-        <v>8973.75</v>
+        <v>8973.416666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8975</v>
+      </c>
+      <c r="K80" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,20 +3636,28 @@
         <v>8970</v>
       </c>
       <c r="F81" t="n">
-        <v>12.988</v>
+        <v>6.9518</v>
       </c>
       <c r="G81" t="n">
-        <v>8973.083333333334</v>
+        <v>8973.75</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8975</v>
+      </c>
+      <c r="K81" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3667,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="C82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="D82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="E82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>12.988</v>
       </c>
       <c r="G82" t="n">
-        <v>8974.666666666666</v>
+        <v>8973.083333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8970</v>
+      </c>
+      <c r="K82" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,32 +3710,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>9020</v>
+      </c>
+      <c r="C83" t="n">
+        <v>9020</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9020</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9020</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8974.666666666666</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>8970</v>
       </c>
-      <c r="C83" t="n">
-        <v>8970</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8970</v>
-      </c>
-      <c r="E83" t="n">
-        <v>8970</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10.991</v>
-      </c>
-      <c r="G83" t="n">
-        <v>8975.416666666666</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3765,10 @@
         <v>8970</v>
       </c>
       <c r="F84" t="n">
-        <v>228.9822</v>
+        <v>10.991</v>
       </c>
       <c r="G84" t="n">
-        <v>8976.083333333334</v>
+        <v>8975.416666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3777,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3794,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="C85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="D85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="E85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="F85" t="n">
-        <v>35.3277</v>
+        <v>228.9822</v>
       </c>
       <c r="G85" t="n">
-        <v>8977.583333333334</v>
+        <v>8976.083333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3835,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="C86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="D86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="E86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="F86" t="n">
-        <v>73.736</v>
+        <v>35.3277</v>
       </c>
       <c r="G86" t="n">
-        <v>8977</v>
+        <v>8977.583333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3888,10 @@
         <v>8975</v>
       </c>
       <c r="F87" t="n">
-        <v>4.6265</v>
+        <v>73.736</v>
       </c>
       <c r="G87" t="n">
-        <v>8976.833333333334</v>
+        <v>8977</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3917,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F88" t="n">
-        <v>14.6693</v>
+        <v>4.6265</v>
       </c>
       <c r="G88" t="n">
-        <v>8977.333333333334</v>
+        <v>8976.833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3958,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F89" t="n">
-        <v>99.7778</v>
+        <v>14.6693</v>
       </c>
       <c r="G89" t="n">
-        <v>8976.666666666666</v>
+        <v>8977.333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +4011,10 @@
         <v>8975</v>
       </c>
       <c r="F90" t="n">
-        <v>51.1921</v>
+        <v>99.7778</v>
       </c>
       <c r="G90" t="n">
-        <v>8976.916666666666</v>
+        <v>8976.666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +4023,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +4052,10 @@
         <v>8975</v>
       </c>
       <c r="F91" t="n">
-        <v>54</v>
+        <v>51.1921</v>
       </c>
       <c r="G91" t="n">
-        <v>8977.166666666666</v>
+        <v>8976.916666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +4093,10 @@
         <v>8975</v>
       </c>
       <c r="F92" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G92" t="n">
-        <v>8977.416666666666</v>
+        <v>8977.166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +4134,10 @@
         <v>8975</v>
       </c>
       <c r="F93" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G93" t="n">
-        <v>8977.833333333334</v>
+        <v>8977.416666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +4175,10 @@
         <v>8975</v>
       </c>
       <c r="F94" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
-        <v>8978.25</v>
+        <v>8977.833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +4216,10 @@
         <v>8975</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G95" t="n">
-        <v>8978.666666666666</v>
+        <v>8978.25</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +4257,10 @@
         <v>8975</v>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>8979</v>
+        <v>8978.666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4269,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +4298,10 @@
         <v>8975</v>
       </c>
       <c r="F97" t="n">
-        <v>69.2428</v>
+        <v>48</v>
       </c>
       <c r="G97" t="n">
-        <v>8979.333333333334</v>
+        <v>8979</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4339,10 @@
         <v>8975</v>
       </c>
       <c r="F98" t="n">
-        <v>68</v>
+        <v>69.2428</v>
       </c>
       <c r="G98" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,24 +4380,26 @@
         <v>8975</v>
       </c>
       <c r="F99" t="n">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="G99" t="n">
         <v>8979.666666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>8975</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>8975</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+        <v>8920</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,26 +4421,24 @@
         <v>8975</v>
       </c>
       <c r="F100" t="n">
-        <v>212.5341</v>
+        <v>210</v>
       </c>
       <c r="G100" t="n">
-        <v>8979.416666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>8975</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3922,10 +4462,10 @@
         <v>8975</v>
       </c>
       <c r="F101" t="n">
-        <v>398.2513</v>
+        <v>212.5341</v>
       </c>
       <c r="G101" t="n">
-        <v>8979.166666666666</v>
+        <v>8979.416666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3935,11 +4475,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -3963,10 +4503,10 @@
         <v>8975</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6615</v>
+        <v>398.2513</v>
       </c>
       <c r="G102" t="n">
-        <v>8979.333333333334</v>
+        <v>8979.166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3975,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3998,10 +4544,10 @@
         <v>8975</v>
       </c>
       <c r="F103" t="n">
-        <v>173.9937</v>
+        <v>1.6615</v>
       </c>
       <c r="G103" t="n">
-        <v>8979.5</v>
+        <v>8979.333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4010,8 +4556,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4033,10 +4585,10 @@
         <v>8975</v>
       </c>
       <c r="F104" t="n">
-        <v>8.062799999999999</v>
+        <v>173.9937</v>
       </c>
       <c r="G104" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4045,8 +4597,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,36 +4614,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F105" t="n">
-        <v>143.7767</v>
+        <v>8.062799999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>8979.75</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>8975</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>8975</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
+        <v>8920</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,35 +4658,33 @@
         <v>8970</v>
       </c>
       <c r="C106" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D106" t="n">
         <v>8970</v>
       </c>
       <c r="E106" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F106" t="n">
-        <v>335.9023</v>
+        <v>143.7767</v>
       </c>
       <c r="G106" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.75</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>8970</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4138,34 +4696,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C107" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D107" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E107" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F107" t="n">
-        <v>17.9435</v>
+        <v>335.9023</v>
       </c>
       <c r="G107" t="n">
-        <v>8979.916666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4181,34 +4737,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="C108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="E108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F108" t="n">
-        <v>34</v>
+        <v>17.9435</v>
       </c>
       <c r="G108" t="n">
         <v>8979.916666666666</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>8980</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4227,31 +4781,29 @@
         <v>8970</v>
       </c>
       <c r="C109" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D109" t="n">
         <v>8970</v>
       </c>
       <c r="E109" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F109" t="n">
-        <v>172.6283</v>
+        <v>34</v>
       </c>
       <c r="G109" t="n">
-        <v>8979.833333333334</v>
+        <v>8979.916666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>8970</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4267,22 +4819,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C110" t="n">
         <v>8965</v>
       </c>
       <c r="D110" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E110" t="n">
         <v>8965</v>
       </c>
       <c r="F110" t="n">
-        <v>276.0698</v>
+        <v>172.6283</v>
       </c>
       <c r="G110" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4292,7 +4844,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4320,10 +4872,10 @@
         <v>8965</v>
       </c>
       <c r="F111" t="n">
-        <v>208.0764</v>
+        <v>276.0698</v>
       </c>
       <c r="G111" t="n">
-        <v>8978.916666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4335,7 +4887,7 @@
         <v>8965</v>
       </c>
       <c r="K111" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4363,22 +4915,20 @@
         <v>8965</v>
       </c>
       <c r="F112" t="n">
-        <v>29</v>
+        <v>208.0764</v>
       </c>
       <c r="G112" t="n">
-        <v>8978.666666666666</v>
+        <v>8978.916666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4394,34 +4944,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="C113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="D113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="E113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="F113" t="n">
-        <v>10.1163</v>
+        <v>29</v>
       </c>
       <c r="G113" t="n">
-        <v>8979</v>
+        <v>8978.666666666666</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4437,34 +4985,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="C114" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="D114" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="E114" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="F114" t="n">
-        <v>36</v>
+        <v>10.1163</v>
       </c>
       <c r="G114" t="n">
         <v>8979</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>8985</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4492,7 +5038,7 @@
         <v>8965</v>
       </c>
       <c r="F115" t="n">
-        <v>43.5</v>
+        <v>36</v>
       </c>
       <c r="G115" t="n">
         <v>8979</v>
@@ -4505,7 +5051,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4521,34 +5067,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C116" t="n">
         <v>8965</v>
       </c>
       <c r="D116" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E116" t="n">
         <v>8965</v>
       </c>
       <c r="F116" t="n">
-        <v>199</v>
+        <v>43.5</v>
       </c>
       <c r="G116" t="n">
-        <v>8978.75</v>
+        <v>8979</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4576,22 +5120,20 @@
         <v>8965</v>
       </c>
       <c r="F117" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="G117" t="n">
-        <v>8978.5</v>
+        <v>8978.75</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4607,34 +5149,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="C118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="E118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F118" t="n">
-        <v>29.1666</v>
+        <v>199.5</v>
       </c>
       <c r="G118" t="n">
-        <v>8978.75</v>
+        <v>8978.5</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4650,34 +5190,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="C119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="D119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="E119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="F119" t="n">
-        <v>34</v>
+        <v>29.1666</v>
       </c>
       <c r="G119" t="n">
-        <v>8977.5</v>
+        <v>8978.75</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4693,22 +5231,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9030</v>
+        <v>8965</v>
       </c>
       <c r="C120" t="n">
-        <v>9055</v>
+        <v>8965</v>
       </c>
       <c r="D120" t="n">
-        <v>9055</v>
+        <v>8965</v>
       </c>
       <c r="E120" t="n">
-        <v>8990</v>
+        <v>8965</v>
       </c>
       <c r="F120" t="n">
-        <v>240.5368</v>
+        <v>34</v>
       </c>
       <c r="G120" t="n">
-        <v>8978.333333333334</v>
+        <v>8977.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4718,7 +5256,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4734,22 +5272,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C121" t="n">
         <v>9055</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8970</v>
       </c>
       <c r="D121" t="n">
         <v>9055</v>
       </c>
       <c r="E121" t="n">
-        <v>8970</v>
+        <v>8990</v>
       </c>
       <c r="F121" t="n">
-        <v>5.3436</v>
+        <v>240.5368</v>
       </c>
       <c r="G121" t="n">
-        <v>8977.75</v>
+        <v>8978.333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4759,7 +5297,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4775,22 +5313,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9060</v>
+        <v>9055</v>
       </c>
       <c r="C122" t="n">
-        <v>9060</v>
+        <v>8970</v>
       </c>
       <c r="D122" t="n">
-        <v>9060</v>
+        <v>9055</v>
       </c>
       <c r="E122" t="n">
-        <v>9060</v>
+        <v>8970</v>
       </c>
       <c r="F122" t="n">
-        <v>4.6718</v>
+        <v>5.3436</v>
       </c>
       <c r="G122" t="n">
-        <v>8979.083333333334</v>
+        <v>8977.75</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4800,7 +5338,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4828,10 +5366,10 @@
         <v>9060</v>
       </c>
       <c r="F123" t="n">
-        <v>95.3282</v>
+        <v>4.6718</v>
       </c>
       <c r="G123" t="n">
-        <v>8980.5</v>
+        <v>8979.083333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4841,7 +5379,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4857,22 +5395,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8985</v>
+        <v>9060</v>
       </c>
       <c r="C124" t="n">
-        <v>8980</v>
+        <v>9060</v>
       </c>
       <c r="D124" t="n">
-        <v>8985</v>
+        <v>9060</v>
       </c>
       <c r="E124" t="n">
-        <v>8980</v>
+        <v>9060</v>
       </c>
       <c r="F124" t="n">
-        <v>142.8447</v>
+        <v>95.3282</v>
       </c>
       <c r="G124" t="n">
-        <v>8980.75</v>
+        <v>8980.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4882,7 +5420,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4898,22 +5436,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="C125" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D125" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="E125" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>142.8447</v>
       </c>
       <c r="G125" t="n">
-        <v>8980.833333333334</v>
+        <v>8980.75</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4923,7 +5461,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4939,22 +5477,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="C126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="D126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="E126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="F126" t="n">
-        <v>1.10558319</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>8982.166666666666</v>
+        <v>8980.833333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4964,7 +5502,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4980,22 +5518,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="C127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="D127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="E127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="F127" t="n">
-        <v>113.9458</v>
+        <v>1.10558319</v>
       </c>
       <c r="G127" t="n">
-        <v>8982.25</v>
+        <v>8982.166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5005,7 +5543,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5021,22 +5559,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9030</v>
+        <v>8970</v>
       </c>
       <c r="C128" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="D128" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="E128" t="n">
-        <v>9030</v>
+        <v>8970</v>
       </c>
       <c r="F128" t="n">
-        <v>399.99991681</v>
+        <v>113.9458</v>
       </c>
       <c r="G128" t="n">
-        <v>8982.583333333334</v>
+        <v>8982.25</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5046,7 +5584,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5062,22 +5600,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C129" t="n">
         <v>9055</v>
-      </c>
-      <c r="C129" t="n">
-        <v>8975</v>
       </c>
       <c r="D129" t="n">
         <v>9055</v>
       </c>
       <c r="E129" t="n">
-        <v>8975</v>
+        <v>9030</v>
       </c>
       <c r="F129" t="n">
-        <v>2.80008319</v>
+        <v>399.99991681</v>
       </c>
       <c r="G129" t="n">
-        <v>8982.75</v>
+        <v>8982.583333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5087,7 +5625,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5103,22 +5641,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8970</v>
+        <v>9055</v>
       </c>
       <c r="C130" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D130" t="n">
-        <v>8970</v>
+        <v>9055</v>
       </c>
       <c r="E130" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F130" t="n">
-        <v>71.0278</v>
+        <v>2.80008319</v>
       </c>
       <c r="G130" t="n">
-        <v>8982.583333333334</v>
+        <v>8982.75</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5128,7 +5666,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5144,19 +5682,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8985</v>
+        <v>8970</v>
       </c>
       <c r="C131" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D131" t="n">
-        <v>8985</v>
+        <v>8970</v>
       </c>
       <c r="E131" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F131" t="n">
-        <v>28.5803</v>
+        <v>71.0278</v>
       </c>
       <c r="G131" t="n">
         <v>8982.583333333334</v>
@@ -5169,7 +5707,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5210,7 +5748,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5226,22 +5764,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9000</v>
+        <v>8985</v>
       </c>
       <c r="C133" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D133" t="n">
-        <v>9000</v>
+        <v>8985</v>
       </c>
       <c r="E133" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>28.5803</v>
       </c>
       <c r="G133" t="n">
-        <v>8982.916666666666</v>
+        <v>8982.583333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5251,7 +5789,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5270,19 +5808,19 @@
         <v>9000</v>
       </c>
       <c r="C134" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="D134" t="n">
         <v>9000</v>
       </c>
       <c r="E134" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F134" t="n">
-        <v>9.975</v>
+        <v>30</v>
       </c>
       <c r="G134" t="n">
-        <v>8982.333333333334</v>
+        <v>8982.916666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5292,7 +5830,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5320,20 +5858,22 @@
         <v>9000</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5</v>
+        <v>9.975</v>
       </c>
       <c r="G135" t="n">
-        <v>8982.75</v>
+        <v>8982.333333333334</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8995</v>
+      </c>
       <c r="K135" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5349,22 +5889,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="E136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F136" t="n">
-        <v>35.2394</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="n">
-        <v>8983.166666666666</v>
+        <v>8982.75</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5374,7 +5914,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5402,20 +5942,22 @@
         <v>8995</v>
       </c>
       <c r="F137" t="n">
-        <v>318.7155</v>
+        <v>35.2394</v>
       </c>
       <c r="G137" t="n">
-        <v>8983.5</v>
+        <v>8983.166666666666</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9000</v>
+      </c>
       <c r="K137" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5443,10 +5985,10 @@
         <v>8995</v>
       </c>
       <c r="F138" t="n">
-        <v>7.8255</v>
+        <v>318.7155</v>
       </c>
       <c r="G138" t="n">
-        <v>8983.833333333334</v>
+        <v>8983.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5456,7 +5998,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5484,10 +6026,10 @@
         <v>8995</v>
       </c>
       <c r="F139" t="n">
-        <v>33.1645</v>
+        <v>7.8255</v>
       </c>
       <c r="G139" t="n">
-        <v>8984.166666666666</v>
+        <v>8983.833333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5497,7 +6039,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5525,10 +6067,10 @@
         <v>8995</v>
       </c>
       <c r="F140" t="n">
-        <v>76.9564</v>
+        <v>33.1645</v>
       </c>
       <c r="G140" t="n">
-        <v>8984.583333333334</v>
+        <v>8984.166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5538,7 +6080,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5566,10 +6108,10 @@
         <v>8995</v>
       </c>
       <c r="F141" t="n">
-        <v>153.9671</v>
+        <v>76.9564</v>
       </c>
       <c r="G141" t="n">
-        <v>8985</v>
+        <v>8984.583333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5579,7 +6121,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5607,10 +6149,10 @@
         <v>8995</v>
       </c>
       <c r="F142" t="n">
-        <v>32.0555</v>
+        <v>153.9671</v>
       </c>
       <c r="G142" t="n">
-        <v>8984.583333333334</v>
+        <v>8985</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5620,7 +6162,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5648,10 +6190,10 @@
         <v>8995</v>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>32.0555</v>
       </c>
       <c r="G143" t="n">
-        <v>8985</v>
+        <v>8984.583333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5661,7 +6203,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5689,10 +6231,10 @@
         <v>8995</v>
       </c>
       <c r="F144" t="n">
-        <v>171.6929</v>
+        <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>8985.416666666666</v>
+        <v>8985</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5702,7 +6244,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5730,10 +6272,10 @@
         <v>8995</v>
       </c>
       <c r="F145" t="n">
-        <v>50</v>
+        <v>171.6929</v>
       </c>
       <c r="G145" t="n">
-        <v>8984.916666666666</v>
+        <v>8985.416666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5743,7 +6285,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5771,10 +6313,10 @@
         <v>8995</v>
       </c>
       <c r="F146" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G146" t="n">
-        <v>8985.25</v>
+        <v>8984.916666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5784,7 +6326,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5812,10 +6354,10 @@
         <v>8995</v>
       </c>
       <c r="F147" t="n">
-        <v>12.7089</v>
+        <v>18</v>
       </c>
       <c r="G147" t="n">
-        <v>8985.583333333334</v>
+        <v>8985.25</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5825,7 +6367,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5853,10 +6395,10 @@
         <v>8995</v>
       </c>
       <c r="F148" t="n">
-        <v>33.8485</v>
+        <v>12.7089</v>
       </c>
       <c r="G148" t="n">
-        <v>8985.833333333334</v>
+        <v>8985.583333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5866,7 +6408,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5894,10 +6436,10 @@
         <v>8995</v>
       </c>
       <c r="F149" t="n">
-        <v>228</v>
+        <v>33.8485</v>
       </c>
       <c r="G149" t="n">
-        <v>8986.166666666666</v>
+        <v>8985.833333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5907,7 +6449,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5935,10 +6477,10 @@
         <v>8995</v>
       </c>
       <c r="F150" t="n">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="G150" t="n">
-        <v>8986.5</v>
+        <v>8986.166666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5948,7 +6490,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5967,19 +6509,19 @@
         <v>8995</v>
       </c>
       <c r="C151" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="D151" t="n">
         <v>8995</v>
       </c>
       <c r="E151" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="F151" t="n">
-        <v>1.462</v>
+        <v>42</v>
       </c>
       <c r="G151" t="n">
-        <v>8986.333333333334</v>
+        <v>8986.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5989,7 +6531,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6005,22 +6547,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="C152" t="n">
         <v>8965</v>
       </c>
       <c r="D152" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="E152" t="n">
         <v>8965</v>
       </c>
       <c r="F152" t="n">
-        <v>65.3211</v>
+        <v>1.462</v>
       </c>
       <c r="G152" t="n">
-        <v>8986.166666666666</v>
+        <v>8986.333333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6030,7 +6572,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6058,10 +6600,10 @@
         <v>8965</v>
       </c>
       <c r="F153" t="n">
-        <v>9.707700000000001</v>
+        <v>65.3211</v>
       </c>
       <c r="G153" t="n">
-        <v>8986</v>
+        <v>8986.166666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6071,7 +6613,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6087,22 +6629,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8940</v>
+        <v>8965</v>
       </c>
       <c r="C154" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="D154" t="n">
-        <v>8940</v>
+        <v>8965</v>
       </c>
       <c r="E154" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="F154" t="n">
-        <v>87</v>
+        <v>9.707700000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>8985.25</v>
+        <v>8986</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6112,7 +6654,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6131,19 +6673,19 @@
         <v>8940</v>
       </c>
       <c r="C155" t="n">
-        <v>8995</v>
+        <v>8930</v>
       </c>
       <c r="D155" t="n">
-        <v>8995</v>
+        <v>8940</v>
       </c>
       <c r="E155" t="n">
-        <v>8940</v>
+        <v>8930</v>
       </c>
       <c r="F155" t="n">
-        <v>89.59910000000001</v>
+        <v>87</v>
       </c>
       <c r="G155" t="n">
-        <v>8985.583333333334</v>
+        <v>8985.25</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6153,7 +6695,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6172,19 +6714,19 @@
         <v>8940</v>
       </c>
       <c r="C156" t="n">
-        <v>8940</v>
+        <v>8995</v>
       </c>
       <c r="D156" t="n">
-        <v>8940</v>
+        <v>8995</v>
       </c>
       <c r="E156" t="n">
         <v>8940</v>
       </c>
       <c r="F156" t="n">
-        <v>53.9618</v>
+        <v>89.59910000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>8985</v>
+        <v>8985.583333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6194,7 +6736,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6210,32 +6752,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>8940</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8940</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8940</v>
+      </c>
+      <c r="E157" t="n">
+        <v>8940</v>
+      </c>
+      <c r="F157" t="n">
+        <v>53.9618</v>
+      </c>
+      <c r="G157" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>8995</v>
       </c>
-      <c r="C157" t="n">
-        <v>9050</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E157" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F157" t="n">
-        <v>388.787</v>
-      </c>
-      <c r="G157" t="n">
-        <v>8986.25</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6251,34 +6795,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C158" t="n">
         <v>9050</v>
       </c>
-      <c r="C158" t="n">
-        <v>9070</v>
-      </c>
       <c r="D158" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="E158" t="n">
-        <v>9050</v>
+        <v>8995</v>
       </c>
       <c r="F158" t="n">
-        <v>1306.1764</v>
+        <v>388.787</v>
       </c>
       <c r="G158" t="n">
-        <v>8987.833333333334</v>
+        <v>8986.25</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>9050</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6294,34 +6836,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9080</v>
+        <v>9050</v>
       </c>
       <c r="C159" t="n">
         <v>9070</v>
       </c>
       <c r="D159" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="E159" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="F159" t="n">
-        <v>53.9448</v>
+        <v>1306.1764</v>
       </c>
       <c r="G159" t="n">
-        <v>8989.416666666666</v>
+        <v>8987.833333333334</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>9070</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6337,22 +6877,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C160" t="n">
         <v>9070</v>
       </c>
       <c r="D160" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="E160" t="n">
         <v>9070</v>
       </c>
       <c r="F160" t="n">
-        <v>25</v>
+        <v>53.9448</v>
       </c>
       <c r="G160" t="n">
-        <v>8991</v>
+        <v>8989.416666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6362,7 +6902,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6378,22 +6918,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="C161" t="n">
-        <v>9095</v>
+        <v>9070</v>
       </c>
       <c r="D161" t="n">
-        <v>9095</v>
+        <v>9070</v>
       </c>
       <c r="E161" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F161" t="n">
-        <v>23.0072</v>
+        <v>25</v>
       </c>
       <c r="G161" t="n">
-        <v>8993</v>
+        <v>8991</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6403,7 +6943,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6419,22 +6959,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="C162" t="n">
-        <v>9100</v>
+        <v>9095</v>
       </c>
       <c r="D162" t="n">
-        <v>9100</v>
+        <v>9095</v>
       </c>
       <c r="E162" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F162" t="n">
-        <v>69.9671</v>
+        <v>23.0072</v>
       </c>
       <c r="G162" t="n">
-        <v>8995.083333333334</v>
+        <v>8993</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6444,7 +6984,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6460,22 +7000,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="C163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="D163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="E163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="F163" t="n">
-        <v>6.4939</v>
+        <v>69.9671</v>
       </c>
       <c r="G163" t="n">
-        <v>8998.083333333334</v>
+        <v>8995.083333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6485,7 +7025,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6501,22 +7041,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="C164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="D164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="E164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="F164" t="n">
-        <v>157.9035</v>
+        <v>6.4939</v>
       </c>
       <c r="G164" t="n">
-        <v>9001.5</v>
+        <v>8998.083333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6526,7 +7066,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6554,10 +7094,10 @@
         <v>9180</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6249</v>
+        <v>157.9035</v>
       </c>
       <c r="G165" t="n">
-        <v>9005</v>
+        <v>9001.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6567,7 +7107,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6586,19 +7126,19 @@
         <v>9180</v>
       </c>
       <c r="C166" t="n">
-        <v>9225</v>
+        <v>9180</v>
       </c>
       <c r="D166" t="n">
-        <v>9225</v>
+        <v>9180</v>
       </c>
       <c r="E166" t="n">
         <v>9180</v>
       </c>
       <c r="F166" t="n">
-        <v>108.7229</v>
+        <v>0.6249</v>
       </c>
       <c r="G166" t="n">
-        <v>9009.333333333334</v>
+        <v>9005</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6608,7 +7148,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6624,22 +7164,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9235</v>
+        <v>9180</v>
       </c>
       <c r="C167" t="n">
-        <v>9390</v>
+        <v>9225</v>
       </c>
       <c r="D167" t="n">
-        <v>9390</v>
+        <v>9225</v>
       </c>
       <c r="E167" t="n">
-        <v>9235</v>
+        <v>9180</v>
       </c>
       <c r="F167" t="n">
-        <v>945.2463</v>
+        <v>108.7229</v>
       </c>
       <c r="G167" t="n">
-        <v>9016.166666666666</v>
+        <v>9009.333333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6649,7 +7189,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6665,22 +7205,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9215</v>
+        <v>9235</v>
       </c>
       <c r="C168" t="n">
-        <v>9265</v>
+        <v>9390</v>
       </c>
       <c r="D168" t="n">
         <v>9390</v>
       </c>
       <c r="E168" t="n">
-        <v>9215</v>
+        <v>9235</v>
       </c>
       <c r="F168" t="n">
-        <v>49.1269</v>
+        <v>945.2463</v>
       </c>
       <c r="G168" t="n">
-        <v>9021.083333333334</v>
+        <v>9016.166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6690,7 +7230,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6706,40 +7246,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9390</v>
+        <v>9215</v>
       </c>
       <c r="C169" t="n">
-        <v>9390</v>
+        <v>9265</v>
       </c>
       <c r="D169" t="n">
         <v>9390</v>
       </c>
       <c r="E169" t="n">
-        <v>9285</v>
+        <v>9215</v>
       </c>
       <c r="F169" t="n">
-        <v>9.699999999999999</v>
+        <v>49.1269</v>
       </c>
       <c r="G169" t="n">
-        <v>9028.166666666666</v>
+        <v>9021.083333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>1.041239554317549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6747,7 +7287,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9305</v>
+        <v>9390</v>
       </c>
       <c r="C170" t="n">
         <v>9390</v>
@@ -6756,13 +7296,13 @@
         <v>9390</v>
       </c>
       <c r="E170" t="n">
-        <v>9300</v>
+        <v>9285</v>
       </c>
       <c r="F170" t="n">
-        <v>74.59910000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>9035.25</v>
+        <v>9028.166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6771,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6782,34 +7328,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9240</v>
+        <v>9305</v>
       </c>
       <c r="C171" t="n">
-        <v>9380</v>
+        <v>9390</v>
       </c>
       <c r="D171" t="n">
-        <v>9380</v>
+        <v>9390</v>
       </c>
       <c r="E171" t="n">
-        <v>9240</v>
+        <v>9300</v>
       </c>
       <c r="F171" t="n">
-        <v>75.09999999999999</v>
+        <v>74.59910000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>9042.166666666666</v>
+        <v>9035.25</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>8920</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M171" t="n">
-        <v>1</v>
+        <v>1.047690582959641</v>
       </c>
     </row>
     <row r="172">
@@ -6817,22 +7369,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="C172" t="n">
-        <v>9275</v>
+        <v>9380</v>
       </c>
       <c r="D172" t="n">
-        <v>9275</v>
+        <v>9380</v>
       </c>
       <c r="E172" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="F172" t="n">
-        <v>21.3359</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>9047.333333333334</v>
+        <v>9042.166666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6852,22 +7404,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9260</v>
+        <v>9130</v>
       </c>
       <c r="C173" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="D173" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="E173" t="n">
-        <v>9260</v>
+        <v>9130</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1</v>
+        <v>21.3359</v>
       </c>
       <c r="G173" t="n">
-        <v>9051.916666666666</v>
+        <v>9047.333333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6887,22 +7439,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9120</v>
+        <v>9260</v>
       </c>
       <c r="C174" t="n">
-        <v>9000</v>
+        <v>9260</v>
       </c>
       <c r="D174" t="n">
-        <v>9120</v>
+        <v>9260</v>
       </c>
       <c r="E174" t="n">
-        <v>9000</v>
+        <v>9260</v>
       </c>
       <c r="F174" t="n">
-        <v>95.2338</v>
+        <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>9052.5</v>
+        <v>9051.916666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6917,6 +7469,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9120</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9120</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F175" t="n">
+        <v>95.2338</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9052.5</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>97.11539999999999</v>
       </c>
       <c r="G2" t="n">
+        <v>8963.666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>8941.833333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>8963</v>
+      </c>
+      <c r="H3" t="n">
         <v>8942.666666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>9000</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +533,29 @@
         <v>52.3259</v>
       </c>
       <c r="G4" t="n">
+        <v>8963.666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>8945.083333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>8905</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9000</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,26 +579,29 @@
         <v>5.90955555</v>
       </c>
       <c r="G5" t="n">
+        <v>8964</v>
+      </c>
+      <c r="H5" t="n">
         <v>8947.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>9000</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,18 +625,25 @@
         <v>43.7637</v>
       </c>
       <c r="G6" t="n">
+        <v>8964.333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>8949.916666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,18 +667,29 @@
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
+        <v>8972.333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>8952</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,18 +713,27 @@
         <v>35</v>
       </c>
       <c r="G8" t="n">
+        <v>8971.666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>8952.333333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,18 +757,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>8975.666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>8953.916666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +795,25 @@
         <v>22.1975</v>
       </c>
       <c r="G10" t="n">
+        <v>8981.333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>8954.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9045</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +837,27 @@
         <v>11.802</v>
       </c>
       <c r="G11" t="n">
+        <v>8986.666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>8955.083333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +881,29 @@
         <v>233.3042</v>
       </c>
       <c r="G12" t="n">
+        <v>8990</v>
+      </c>
+      <c r="H12" t="n">
         <v>8953.916666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8995</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +927,27 @@
         <v>164</v>
       </c>
       <c r="G13" t="n">
+        <v>8984</v>
+      </c>
+      <c r="H13" t="n">
         <v>8952.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +971,29 @@
         <v>43</v>
       </c>
       <c r="G14" t="n">
+        <v>8979</v>
+      </c>
+      <c r="H14" t="n">
         <v>8951.833333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8905</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,22 +1017,29 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
+        <v>8981.666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>8952.833333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>8920</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,24 +1063,29 @@
         <v>123</v>
       </c>
       <c r="G16" t="n">
+        <v>8976.333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>8952.833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+        <v>9040</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,24 +1109,29 @@
         <v>65.5</v>
       </c>
       <c r="G17" t="n">
+        <v>8971</v>
+      </c>
+      <c r="H17" t="n">
         <v>8951.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="n">
         <v>8920</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,24 +1155,29 @@
         <v>31</v>
       </c>
       <c r="G18" t="n">
+        <v>8972</v>
+      </c>
+      <c r="H18" t="n">
         <v>8950.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
         <v>8920</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1085,24 +1201,29 @@
         <v>103</v>
       </c>
       <c r="G19" t="n">
+        <v>8966.666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>8949</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
         <v>8920</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,26 +1247,29 @@
         <v>5.581</v>
       </c>
       <c r="G20" t="n">
+        <v>8963.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>8948.333333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>8920</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,26 +1293,29 @@
         <v>48.6047</v>
       </c>
       <c r="G21" t="n">
+        <v>8960.333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>8948.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>8955</v>
       </c>
-      <c r="K21" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,26 +1339,29 @@
         <v>0.2228</v>
       </c>
       <c r="G22" t="n">
+        <v>8956.333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>8950.083333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>8950</v>
       </c>
-      <c r="K22" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1255,24 +1385,27 @@
         <v>35</v>
       </c>
       <c r="G23" t="n">
+        <v>8955.333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>8950</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,24 +1429,29 @@
         <v>230</v>
       </c>
       <c r="G24" t="n">
+        <v>8947.333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>8949.916666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+        <v>8925</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1337,24 +1475,27 @@
         <v>22.0776</v>
       </c>
       <c r="G25" t="n">
+        <v>8942.666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>8949.916666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,24 +1519,29 @@
         <v>337.6297</v>
       </c>
       <c r="G26" t="n">
+        <v>8938.666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>8950</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>8930</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,24 +1565,27 @@
         <v>0.2362</v>
       </c>
       <c r="G27" t="n">
+        <v>8945.666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>8951.333333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1460,24 +1609,27 @@
         <v>32.579</v>
       </c>
       <c r="G28" t="n">
+        <v>8951</v>
+      </c>
+      <c r="H28" t="n">
         <v>8952.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1501,24 +1653,27 @@
         <v>85.0809</v>
       </c>
       <c r="G29" t="n">
+        <v>8953</v>
+      </c>
+      <c r="H29" t="n">
         <v>8952.583333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,24 +1697,27 @@
         <v>8.8452</v>
       </c>
       <c r="G30" t="n">
+        <v>8951.333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>8954</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1583,24 +1741,27 @@
         <v>33.9785</v>
       </c>
       <c r="G31" t="n">
+        <v>8954</v>
+      </c>
+      <c r="H31" t="n">
         <v>8954.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,24 +1785,27 @@
         <v>30</v>
       </c>
       <c r="G32" t="n">
+        <v>8956.666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>8955</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1665,24 +1829,27 @@
         <v>41</v>
       </c>
       <c r="G33" t="n">
+        <v>8959.333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>8955.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,24 +1873,27 @@
         <v>63.5</v>
       </c>
       <c r="G34" t="n">
+        <v>8961.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>8955.833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1747,24 +1917,27 @@
         <v>130</v>
       </c>
       <c r="G35" t="n">
+        <v>8961</v>
+      </c>
+      <c r="H35" t="n">
         <v>8956.166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,24 +1961,27 @@
         <v>35</v>
       </c>
       <c r="G36" t="n">
+        <v>8961</v>
+      </c>
+      <c r="H36" t="n">
         <v>8956.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,24 +2005,27 @@
         <v>91</v>
       </c>
       <c r="G37" t="n">
+        <v>8957.333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>8956.916666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,24 +2049,27 @@
         <v>33.5</v>
       </c>
       <c r="G38" t="n">
+        <v>8959.333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>8957.333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1911,24 +2093,27 @@
         <v>32.5</v>
       </c>
       <c r="G39" t="n">
+        <v>8961.333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>8957.666666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,24 +2137,27 @@
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
+        <v>8964.333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>8958.333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1993,24 +2181,27 @@
         <v>22.041</v>
       </c>
       <c r="G41" t="n">
+        <v>8968</v>
+      </c>
+      <c r="H41" t="n">
         <v>8959.25</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,24 +2225,27 @@
         <v>44</v>
       </c>
       <c r="G42" t="n">
+        <v>8966.666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>8960.166666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2075,24 +2269,27 @@
         <v>56</v>
       </c>
       <c r="G43" t="n">
+        <v>8965.333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>8960.666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2116,24 +2313,27 @@
         <v>54</v>
       </c>
       <c r="G44" t="n">
+        <v>8966.333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>8961.25</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2157,24 +2357,27 @@
         <v>38.5</v>
       </c>
       <c r="G45" t="n">
+        <v>8963</v>
+      </c>
+      <c r="H45" t="n">
         <v>8962.083333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,24 +2401,27 @@
         <v>110.8614</v>
       </c>
       <c r="G46" t="n">
+        <v>8963.333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>8962.916666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2239,24 +2445,27 @@
         <v>332.9175</v>
       </c>
       <c r="G47" t="n">
+        <v>8964</v>
+      </c>
+      <c r="H47" t="n">
         <v>8963.833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,24 +2489,27 @@
         <v>0.9975000000000001</v>
       </c>
       <c r="G48" t="n">
+        <v>8964.333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>8964.666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,24 +2533,27 @@
         <v>60</v>
       </c>
       <c r="G49" t="n">
+        <v>8965.666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>8964.333333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,24 +2577,27 @@
         <v>0.0255</v>
       </c>
       <c r="G50" t="n">
+        <v>8967</v>
+      </c>
+      <c r="H50" t="n">
         <v>8963.916666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,24 +2621,27 @@
         <v>70.2487</v>
       </c>
       <c r="G51" t="n">
+        <v>8968.666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>8963.583333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,24 +2665,27 @@
         <v>10.9267</v>
       </c>
       <c r="G52" t="n">
+        <v>8972.333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>8964.583333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,24 +2709,27 @@
         <v>5.5841</v>
       </c>
       <c r="G53" t="n">
+        <v>8974</v>
+      </c>
+      <c r="H53" t="n">
         <v>8965.083333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,24 +2753,27 @@
         <v>285.6626</v>
       </c>
       <c r="G54" t="n">
+        <v>8974.666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>8964.75</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,24 +2797,27 @@
         <v>57.5</v>
       </c>
       <c r="G55" t="n">
+        <v>8974</v>
+      </c>
+      <c r="H55" t="n">
         <v>8965.583333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2608,24 +2841,27 @@
         <v>3.1399</v>
       </c>
       <c r="G56" t="n">
+        <v>8972.333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>8966.416666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,24 +2885,27 @@
         <v>4.4159</v>
       </c>
       <c r="G57" t="n">
+        <v>8971.666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>8968.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,24 +2929,27 @@
         <v>9.148099999999999</v>
       </c>
       <c r="G58" t="n">
+        <v>8972.666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>8968.25</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,24 +2973,27 @@
         <v>324.17791127</v>
       </c>
       <c r="G59" t="n">
+        <v>8974</v>
+      </c>
+      <c r="H59" t="n">
         <v>8968.083333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,24 +3017,27 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
+        <v>8979</v>
+      </c>
+      <c r="H60" t="n">
         <v>8968.75</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,24 +3061,27 @@
         <v>99.40179999999999</v>
       </c>
       <c r="G61" t="n">
+        <v>8981.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>8968.833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,24 +3105,27 @@
         <v>3.0075</v>
       </c>
       <c r="G62" t="n">
+        <v>8984</v>
+      </c>
+      <c r="H62" t="n">
         <v>8968.916666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2895,24 +3149,27 @@
         <v>41</v>
       </c>
       <c r="G63" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H63" t="n">
         <v>8970.166666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,24 +3193,27 @@
         <v>101</v>
       </c>
       <c r="G64" t="n">
+        <v>8985.333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>8969.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,24 +3237,27 @@
         <v>52</v>
       </c>
       <c r="G65" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H65" t="n">
         <v>8969.166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,24 +3281,27 @@
         <v>46</v>
       </c>
       <c r="G66" t="n">
+        <v>8984.333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>8968.583333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3059,24 +3325,27 @@
         <v>682.3686</v>
       </c>
       <c r="G67" t="n">
+        <v>8981.333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>8966.833333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,24 +3369,27 @@
         <v>23.2463</v>
       </c>
       <c r="G68" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>8967.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3141,24 +3413,27 @@
         <v>0.34</v>
       </c>
       <c r="G69" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H69" t="n">
         <v>8967.083333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,24 +3457,27 @@
         <v>13</v>
       </c>
       <c r="G70" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H70" t="n">
         <v>8966.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,24 +3501,27 @@
         <v>16.2487</v>
       </c>
       <c r="G71" t="n">
+        <v>8985.666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>8966.166666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,24 +3545,27 @@
         <v>2.2272</v>
       </c>
       <c r="G72" t="n">
+        <v>8985.666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>8967.416666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3305,24 +3589,27 @@
         <v>5.7807</v>
       </c>
       <c r="G73" t="n">
+        <v>8985.666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>8968.666666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,26 +3633,27 @@
         <v>86.3215</v>
       </c>
       <c r="G74" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H74" t="n">
         <v>8969.583333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>8980</v>
-      </c>
-      <c r="K74" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,24 +3677,27 @@
         <v>0.01</v>
       </c>
       <c r="G75" t="n">
+        <v>8984.666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>8969.5</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,24 +3721,27 @@
         <v>2.639</v>
       </c>
       <c r="G76" t="n">
+        <v>8982.666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>8970.416666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,24 +3765,27 @@
         <v>0.01949861</v>
       </c>
       <c r="G77" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>8971.25</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,26 +3809,27 @@
         <v>5.7798</v>
       </c>
       <c r="G78" t="n">
+        <v>8980</v>
+      </c>
+      <c r="H78" t="n">
         <v>8972.166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K78" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +3853,27 @@
         <v>0.1114</v>
       </c>
       <c r="G79" t="n">
+        <v>8980</v>
+      </c>
+      <c r="H79" t="n">
         <v>8973.083333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,26 +3897,27 @@
         <v>6.9518</v>
       </c>
       <c r="G80" t="n">
+        <v>8980.666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>8973.416666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K80" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,26 +3941,27 @@
         <v>6.9518</v>
       </c>
       <c r="G81" t="n">
+        <v>8981</v>
+      </c>
+      <c r="H81" t="n">
         <v>8973.75</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>8975</v>
-      </c>
-      <c r="K81" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,26 +3985,27 @@
         <v>12.988</v>
       </c>
       <c r="G82" t="n">
+        <v>8981.333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>8973.083333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K82" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,26 +4029,27 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
+        <v>8985</v>
+      </c>
+      <c r="H83" t="n">
         <v>8974.666666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K83" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,24 +4073,27 @@
         <v>10.991</v>
       </c>
       <c r="G84" t="n">
+        <v>8980.666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>8975.416666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,24 +4117,27 @@
         <v>228.9822</v>
       </c>
       <c r="G85" t="n">
+        <v>8981</v>
+      </c>
+      <c r="H85" t="n">
         <v>8976.083333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,24 +4161,27 @@
         <v>35.3277</v>
       </c>
       <c r="G86" t="n">
+        <v>8984.333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>8977.583333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3891,24 +4205,27 @@
         <v>73.736</v>
       </c>
       <c r="G87" t="n">
+        <v>8984</v>
+      </c>
+      <c r="H87" t="n">
         <v>8977</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,24 +4249,27 @@
         <v>4.6265</v>
       </c>
       <c r="G88" t="n">
+        <v>8983.666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>8976.833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3973,24 +4293,27 @@
         <v>14.6693</v>
       </c>
       <c r="G89" t="n">
+        <v>8984</v>
+      </c>
+      <c r="H89" t="n">
         <v>8977.333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,24 +4337,27 @@
         <v>99.7778</v>
       </c>
       <c r="G90" t="n">
+        <v>8980</v>
+      </c>
+      <c r="H90" t="n">
         <v>8976.666666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4055,24 +4381,27 @@
         <v>51.1921</v>
       </c>
       <c r="G91" t="n">
+        <v>8980</v>
+      </c>
+      <c r="H91" t="n">
         <v>8976.916666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,24 +4425,27 @@
         <v>54</v>
       </c>
       <c r="G92" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>8977.166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4137,24 +4469,27 @@
         <v>48</v>
       </c>
       <c r="G93" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>8977.416666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,24 +4513,27 @@
         <v>24</v>
       </c>
       <c r="G94" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>8977.833333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,24 +4557,27 @@
         <v>68</v>
       </c>
       <c r="G95" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>8978.25</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,24 +4601,27 @@
         <v>8</v>
       </c>
       <c r="G96" t="n">
+        <v>8980.666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>8978.666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,24 +4645,27 @@
         <v>48</v>
       </c>
       <c r="G97" t="n">
+        <v>8981</v>
+      </c>
+      <c r="H97" t="n">
         <v>8979</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,24 +4689,27 @@
         <v>69.2428</v>
       </c>
       <c r="G98" t="n">
+        <v>8978</v>
+      </c>
+      <c r="H98" t="n">
         <v>8979.333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4383,24 +4733,27 @@
         <v>68</v>
       </c>
       <c r="G99" t="n">
+        <v>8978.333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>8979.666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,24 +4777,27 @@
         <v>210</v>
       </c>
       <c r="G100" t="n">
+        <v>8978.666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>8979.666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,24 +4821,27 @@
         <v>212.5341</v>
       </c>
       <c r="G101" t="n">
+        <v>8975.333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>8979.416666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,24 +4865,27 @@
         <v>398.2513</v>
       </c>
       <c r="G102" t="n">
+        <v>8975.333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>8979.166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,24 +4909,27 @@
         <v>1.6615</v>
       </c>
       <c r="G103" t="n">
+        <v>8975.333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>8979.333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,24 +4953,27 @@
         <v>173.9937</v>
       </c>
       <c r="G104" t="n">
+        <v>8975</v>
+      </c>
+      <c r="H104" t="n">
         <v>8979.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,24 +4997,27 @@
         <v>8.062799999999999</v>
       </c>
       <c r="G105" t="n">
+        <v>8975</v>
+      </c>
+      <c r="H105" t="n">
         <v>8979.666666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,24 +5041,27 @@
         <v>143.7767</v>
       </c>
       <c r="G106" t="n">
+        <v>8974.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>8979.75</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,24 +5085,27 @@
         <v>335.9023</v>
       </c>
       <c r="G107" t="n">
+        <v>8974</v>
+      </c>
+      <c r="H107" t="n">
         <v>8979.666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,24 +5129,27 @@
         <v>17.9435</v>
       </c>
       <c r="G108" t="n">
+        <v>8974.333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>8979.916666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,24 +5173,27 @@
         <v>34</v>
       </c>
       <c r="G109" t="n">
+        <v>8974</v>
+      </c>
+      <c r="H109" t="n">
         <v>8979.916666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,24 +5217,27 @@
         <v>172.6283</v>
       </c>
       <c r="G110" t="n">
+        <v>8973.333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>8979.833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,26 +5261,27 @@
         <v>276.0698</v>
       </c>
       <c r="G111" t="n">
+        <v>8972.666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>8979.666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K111" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,24 +5305,27 @@
         <v>208.0764</v>
       </c>
       <c r="G112" t="n">
+        <v>8972</v>
+      </c>
+      <c r="H112" t="n">
         <v>8978.916666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,24 +5349,27 @@
         <v>29</v>
       </c>
       <c r="G113" t="n">
+        <v>8971.333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>8978.666666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,24 +5393,27 @@
         <v>10.1163</v>
       </c>
       <c r="G114" t="n">
+        <v>8972</v>
+      </c>
+      <c r="H114" t="n">
         <v>8979</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,24 +5437,27 @@
         <v>36</v>
       </c>
       <c r="G115" t="n">
+        <v>8971.333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>8979</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,24 +5481,27 @@
         <v>43.5</v>
       </c>
       <c r="G116" t="n">
+        <v>8970.666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>8979</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,24 +5525,27 @@
         <v>199</v>
       </c>
       <c r="G117" t="n">
+        <v>8970</v>
+      </c>
+      <c r="H117" t="n">
         <v>8978.75</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,24 +5569,27 @@
         <v>199.5</v>
       </c>
       <c r="G118" t="n">
+        <v>8969.333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>8978.5</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,24 +5613,27 @@
         <v>29.1666</v>
       </c>
       <c r="G119" t="n">
+        <v>8971</v>
+      </c>
+      <c r="H119" t="n">
         <v>8978.75</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,24 +5657,27 @@
         <v>34</v>
       </c>
       <c r="G120" t="n">
+        <v>8970.333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>8977.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,24 +5701,27 @@
         <v>240.5368</v>
       </c>
       <c r="G121" t="n">
+        <v>8976</v>
+      </c>
+      <c r="H121" t="n">
         <v>8978.333333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,24 +5745,27 @@
         <v>5.3436</v>
       </c>
       <c r="G122" t="n">
+        <v>8976.333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>8977.75</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,24 +5789,27 @@
         <v>4.6718</v>
       </c>
       <c r="G123" t="n">
+        <v>8981.666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>8979.083333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,24 +5833,27 @@
         <v>95.3282</v>
       </c>
       <c r="G124" t="n">
+        <v>8987.666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>8980.5</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5451,24 +5877,27 @@
         <v>142.8447</v>
       </c>
       <c r="G125" t="n">
+        <v>8988.666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>8980.75</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,24 +5921,27 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
+        <v>8989</v>
+      </c>
+      <c r="H126" t="n">
         <v>8980.833333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,24 +5965,27 @@
         <v>1.10558319</v>
       </c>
       <c r="G127" t="n">
+        <v>8994.333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>8982.166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,24 +6009,27 @@
         <v>113.9458</v>
       </c>
       <c r="G128" t="n">
+        <v>8994.666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>8982.25</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5615,24 +6053,27 @@
         <v>399.99991681</v>
       </c>
       <c r="G129" t="n">
+        <v>8999.333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>8982.583333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,24 +6097,27 @@
         <v>2.80008319</v>
       </c>
       <c r="G130" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H130" t="n">
         <v>8982.75</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,24 +6141,27 @@
         <v>71.0278</v>
       </c>
       <c r="G131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H131" t="n">
         <v>8982.583333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,24 +6185,27 @@
         <v>28.5803</v>
       </c>
       <c r="G132" t="n">
+        <v>9001</v>
+      </c>
+      <c r="H132" t="n">
         <v>8982.583333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,24 +6229,27 @@
         <v>28.5803</v>
       </c>
       <c r="G133" t="n">
+        <v>9002</v>
+      </c>
+      <c r="H133" t="n">
         <v>8982.583333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,24 +6273,27 @@
         <v>30</v>
       </c>
       <c r="G134" t="n">
+        <v>9001.666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>8982.916666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,26 +6317,27 @@
         <v>9.975</v>
       </c>
       <c r="G135" t="n">
+        <v>9004</v>
+      </c>
+      <c r="H135" t="n">
         <v>8982.333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K135" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5904,24 +6361,27 @@
         <v>0.5</v>
       </c>
       <c r="G136" t="n">
+        <v>9000.333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>8982.75</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5945,26 +6405,27 @@
         <v>35.2394</v>
       </c>
       <c r="G137" t="n">
+        <v>9002</v>
+      </c>
+      <c r="H137" t="n">
         <v>8983.166666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K137" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,24 +6449,27 @@
         <v>318.7155</v>
       </c>
       <c r="G138" t="n">
+        <v>8997.666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>8983.5</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,24 +6493,27 @@
         <v>7.8255</v>
       </c>
       <c r="G139" t="n">
+        <v>8993.333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>8983.833333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,24 +6537,27 @@
         <v>33.1645</v>
       </c>
       <c r="G140" t="n">
+        <v>8994.333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>8984.166666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,24 +6581,27 @@
         <v>76.9564</v>
       </c>
       <c r="G141" t="n">
+        <v>8996</v>
+      </c>
+      <c r="H141" t="n">
         <v>8984.583333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,24 +6625,27 @@
         <v>153.9671</v>
       </c>
       <c r="G142" t="n">
+        <v>8992.666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>8985</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,24 +6669,27 @@
         <v>32.0555</v>
       </c>
       <c r="G143" t="n">
+        <v>8994.333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>8984.583333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,24 +6713,27 @@
         <v>50</v>
       </c>
       <c r="G144" t="n">
+        <v>8990.333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>8985</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,24 +6757,27 @@
         <v>171.6929</v>
       </c>
       <c r="G145" t="n">
+        <v>8991.666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>8985.416666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,24 +6801,27 @@
         <v>50</v>
       </c>
       <c r="G146" t="n">
+        <v>8993.666666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>8984.916666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,24 +6845,27 @@
         <v>18</v>
       </c>
       <c r="G147" t="n">
+        <v>8994.666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>8985.25</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,24 +6889,27 @@
         <v>12.7089</v>
       </c>
       <c r="G148" t="n">
+        <v>8995.666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>8985.583333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6439,24 +6933,27 @@
         <v>33.8485</v>
       </c>
       <c r="G149" t="n">
+        <v>8995.666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>8985.833333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,24 +6977,27 @@
         <v>228</v>
       </c>
       <c r="G150" t="n">
+        <v>8995.333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>8986.166666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,24 +7021,27 @@
         <v>42</v>
       </c>
       <c r="G151" t="n">
+        <v>8995</v>
+      </c>
+      <c r="H151" t="n">
         <v>8986.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6562,24 +7065,27 @@
         <v>1.462</v>
       </c>
       <c r="G152" t="n">
+        <v>8993</v>
+      </c>
+      <c r="H152" t="n">
         <v>8986.333333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6603,24 +7109,27 @@
         <v>65.3211</v>
       </c>
       <c r="G153" t="n">
+        <v>8991</v>
+      </c>
+      <c r="H153" t="n">
         <v>8986.166666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,24 +7153,27 @@
         <v>9.707700000000001</v>
       </c>
       <c r="G154" t="n">
+        <v>8989</v>
+      </c>
+      <c r="H154" t="n">
         <v>8986</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,24 +7197,27 @@
         <v>87</v>
       </c>
       <c r="G155" t="n">
+        <v>8984.666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>8985.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,24 +7241,27 @@
         <v>89.59910000000001</v>
       </c>
       <c r="G156" t="n">
+        <v>8984.666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>8985.583333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6767,26 +7285,27 @@
         <v>53.9618</v>
       </c>
       <c r="G157" t="n">
+        <v>8981</v>
+      </c>
+      <c r="H157" t="n">
         <v>8985</v>
       </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K157" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6810,24 +7329,27 @@
         <v>388.787</v>
       </c>
       <c r="G158" t="n">
+        <v>8984.666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>8986.25</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6851,24 +7373,27 @@
         <v>1306.1764</v>
       </c>
       <c r="G159" t="n">
+        <v>8989.666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>8987.833333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,24 +7417,27 @@
         <v>53.9448</v>
       </c>
       <c r="G160" t="n">
+        <v>8994.666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>8989.416666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,24 +7461,27 @@
         <v>25</v>
       </c>
       <c r="G161" t="n">
+        <v>8999.666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>8991</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,24 +7505,27 @@
         <v>23.0072</v>
       </c>
       <c r="G162" t="n">
+        <v>9006.333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>8993</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,24 +7549,27 @@
         <v>69.9671</v>
       </c>
       <c r="G163" t="n">
+        <v>9013.333333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>8995.083333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7056,24 +7593,27 @@
         <v>6.4939</v>
       </c>
       <c r="G164" t="n">
+        <v>9024</v>
+      </c>
+      <c r="H164" t="n">
         <v>8998.083333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,24 +7637,27 @@
         <v>157.9035</v>
       </c>
       <c r="G165" t="n">
+        <v>9036.333333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>9001.5</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,24 +7681,27 @@
         <v>0.6249</v>
       </c>
       <c r="G166" t="n">
+        <v>9048.666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>9005</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,24 +7725,27 @@
         <v>108.7229</v>
       </c>
       <c r="G167" t="n">
+        <v>9066</v>
+      </c>
+      <c r="H167" t="n">
         <v>9009.333333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,24 +7769,27 @@
         <v>945.2463</v>
       </c>
       <c r="G168" t="n">
+        <v>9094.333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>9016.166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7261,24 +7813,27 @@
         <v>49.1269</v>
       </c>
       <c r="G169" t="n">
+        <v>9114.333333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>9021.083333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7302,24 +7857,27 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G170" t="n">
+        <v>9145</v>
+      </c>
+      <c r="H170" t="n">
         <v>9028.166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,25 +7901,28 @@
         <v>74.59910000000001</v>
       </c>
       <c r="G171" t="n">
+        <v>9171.333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>9035.25</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>8920</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>9045</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1.047690582959641</v>
+      <c r="N171" t="n">
+        <v>1.033142620232173</v>
       </c>
     </row>
     <row r="172">
@@ -7384,18 +7945,21 @@
         <v>75.09999999999999</v>
       </c>
       <c r="G172" t="n">
+        <v>9200.666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>9042.166666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7419,18 +7983,21 @@
         <v>21.3359</v>
       </c>
       <c r="G173" t="n">
+        <v>9215.666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>9047.333333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7454,18 +8021,21 @@
         <v>0.1</v>
       </c>
       <c r="G174" t="n">
+        <v>9228.333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>9051.916666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7489,18 +8059,401 @@
         <v>95.2338</v>
       </c>
       <c r="G175" t="n">
+        <v>9223.666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>9052.5</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9200</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9200</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9200</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>9232.333333333334</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9056.416666666666</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9135</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9120</v>
+      </c>
+      <c r="F177" t="n">
+        <v>124.0021</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9238</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9060</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9170</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F178" t="n">
+        <v>93.6694</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9242.666666666666</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9063.416666666666</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9066.333333333334</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F180" t="n">
+        <v>55.8657</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9069.916666666666</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9245</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9190</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9248.333333333334</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9073.083333333334</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F182" t="n">
+        <v>71.6874</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9249.333333333334</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9077.583333333334</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9060</v>
+      </c>
+      <c r="F183" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9238.666666666666</v>
+      </c>
+      <c r="H183" t="n">
+        <v>9080.416666666666</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F184" t="n">
+        <v>234.4358</v>
+      </c>
+      <c r="G184" t="n">
+        <v>9233.333333333334</v>
+      </c>
+      <c r="H184" t="n">
+        <v>9082.5</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F185" t="n">
+        <v>239.6645</v>
+      </c>
+      <c r="G185" t="n">
+        <v>9222.666666666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>9086.666666666666</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8930</v>
+        <v>9040</v>
       </c>
       <c r="C2" t="n">
-        <v>8930</v>
+        <v>9040</v>
       </c>
       <c r="D2" t="n">
-        <v>8930</v>
+        <v>9040</v>
       </c>
       <c r="E2" t="n">
-        <v>8930</v>
+        <v>9040</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-843.35030776</v>
+        <v>-1322.41360776</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="C3" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="D3" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="E3" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="G3" t="n">
-        <v>-843.35030776</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="C4" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="D4" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="E4" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>65.5</v>
       </c>
       <c r="G4" t="n">
-        <v>-843.35030776</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="C5" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="D5" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="E5" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>-843.35030776</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="C6" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="D6" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="E6" t="n">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>-843.35030776</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8930</v>
+        <v>8955</v>
       </c>
       <c r="C7" t="n">
-        <v>8930</v>
+        <v>8955</v>
       </c>
       <c r="D7" t="n">
-        <v>8930</v>
+        <v>8955</v>
       </c>
       <c r="E7" t="n">
-        <v>8930</v>
+        <v>8955</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5.581</v>
       </c>
       <c r="G7" t="n">
-        <v>-843.35030776</v>
+        <v>-1439.83260776</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8935</v>
+        <v>8945</v>
       </c>
       <c r="C8" t="n">
-        <v>8935</v>
+        <v>8950</v>
       </c>
       <c r="D8" t="n">
-        <v>8935</v>
+        <v>8950</v>
       </c>
       <c r="E8" t="n">
-        <v>8935</v>
+        <v>8945</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>48.6047</v>
       </c>
       <c r="G8" t="n">
-        <v>-839.35030776</v>
+        <v>-1488.43730776</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8930</v>
+        <v>9010</v>
       </c>
       <c r="C9" t="n">
-        <v>8935</v>
+        <v>9010</v>
       </c>
       <c r="D9" t="n">
-        <v>8935</v>
+        <v>9010</v>
       </c>
       <c r="E9" t="n">
-        <v>8930</v>
+        <v>9010</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>0.2228</v>
       </c>
       <c r="G9" t="n">
-        <v>-839.35030776</v>
+        <v>-1488.21450776</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="C10" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="D10" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="E10" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>-839.35030776</v>
+        <v>-1523.21450776</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="C11" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="D11" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="E11" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="G11" t="n">
-        <v>-839.35030776</v>
+        <v>-1523.21450776</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -786,19 +801,19 @@
         <v>8935</v>
       </c>
       <c r="C12" t="n">
-        <v>8935</v>
+        <v>8930</v>
       </c>
       <c r="D12" t="n">
         <v>8935</v>
       </c>
       <c r="E12" t="n">
-        <v>8935</v>
+        <v>8930</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>22.0776</v>
       </c>
       <c r="G12" t="n">
-        <v>-839.35030776</v>
+        <v>-1501.13690776</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C13" t="n">
         <v>8935</v>
       </c>
-      <c r="C13" t="n">
-        <v>8930</v>
-      </c>
       <c r="D13" t="n">
-        <v>8935</v>
+        <v>9025</v>
       </c>
       <c r="E13" t="n">
         <v>8930</v>
       </c>
       <c r="F13" t="n">
-        <v>85.5</v>
+        <v>337.6297</v>
       </c>
       <c r="G13" t="n">
-        <v>-924.85030776</v>
+        <v>-1163.50720776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,168 +863,197 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8930</v>
+        <v>9010</v>
       </c>
       <c r="C14" t="n">
-        <v>8915</v>
+        <v>9010</v>
       </c>
       <c r="D14" t="n">
-        <v>8930</v>
+        <v>9010</v>
       </c>
       <c r="E14" t="n">
-        <v>8915</v>
+        <v>9010</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0.2362</v>
       </c>
       <c r="G14" t="n">
-        <v>-928.85030776</v>
+        <v>-1163.27100776</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>8935</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8935</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8915</v>
+        <v>8980</v>
       </c>
       <c r="C15" t="n">
-        <v>8915</v>
+        <v>8985</v>
       </c>
       <c r="D15" t="n">
-        <v>8915</v>
+        <v>8985</v>
       </c>
       <c r="E15" t="n">
-        <v>8915</v>
+        <v>8980</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>32.579</v>
       </c>
       <c r="G15" t="n">
-        <v>-928.85030776</v>
+        <v>-1195.85000776</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>9010</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8935</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="C16" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="D16" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="E16" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>85.0809</v>
       </c>
       <c r="G16" t="n">
-        <v>-928.85030776</v>
+        <v>-1280.93090776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>8985</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8935</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8915</v>
+        <v>8960</v>
       </c>
       <c r="C17" t="n">
-        <v>8915</v>
+        <v>9015</v>
       </c>
       <c r="D17" t="n">
-        <v>8915</v>
+        <v>9015</v>
       </c>
       <c r="E17" t="n">
-        <v>8915</v>
+        <v>8960</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>8.8452</v>
       </c>
       <c r="G17" t="n">
-        <v>-928.85030776</v>
+        <v>-1272.08570776</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8950</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8990</v>
+        <v>8950</v>
       </c>
       <c r="C18" t="n">
-        <v>8990</v>
+        <v>8960</v>
       </c>
       <c r="D18" t="n">
-        <v>8990</v>
+        <v>8960</v>
       </c>
       <c r="E18" t="n">
-        <v>8990</v>
+        <v>8950</v>
       </c>
       <c r="F18" t="n">
-        <v>7.5723</v>
+        <v>33.9785</v>
       </c>
       <c r="G18" t="n">
-        <v>-921.2780077599999</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,116 +1062,150 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="C19" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="D19" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="E19" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>-919.2780077599999</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>8960</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="C20" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="D20" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="E20" t="n">
-        <v>8995</v>
+        <v>8960</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9204</v>
+        <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>-919.2780077599999</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>8960</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8945</v>
+        <v>8960</v>
       </c>
       <c r="C21" t="n">
         <v>8950</v>
       </c>
       <c r="D21" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="E21" t="n">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>63.5</v>
       </c>
       <c r="G21" t="n">
-        <v>-943.2780077599999</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>8960</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1145,220 +1224,274 @@
         <v>8950</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="G22" t="n">
-        <v>-943.2780077599999</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8985</v>
+        <v>8950</v>
       </c>
       <c r="C23" t="n">
-        <v>8985</v>
+        <v>8950</v>
       </c>
       <c r="D23" t="n">
-        <v>8985</v>
+        <v>8950</v>
       </c>
       <c r="E23" t="n">
-        <v>8985</v>
+        <v>8950</v>
       </c>
       <c r="F23" t="n">
-        <v>5.761</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>-937.51700776</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="C24" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="D24" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="E24" t="n">
-        <v>8915</v>
+        <v>8950</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G24" t="n">
-        <v>-939.51700776</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8995</v>
+        <v>8955</v>
       </c>
       <c r="C25" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="D25" t="n">
-        <v>8995</v>
+        <v>8955</v>
       </c>
       <c r="E25" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="F25" t="n">
-        <v>44.9587</v>
+        <v>33.5</v>
       </c>
       <c r="G25" t="n">
-        <v>-939.51700776</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>8955</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="C26" t="n">
-        <v>8855</v>
+        <v>8955</v>
       </c>
       <c r="D26" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="E26" t="n">
-        <v>8855</v>
+        <v>8955</v>
       </c>
       <c r="F26" t="n">
-        <v>220.2643</v>
+        <v>32.5</v>
       </c>
       <c r="G26" t="n">
-        <v>-1159.78130776</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>8955</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C27" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D27" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E27" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F27" t="n">
-        <v>21.6062</v>
+        <v>0.1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1138.17510776</v>
+        <v>-1278.46420776</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>8955</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8890</v>
+        <v>8990</v>
       </c>
       <c r="C28" t="n">
-        <v>8995</v>
+        <v>8990</v>
       </c>
       <c r="D28" t="n">
-        <v>8995</v>
+        <v>8990</v>
       </c>
       <c r="E28" t="n">
-        <v>8880</v>
+        <v>8990</v>
       </c>
       <c r="F28" t="n">
-        <v>120.1336</v>
+        <v>22.041</v>
       </c>
       <c r="G28" t="n">
-        <v>-1138.17510776</v>
+        <v>-1256.42320776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1500,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="C29" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="D29" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="E29" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="F29" t="n">
-        <v>21.6393</v>
+        <v>44</v>
       </c>
       <c r="G29" t="n">
-        <v>-1116.53580776</v>
+        <v>-1256.42320776</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1542,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="C30" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D30" t="n">
-        <v>9000</v>
+        <v>8990</v>
       </c>
       <c r="E30" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F30" t="n">
-        <v>22.1852</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
-        <v>-1116.53580776</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1584,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="C31" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D31" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="E31" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F31" t="n">
-        <v>97.11539999999999</v>
+        <v>54</v>
       </c>
       <c r="G31" t="n">
-        <v>-1116.53580776</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1626,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="C32" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="D32" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="E32" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>38.5</v>
       </c>
       <c r="G32" t="n">
-        <v>-1126.53580776</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1668,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9000</v>
+        <v>9015</v>
       </c>
       <c r="C33" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D33" t="n">
-        <v>9000</v>
+        <v>9015</v>
       </c>
       <c r="E33" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F33" t="n">
-        <v>52.3259</v>
+        <v>110.8614</v>
       </c>
       <c r="G33" t="n">
-        <v>-1074.20990776</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1710,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9000</v>
+        <v>8970</v>
       </c>
       <c r="C34" t="n">
-        <v>9000</v>
+        <v>8970</v>
       </c>
       <c r="D34" t="n">
-        <v>9000</v>
+        <v>8970</v>
       </c>
       <c r="E34" t="n">
-        <v>9000</v>
+        <v>8970</v>
       </c>
       <c r="F34" t="n">
-        <v>5.90955555</v>
+        <v>332.9175</v>
       </c>
       <c r="G34" t="n">
-        <v>-1074.20990776</v>
+        <v>-979.50570776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1752,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="C35" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D35" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="E35" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F35" t="n">
-        <v>43.7637</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-1074.20990776</v>
+        <v>-980.5032077599999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1794,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9070</v>
+        <v>8970</v>
       </c>
       <c r="C36" t="n">
-        <v>9070</v>
+        <v>8970</v>
       </c>
       <c r="D36" t="n">
-        <v>9070</v>
+        <v>8970</v>
       </c>
       <c r="E36" t="n">
-        <v>9070</v>
+        <v>8970</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1</v>
+        <v>60</v>
       </c>
       <c r="G36" t="n">
-        <v>-1074.10990776</v>
+        <v>-920.5032077599999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1836,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="C37" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="D37" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="E37" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="F37" t="n">
-        <v>35</v>
+        <v>0.0255</v>
       </c>
       <c r="G37" t="n">
-        <v>-1109.10990776</v>
+        <v>-920.5032077599999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1878,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9045</v>
+        <v>8980</v>
       </c>
       <c r="C38" t="n">
-        <v>9045</v>
+        <v>8975</v>
       </c>
       <c r="D38" t="n">
-        <v>9045</v>
+        <v>8980</v>
       </c>
       <c r="E38" t="n">
-        <v>9045</v>
+        <v>8975</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>70.2487</v>
       </c>
       <c r="G38" t="n">
-        <v>-1108.10990776</v>
+        <v>-850.2545077599999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1920,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="C39" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="D39" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="E39" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="F39" t="n">
-        <v>22.1975</v>
+        <v>10.9267</v>
       </c>
       <c r="G39" t="n">
-        <v>-1130.30740776</v>
+        <v>-839.3278077599999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1962,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="C40" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D40" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="E40" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F40" t="n">
-        <v>11.802</v>
+        <v>5.5841</v>
       </c>
       <c r="G40" t="n">
-        <v>-1142.10940776</v>
+        <v>-844.91190776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2004,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="C41" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="D41" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="E41" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="F41" t="n">
-        <v>233.3042</v>
+        <v>285.6626</v>
       </c>
       <c r="G41" t="n">
-        <v>-1375.41360776</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2046,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="C42" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="D42" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="E42" t="n">
-        <v>8905</v>
+        <v>8965</v>
       </c>
       <c r="F42" t="n">
-        <v>164</v>
+        <v>57.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-1375.41360776</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,173 +2088,216 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="C43" t="n">
-        <v>8920</v>
+        <v>8965</v>
       </c>
       <c r="D43" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="E43" t="n">
-        <v>8920</v>
+        <v>8965</v>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>3.1399</v>
       </c>
       <c r="G43" t="n">
-        <v>-1332.41360776</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9040</v>
+        <v>8980</v>
       </c>
       <c r="C44" t="n">
-        <v>9040</v>
+        <v>8980</v>
       </c>
       <c r="D44" t="n">
-        <v>9040</v>
+        <v>8980</v>
       </c>
       <c r="E44" t="n">
-        <v>9040</v>
+        <v>8980</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>4.4159</v>
       </c>
       <c r="G44" t="n">
-        <v>-1322.41360776</v>
+        <v>-1126.15860776</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8920</v>
+        <v>8985</v>
       </c>
       <c r="C45" t="n">
-        <v>8920</v>
+        <v>8980</v>
       </c>
       <c r="D45" t="n">
-        <v>8925</v>
+        <v>8985</v>
       </c>
       <c r="E45" t="n">
-        <v>8920</v>
+        <v>8980</v>
       </c>
       <c r="F45" t="n">
-        <v>123</v>
+        <v>9.148099999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-1445.41360776</v>
+        <v>-1126.15860776</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>8980</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8920</v>
+        <v>9010</v>
       </c>
       <c r="C46" t="n">
-        <v>8920</v>
+        <v>8985</v>
       </c>
       <c r="D46" t="n">
-        <v>8920</v>
+        <v>9045</v>
       </c>
       <c r="E46" t="n">
-        <v>8920</v>
+        <v>8985</v>
       </c>
       <c r="F46" t="n">
-        <v>65.5</v>
+        <v>324.17791127</v>
       </c>
       <c r="G46" t="n">
-        <v>-1445.41360776</v>
+        <v>-801.98069649</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>8980</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="C47" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="D47" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="E47" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="F47" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>-1445.41360776</v>
+        <v>-798.98069649</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2306,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8920</v>
+        <v>9000</v>
       </c>
       <c r="C48" t="n">
-        <v>8920</v>
+        <v>9005</v>
       </c>
       <c r="D48" t="n">
-        <v>8920</v>
+        <v>9005</v>
       </c>
       <c r="E48" t="n">
-        <v>8920</v>
+        <v>9000</v>
       </c>
       <c r="F48" t="n">
-        <v>103</v>
+        <v>99.40179999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-1445.41360776</v>
+        <v>-898.38249649</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2348,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8955</v>
+        <v>9005</v>
       </c>
       <c r="C49" t="n">
-        <v>8955</v>
+        <v>9005</v>
       </c>
       <c r="D49" t="n">
-        <v>8955</v>
+        <v>9005</v>
       </c>
       <c r="E49" t="n">
-        <v>8955</v>
+        <v>9005</v>
       </c>
       <c r="F49" t="n">
-        <v>5.581</v>
+        <v>3.0075</v>
       </c>
       <c r="G49" t="n">
-        <v>-1439.83260776</v>
+        <v>-898.38249649</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2390,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8945</v>
+        <v>9005</v>
       </c>
       <c r="C50" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="D50" t="n">
-        <v>8950</v>
+        <v>9005</v>
       </c>
       <c r="E50" t="n">
-        <v>8945</v>
+        <v>8980</v>
       </c>
       <c r="F50" t="n">
-        <v>48.6047</v>
+        <v>41</v>
       </c>
       <c r="G50" t="n">
-        <v>-1488.43730776</v>
+        <v>-939.38249649</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2432,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="C51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="D51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="E51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2228</v>
+        <v>101</v>
       </c>
       <c r="G51" t="n">
-        <v>-1488.21450776</v>
+        <v>-1040.38249649</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2474,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="C52" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="D52" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="E52" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="F52" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G52" t="n">
-        <v>-1523.21450776</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2516,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="C53" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="D53" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="E53" t="n">
-        <v>8925</v>
+        <v>8965</v>
       </c>
       <c r="F53" t="n">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="G53" t="n">
-        <v>-1523.21450776</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2558,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8935</v>
+        <v>8965</v>
       </c>
       <c r="C54" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="D54" t="n">
-        <v>8935</v>
+        <v>8965</v>
       </c>
       <c r="E54" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="F54" t="n">
-        <v>22.0776</v>
+        <v>682.3686</v>
       </c>
       <c r="G54" t="n">
-        <v>-1501.13690776</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2600,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="C55" t="n">
-        <v>8935</v>
+        <v>8965</v>
       </c>
       <c r="D55" t="n">
-        <v>9025</v>
+        <v>8965</v>
       </c>
       <c r="E55" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="F55" t="n">
-        <v>337.6297</v>
+        <v>23.2463</v>
       </c>
       <c r="G55" t="n">
-        <v>-1163.50720776</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2642,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="C56" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="D56" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="E56" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2362</v>
+        <v>0.34</v>
       </c>
       <c r="G56" t="n">
-        <v>-1163.27100776</v>
+        <v>-1092.04249649</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2684,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="C57" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="D57" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="E57" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F57" t="n">
-        <v>32.579</v>
+        <v>13</v>
       </c>
       <c r="G57" t="n">
-        <v>-1195.85000776</v>
+        <v>-1105.04249649</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2726,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="C58" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="D58" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="E58" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="F58" t="n">
-        <v>85.0809</v>
+        <v>16.2487</v>
       </c>
       <c r="G58" t="n">
-        <v>-1280.93090776</v>
+        <v>-1088.79379649</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2768,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8960</v>
+        <v>8980</v>
       </c>
       <c r="C59" t="n">
-        <v>9015</v>
+        <v>8980</v>
       </c>
       <c r="D59" t="n">
-        <v>9015</v>
+        <v>8980</v>
       </c>
       <c r="E59" t="n">
-        <v>8960</v>
+        <v>8980</v>
       </c>
       <c r="F59" t="n">
-        <v>8.8452</v>
+        <v>2.2272</v>
       </c>
       <c r="G59" t="n">
-        <v>-1272.08570776</v>
+        <v>-1086.56659649</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2810,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="C60" t="n">
-        <v>8960</v>
+        <v>8980</v>
       </c>
       <c r="D60" t="n">
-        <v>8960</v>
+        <v>8980</v>
       </c>
       <c r="E60" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="F60" t="n">
-        <v>33.9785</v>
+        <v>5.7807</v>
       </c>
       <c r="G60" t="n">
-        <v>-1306.06420776</v>
+        <v>-1086.56659649</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2852,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="C61" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="D61" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="E61" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>86.3215</v>
       </c>
       <c r="G61" t="n">
-        <v>-1306.06420776</v>
+        <v>-1172.88809649</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2894,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8960</v>
+        <v>9035</v>
       </c>
       <c r="C62" t="n">
-        <v>8960</v>
+        <v>9035</v>
       </c>
       <c r="D62" t="n">
-        <v>8960</v>
+        <v>9035</v>
       </c>
       <c r="E62" t="n">
-        <v>8960</v>
+        <v>9035</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>0.01</v>
       </c>
       <c r="G62" t="n">
-        <v>-1306.06420776</v>
+        <v>-1172.87809649</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2936,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="C63" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="D63" t="n">
-        <v>8960</v>
+        <v>8975</v>
       </c>
       <c r="E63" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="F63" t="n">
-        <v>63.5</v>
+        <v>2.639</v>
       </c>
       <c r="G63" t="n">
-        <v>-1369.56420776</v>
+        <v>-1175.51709649</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2978,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8950</v>
+        <v>8970</v>
       </c>
       <c r="C64" t="n">
-        <v>8950</v>
+        <v>8970</v>
       </c>
       <c r="D64" t="n">
-        <v>8950</v>
+        <v>8970</v>
       </c>
       <c r="E64" t="n">
-        <v>8950</v>
+        <v>8970</v>
       </c>
       <c r="F64" t="n">
-        <v>130</v>
+        <v>0.01949861</v>
       </c>
       <c r="G64" t="n">
-        <v>-1369.56420776</v>
+        <v>-1175.5365951</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +3020,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="C65" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="D65" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="E65" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="F65" t="n">
-        <v>35</v>
+        <v>5.7798</v>
       </c>
       <c r="G65" t="n">
-        <v>-1369.56420776</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +3062,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="C66" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="D66" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="E66" t="n">
-        <v>8950</v>
+        <v>8975</v>
       </c>
       <c r="F66" t="n">
-        <v>91</v>
+        <v>0.1114</v>
       </c>
       <c r="G66" t="n">
-        <v>-1278.56420776</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +3104,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="C67" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="D67" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="E67" t="n">
-        <v>8955</v>
+        <v>8975</v>
       </c>
       <c r="F67" t="n">
-        <v>33.5</v>
+        <v>6.9518</v>
       </c>
       <c r="G67" t="n">
-        <v>-1278.56420776</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3146,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8955</v>
+        <v>8970</v>
       </c>
       <c r="C68" t="n">
-        <v>8955</v>
+        <v>8970</v>
       </c>
       <c r="D68" t="n">
-        <v>8955</v>
+        <v>8970</v>
       </c>
       <c r="E68" t="n">
-        <v>8955</v>
+        <v>8970</v>
       </c>
       <c r="F68" t="n">
-        <v>32.5</v>
+        <v>6.9518</v>
       </c>
       <c r="G68" t="n">
-        <v>-1278.56420776</v>
+        <v>-1176.7085951</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3188,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="C69" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D69" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="E69" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1</v>
+        <v>12.988</v>
       </c>
       <c r="G69" t="n">
-        <v>-1278.46420776</v>
+        <v>-1176.7085951</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3230,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8990</v>
+        <v>9020</v>
       </c>
       <c r="C70" t="n">
-        <v>8990</v>
+        <v>9020</v>
       </c>
       <c r="D70" t="n">
-        <v>8990</v>
+        <v>9020</v>
       </c>
       <c r="E70" t="n">
-        <v>8990</v>
+        <v>9020</v>
       </c>
       <c r="F70" t="n">
-        <v>22.041</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-1256.42320776</v>
+        <v>-1175.7085951</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3272,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="C71" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="D71" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="E71" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="F71" t="n">
-        <v>44</v>
+        <v>10.991</v>
       </c>
       <c r="G71" t="n">
-        <v>-1256.42320776</v>
+        <v>-1186.6995951</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3314,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="C72" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D72" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="E72" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F72" t="n">
-        <v>56</v>
+        <v>228.9822</v>
       </c>
       <c r="G72" t="n">
-        <v>-1312.42320776</v>
+        <v>-1186.6995951</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3356,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8965</v>
+        <v>9025</v>
       </c>
       <c r="C73" t="n">
-        <v>8965</v>
+        <v>9025</v>
       </c>
       <c r="D73" t="n">
-        <v>8965</v>
+        <v>9025</v>
       </c>
       <c r="E73" t="n">
-        <v>8965</v>
+        <v>9025</v>
       </c>
       <c r="F73" t="n">
-        <v>54</v>
+        <v>35.3277</v>
       </c>
       <c r="G73" t="n">
-        <v>-1312.42320776</v>
+        <v>-1151.3718951</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3398,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C74" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D74" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E74" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F74" t="n">
-        <v>38.5</v>
+        <v>73.736</v>
       </c>
       <c r="G74" t="n">
-        <v>-1312.42320776</v>
+        <v>-1225.1078951</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3440,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9015</v>
+        <v>8975</v>
       </c>
       <c r="C75" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D75" t="n">
-        <v>9015</v>
+        <v>8975</v>
       </c>
       <c r="E75" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F75" t="n">
-        <v>110.8614</v>
+        <v>4.6265</v>
       </c>
       <c r="G75" t="n">
-        <v>-1312.42320776</v>
+        <v>-1225.1078951</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3482,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="C76" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D76" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="E76" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F76" t="n">
-        <v>332.9175</v>
+        <v>14.6693</v>
       </c>
       <c r="G76" t="n">
-        <v>-979.50570776</v>
+        <v>-1210.4385951</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3524,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C77" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D77" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E77" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9975000000000001</v>
+        <v>99.7778</v>
       </c>
       <c r="G77" t="n">
-        <v>-980.5032077599999</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3566,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C78" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D78" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E78" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F78" t="n">
-        <v>60</v>
+        <v>51.1921</v>
       </c>
       <c r="G78" t="n">
-        <v>-920.5032077599999</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3608,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C79" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D79" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E79" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0255</v>
+        <v>54</v>
       </c>
       <c r="G79" t="n">
-        <v>-920.5032077599999</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3650,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C80" t="n">
         <v>8975</v>
       </c>
       <c r="D80" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E80" t="n">
         <v>8975</v>
       </c>
       <c r="F80" t="n">
-        <v>70.2487</v>
+        <v>48</v>
       </c>
       <c r="G80" t="n">
-        <v>-850.2545077599999</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3692,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="C81" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="D81" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="E81" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="F81" t="n">
-        <v>10.9267</v>
+        <v>24</v>
       </c>
       <c r="G81" t="n">
-        <v>-839.3278077599999</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3734,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C82" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D82" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E82" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F82" t="n">
-        <v>5.5841</v>
+        <v>68</v>
       </c>
       <c r="G82" t="n">
-        <v>-844.91190776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,11 +3776,18 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3271,19 +3797,19 @@
         <v>8975</v>
       </c>
       <c r="C83" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D83" t="n">
         <v>8975</v>
       </c>
       <c r="E83" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F83" t="n">
-        <v>285.6626</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>-1130.57450776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3818,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C84" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D84" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E84" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F84" t="n">
-        <v>57.5</v>
+        <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>-1130.57450776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3860,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C85" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D85" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E85" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F85" t="n">
-        <v>3.1399</v>
+        <v>69.2428</v>
       </c>
       <c r="G85" t="n">
-        <v>-1130.57450776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3902,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C86" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D86" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E86" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F86" t="n">
-        <v>4.4159</v>
+        <v>68</v>
       </c>
       <c r="G86" t="n">
-        <v>-1126.15860776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3944,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="C87" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D87" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="E87" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F87" t="n">
-        <v>9.148099999999999</v>
+        <v>210</v>
       </c>
       <c r="G87" t="n">
-        <v>-1126.15860776</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3986,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="C88" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="D88" t="n">
-        <v>9045</v>
+        <v>8975</v>
       </c>
       <c r="E88" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="F88" t="n">
-        <v>324.17791127</v>
+        <v>212.5341</v>
       </c>
       <c r="G88" t="n">
-        <v>-801.98069649</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +4028,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9040</v>
+        <v>8975</v>
       </c>
       <c r="C89" t="n">
-        <v>9040</v>
+        <v>8975</v>
       </c>
       <c r="D89" t="n">
-        <v>9040</v>
+        <v>8975</v>
       </c>
       <c r="E89" t="n">
-        <v>9040</v>
+        <v>8975</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>398.2513</v>
       </c>
       <c r="G89" t="n">
-        <v>-798.98069649</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +4070,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="C90" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="D90" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="E90" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="F90" t="n">
-        <v>99.40179999999999</v>
+        <v>1.6615</v>
       </c>
       <c r="G90" t="n">
-        <v>-898.38249649</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +4112,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="C91" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="D91" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="E91" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="F91" t="n">
-        <v>3.0075</v>
+        <v>173.9937</v>
       </c>
       <c r="G91" t="n">
-        <v>-898.38249649</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +4154,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="C92" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D92" t="n">
-        <v>9005</v>
+        <v>8975</v>
       </c>
       <c r="E92" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F92" t="n">
-        <v>41</v>
+        <v>8.062799999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-939.38249649</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +4196,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C93" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D93" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E93" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F93" t="n">
-        <v>101</v>
+        <v>143.7767</v>
       </c>
       <c r="G93" t="n">
-        <v>-1040.38249649</v>
+        <v>-1453.9930951</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +4238,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="C94" t="n">
         <v>8965</v>
       </c>
       <c r="D94" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="E94" t="n">
         <v>8965</v>
       </c>
       <c r="F94" t="n">
-        <v>52</v>
+        <v>335.9023</v>
       </c>
       <c r="G94" t="n">
-        <v>-1092.38249649</v>
+        <v>-1789.8953951</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +4280,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="C95" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="D95" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="E95" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="F95" t="n">
-        <v>46</v>
+        <v>17.9435</v>
       </c>
       <c r="G95" t="n">
-        <v>-1092.38249649</v>
+        <v>-1771.9518951</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,116 +4322,150 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C96" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D96" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E96" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F96" t="n">
-        <v>682.3686</v>
+        <v>34</v>
       </c>
       <c r="G96" t="n">
-        <v>-1092.38249649</v>
+        <v>-1805.9518951</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8980</v>
+      </c>
+      <c r="K96" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C97" t="n">
         <v>8965</v>
       </c>
       <c r="D97" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E97" t="n">
         <v>8965</v>
       </c>
       <c r="F97" t="n">
-        <v>23.2463</v>
+        <v>172.6283</v>
       </c>
       <c r="G97" t="n">
-        <v>-1092.38249649</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8970</v>
+      </c>
+      <c r="K97" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="C98" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="D98" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="E98" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="F98" t="n">
-        <v>0.34</v>
+        <v>276.0698</v>
       </c>
       <c r="G98" t="n">
-        <v>-1092.04249649</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K98" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3840,80 +4484,98 @@
         <v>8965</v>
       </c>
       <c r="F99" t="n">
-        <v>13</v>
+        <v>208.0764</v>
       </c>
       <c r="G99" t="n">
-        <v>-1105.04249649</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K99" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="C100" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D100" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="E100" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F100" t="n">
-        <v>16.2487</v>
+        <v>29</v>
       </c>
       <c r="G100" t="n">
-        <v>-1088.79379649</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K100" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8980</v>
+        <v>8985</v>
       </c>
       <c r="C101" t="n">
-        <v>8980</v>
+        <v>8985</v>
       </c>
       <c r="D101" t="n">
-        <v>8980</v>
+        <v>8985</v>
       </c>
       <c r="E101" t="n">
-        <v>8980</v>
+        <v>8985</v>
       </c>
       <c r="F101" t="n">
-        <v>2.2272</v>
+        <v>10.1163</v>
       </c>
       <c r="G101" t="n">
-        <v>-1086.56659649</v>
+        <v>-1968.4638951</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,68 +4584,84 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C102" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D102" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E102" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F102" t="n">
-        <v>5.7807</v>
+        <v>36</v>
       </c>
       <c r="G102" t="n">
-        <v>-1086.56659649</v>
+        <v>-2004.4638951</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8985</v>
+      </c>
+      <c r="K102" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="C103" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D103" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="E103" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F103" t="n">
-        <v>86.3215</v>
+        <v>43.5</v>
       </c>
       <c r="G103" t="n">
-        <v>-1172.88809649</v>
+        <v>-2004.4638951</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,68 +4670,84 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="C104" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="D104" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="E104" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
-        <v>-1172.87809649</v>
+        <v>-2004.4638951</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K104" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="C105" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D105" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="E105" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F105" t="n">
-        <v>2.639</v>
+        <v>199.5</v>
       </c>
       <c r="G105" t="n">
-        <v>-1175.51709649</v>
+        <v>-2004.4638951</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,68 +4756,84 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="C106" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="D106" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="E106" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01949861</v>
+        <v>29.1666</v>
       </c>
       <c r="G106" t="n">
-        <v>-1175.5365951</v>
+        <v>-1975.2972951</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K106" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="C107" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D107" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="E107" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F107" t="n">
-        <v>5.7798</v>
+        <v>34</v>
       </c>
       <c r="G107" t="n">
-        <v>-1169.7567951</v>
+        <v>-2009.2972951</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,68 +4842,84 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8975</v>
+        <v>9030</v>
       </c>
       <c r="C108" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="D108" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="E108" t="n">
-        <v>8975</v>
+        <v>8990</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1114</v>
+        <v>240.5368</v>
       </c>
       <c r="G108" t="n">
-        <v>-1169.7567951</v>
+        <v>-1768.7604951</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K108" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="C109" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D109" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="E109" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F109" t="n">
-        <v>6.9518</v>
+        <v>5.3436</v>
       </c>
       <c r="G109" t="n">
-        <v>-1169.7567951</v>
+        <v>-1774.1040951</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4928,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="C110" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="D110" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="E110" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="F110" t="n">
-        <v>6.9518</v>
+        <v>4.6718</v>
       </c>
       <c r="G110" t="n">
-        <v>-1176.7085951</v>
+        <v>-1769.4322951</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4970,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="C111" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="D111" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="E111" t="n">
-        <v>8970</v>
+        <v>9060</v>
       </c>
       <c r="F111" t="n">
-        <v>12.988</v>
+        <v>95.3282</v>
       </c>
       <c r="G111" t="n">
-        <v>-1176.7085951</v>
+        <v>-1769.4322951</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,50 +5012,60 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9020</v>
+        <v>8985</v>
       </c>
       <c r="C112" t="n">
-        <v>9020</v>
+        <v>8980</v>
       </c>
       <c r="D112" t="n">
-        <v>9020</v>
+        <v>8985</v>
       </c>
       <c r="E112" t="n">
-        <v>9020</v>
+        <v>8980</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>142.8447</v>
       </c>
       <c r="G112" t="n">
-        <v>-1175.7085951</v>
+        <v>-1912.2769951</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>8970</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>8970</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
+        <v>8950</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4334,10 +5084,10 @@
         <v>8970</v>
       </c>
       <c r="F113" t="n">
-        <v>10.991</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-1186.6995951</v>
+        <v>-1914.2769951</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,38 +5097,39 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="C114" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="D114" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="E114" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="F114" t="n">
-        <v>228.9822</v>
+        <v>1.10558319</v>
       </c>
       <c r="G114" t="n">
-        <v>-1186.6995951</v>
+        <v>-1913.17141191</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,38 +5139,39 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="C115" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="D115" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="E115" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="F115" t="n">
-        <v>35.3277</v>
+        <v>113.9458</v>
       </c>
       <c r="G115" t="n">
-        <v>-1151.3718951</v>
+        <v>-2027.11721191</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,33 +5180,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8975</v>
+        <v>9030</v>
       </c>
       <c r="C116" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="D116" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="E116" t="n">
-        <v>8975</v>
+        <v>9030</v>
       </c>
       <c r="F116" t="n">
-        <v>73.736</v>
+        <v>399.99991681</v>
       </c>
       <c r="G116" t="n">
-        <v>-1225.1078951</v>
+        <v>-1627.1172951</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,33 +5222,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="C117" t="n">
         <v>8975</v>
       </c>
       <c r="D117" t="n">
-        <v>8975</v>
+        <v>9055</v>
       </c>
       <c r="E117" t="n">
         <v>8975</v>
       </c>
       <c r="F117" t="n">
-        <v>4.6265</v>
+        <v>2.80008319</v>
       </c>
       <c r="G117" t="n">
-        <v>-1225.1078951</v>
+        <v>-1629.91737829</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,33 +5264,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C118" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D118" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E118" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F118" t="n">
-        <v>14.6693</v>
+        <v>71.0278</v>
       </c>
       <c r="G118" t="n">
-        <v>-1210.4385951</v>
+        <v>-1700.94517829</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,33 +5306,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="C119" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D119" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="E119" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F119" t="n">
-        <v>99.7778</v>
+        <v>28.5803</v>
       </c>
       <c r="G119" t="n">
-        <v>-1310.2163951</v>
+        <v>-1672.36487829</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,33 +5348,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="C120" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D120" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="E120" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F120" t="n">
-        <v>51.1921</v>
+        <v>28.5803</v>
       </c>
       <c r="G120" t="n">
-        <v>-1310.2163951</v>
+        <v>-1672.36487829</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,33 +5390,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="C121" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D121" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E121" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F121" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>-1310.2163951</v>
+        <v>-1642.36487829</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,33 +5432,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="C122" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="D122" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E122" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="F122" t="n">
-        <v>48</v>
+        <v>9.975</v>
       </c>
       <c r="G122" t="n">
-        <v>-1310.2163951</v>
+        <v>-1632.38987829</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,33 +5474,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="C123" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="D123" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E123" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="G123" t="n">
-        <v>-1310.2163951</v>
+        <v>-1632.38987829</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,33 +5516,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C124" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D124" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E124" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F124" t="n">
-        <v>68</v>
+        <v>35.2394</v>
       </c>
       <c r="G124" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,33 +5558,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C125" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D125" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E125" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F125" t="n">
-        <v>8</v>
+        <v>318.7155</v>
       </c>
       <c r="G125" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,33 +5600,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C126" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D126" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E126" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F126" t="n">
-        <v>48</v>
+        <v>7.8255</v>
       </c>
       <c r="G126" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,33 +5642,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C127" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D127" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E127" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F127" t="n">
-        <v>69.2428</v>
+        <v>33.1645</v>
       </c>
       <c r="G127" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,33 +5684,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C128" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D128" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E128" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F128" t="n">
-        <v>68</v>
+        <v>76.9564</v>
       </c>
       <c r="G128" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,33 +5726,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C129" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D129" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E129" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F129" t="n">
-        <v>210</v>
+        <v>153.9671</v>
       </c>
       <c r="G129" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,33 +5768,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C130" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D130" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E130" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F130" t="n">
-        <v>212.5341</v>
+        <v>32.0555</v>
       </c>
       <c r="G130" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4953,68 +5810,84 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C131" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D131" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E131" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F131" t="n">
-        <v>398.2513</v>
+        <v>50</v>
       </c>
       <c r="G131" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K131" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C132" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D132" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E132" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F132" t="n">
-        <v>1.6615</v>
+        <v>171.6929</v>
       </c>
       <c r="G132" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5023,256 +5896,326 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C133" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D133" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E133" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F133" t="n">
-        <v>173.9937</v>
+        <v>50</v>
       </c>
       <c r="G133" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K133" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C134" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="D134" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="E134" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="F134" t="n">
-        <v>8.062799999999999</v>
+        <v>18</v>
       </c>
       <c r="G134" t="n">
-        <v>-1310.2163951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K134" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C135" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="D135" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="E135" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="F135" t="n">
-        <v>143.7767</v>
+        <v>12.7089</v>
       </c>
       <c r="G135" t="n">
-        <v>-1453.9930951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K135" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C136" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="D136" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="E136" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="F136" t="n">
-        <v>335.9023</v>
+        <v>33.8485</v>
       </c>
       <c r="G136" t="n">
-        <v>-1789.8953951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K136" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8980</v>
+        <v>8995</v>
       </c>
       <c r="C137" t="n">
-        <v>8980</v>
+        <v>8995</v>
       </c>
       <c r="D137" t="n">
-        <v>8980</v>
+        <v>8995</v>
       </c>
       <c r="E137" t="n">
-        <v>8980</v>
+        <v>8995</v>
       </c>
       <c r="F137" t="n">
-        <v>17.9435</v>
+        <v>228</v>
       </c>
       <c r="G137" t="n">
-        <v>-1771.9518951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K137" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C138" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="D138" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="E138" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="F138" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G138" t="n">
-        <v>-1805.9518951</v>
+        <v>-1667.62927829</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K138" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C139" t="n">
         <v>8965</v>
       </c>
       <c r="D139" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="E139" t="n">
         <v>8965</v>
       </c>
       <c r="F139" t="n">
-        <v>172.6283</v>
+        <v>1.462</v>
       </c>
       <c r="G139" t="n">
-        <v>-1978.5801951</v>
+        <v>-1669.09127829</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K139" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5291,23 +6234,32 @@
         <v>8965</v>
       </c>
       <c r="F140" t="n">
-        <v>276.0698</v>
+        <v>65.3211</v>
       </c>
       <c r="G140" t="n">
-        <v>-1978.5801951</v>
+        <v>-1669.09127829</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K140" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5326,185 +6278,230 @@
         <v>8965</v>
       </c>
       <c r="F141" t="n">
-        <v>208.0764</v>
+        <v>9.707700000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-1978.5801951</v>
+        <v>-1669.09127829</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K141" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8965</v>
+        <v>8940</v>
       </c>
       <c r="C142" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D142" t="n">
-        <v>8965</v>
+        <v>8940</v>
       </c>
       <c r="E142" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F142" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="G142" t="n">
-        <v>-1978.5801951</v>
+        <v>-1756.09127829</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>8965</v>
+      </c>
+      <c r="K142" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8985</v>
+        <v>8940</v>
       </c>
       <c r="C143" t="n">
-        <v>8985</v>
+        <v>8995</v>
       </c>
       <c r="D143" t="n">
-        <v>8985</v>
+        <v>8995</v>
       </c>
       <c r="E143" t="n">
-        <v>8985</v>
+        <v>8940</v>
       </c>
       <c r="F143" t="n">
-        <v>10.1163</v>
+        <v>89.59910000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-1968.4638951</v>
+        <v>-1666.49217829</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>8930</v>
+      </c>
+      <c r="K143" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8970</v>
+        <v>8940</v>
       </c>
       <c r="C144" t="n">
-        <v>8965</v>
+        <v>8940</v>
       </c>
       <c r="D144" t="n">
-        <v>8970</v>
+        <v>8940</v>
       </c>
       <c r="E144" t="n">
-        <v>8965</v>
+        <v>8940</v>
       </c>
       <c r="F144" t="n">
-        <v>36</v>
+        <v>53.9618</v>
       </c>
       <c r="G144" t="n">
-        <v>-2004.4638951</v>
+        <v>-1720.45397829</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>8995</v>
+      </c>
+      <c r="K144" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C145" t="n">
-        <v>8965</v>
+        <v>9050</v>
       </c>
       <c r="D145" t="n">
-        <v>8970</v>
+        <v>9050</v>
       </c>
       <c r="E145" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="F145" t="n">
-        <v>43.5</v>
+        <v>388.787</v>
       </c>
       <c r="G145" t="n">
-        <v>-2004.4638951</v>
+        <v>-1331.66697829</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>8940</v>
+      </c>
+      <c r="K145" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8965</v>
+        <v>9050</v>
       </c>
       <c r="C146" t="n">
-        <v>8965</v>
+        <v>9070</v>
       </c>
       <c r="D146" t="n">
-        <v>8965</v>
+        <v>9070</v>
       </c>
       <c r="E146" t="n">
-        <v>8965</v>
+        <v>9050</v>
       </c>
       <c r="F146" t="n">
-        <v>199</v>
+        <v>1306.1764</v>
       </c>
       <c r="G146" t="n">
-        <v>-2004.4638951</v>
+        <v>-25.4905782899998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5513,33 +6510,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8965</v>
+        <v>9080</v>
       </c>
       <c r="C147" t="n">
-        <v>8965</v>
+        <v>9070</v>
       </c>
       <c r="D147" t="n">
-        <v>8965</v>
+        <v>9080</v>
       </c>
       <c r="E147" t="n">
-        <v>8965</v>
+        <v>9070</v>
       </c>
       <c r="F147" t="n">
-        <v>199.5</v>
+        <v>53.9448</v>
       </c>
       <c r="G147" t="n">
-        <v>-2004.4638951</v>
+        <v>-25.4905782899998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5548,33 +6552,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9000</v>
+        <v>9070</v>
       </c>
       <c r="C148" t="n">
-        <v>9000</v>
+        <v>9070</v>
       </c>
       <c r="D148" t="n">
-        <v>9000</v>
+        <v>9070</v>
       </c>
       <c r="E148" t="n">
-        <v>9000</v>
+        <v>9070</v>
       </c>
       <c r="F148" t="n">
-        <v>29.1666</v>
+        <v>25</v>
       </c>
       <c r="G148" t="n">
-        <v>-1975.2972951</v>
+        <v>-25.4905782899998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5583,33 +6594,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8965</v>
+        <v>9080</v>
       </c>
       <c r="C149" t="n">
-        <v>8965</v>
+        <v>9095</v>
       </c>
       <c r="D149" t="n">
-        <v>8965</v>
+        <v>9095</v>
       </c>
       <c r="E149" t="n">
-        <v>8965</v>
+        <v>9080</v>
       </c>
       <c r="F149" t="n">
-        <v>34</v>
+        <v>23.0072</v>
       </c>
       <c r="G149" t="n">
-        <v>-2009.2972951</v>
+        <v>-2.483378289999802</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5618,33 +6636,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9030</v>
+        <v>9100</v>
       </c>
       <c r="C150" t="n">
-        <v>9055</v>
+        <v>9100</v>
       </c>
       <c r="D150" t="n">
-        <v>9055</v>
+        <v>9100</v>
       </c>
       <c r="E150" t="n">
-        <v>8990</v>
+        <v>9100</v>
       </c>
       <c r="F150" t="n">
-        <v>240.5368</v>
+        <v>69.9671</v>
       </c>
       <c r="G150" t="n">
-        <v>-1768.7604951</v>
+        <v>67.4837217100002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5653,33 +6678,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9055</v>
+        <v>9155</v>
       </c>
       <c r="C151" t="n">
-        <v>8970</v>
+        <v>9155</v>
       </c>
       <c r="D151" t="n">
-        <v>9055</v>
+        <v>9155</v>
       </c>
       <c r="E151" t="n">
-        <v>8970</v>
+        <v>9155</v>
       </c>
       <c r="F151" t="n">
-        <v>5.3436</v>
+        <v>6.4939</v>
       </c>
       <c r="G151" t="n">
-        <v>-1774.1040951</v>
+        <v>73.97762171000019</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5688,33 +6720,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="C152" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="D152" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="E152" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="F152" t="n">
-        <v>4.6718</v>
+        <v>157.9035</v>
       </c>
       <c r="G152" t="n">
-        <v>-1769.4322951</v>
+        <v>231.8811217100002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5723,33 +6762,40 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="C153" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="D153" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="E153" t="n">
-        <v>9060</v>
+        <v>9180</v>
       </c>
       <c r="F153" t="n">
-        <v>95.3282</v>
+        <v>0.6249</v>
       </c>
       <c r="G153" t="n">
-        <v>-1769.4322951</v>
+        <v>231.8811217100002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5758,33 +6804,40 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8985</v>
+        <v>9180</v>
       </c>
       <c r="C154" t="n">
-        <v>8980</v>
+        <v>9225</v>
       </c>
       <c r="D154" t="n">
-        <v>8985</v>
+        <v>9225</v>
       </c>
       <c r="E154" t="n">
-        <v>8980</v>
+        <v>9180</v>
       </c>
       <c r="F154" t="n">
-        <v>142.8447</v>
+        <v>108.7229</v>
       </c>
       <c r="G154" t="n">
-        <v>-1912.2769951</v>
+        <v>340.6040217100002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5793,33 +6846,40 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8970</v>
+        <v>9235</v>
       </c>
       <c r="C155" t="n">
-        <v>8970</v>
+        <v>9390</v>
       </c>
       <c r="D155" t="n">
-        <v>8970</v>
+        <v>9390</v>
       </c>
       <c r="E155" t="n">
-        <v>8970</v>
+        <v>9235</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>945.2463</v>
       </c>
       <c r="G155" t="n">
-        <v>-1914.2769951</v>
+        <v>1285.85032171</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5828,33 +6888,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9045</v>
+        <v>9215</v>
       </c>
       <c r="C156" t="n">
-        <v>9045</v>
+        <v>9265</v>
       </c>
       <c r="D156" t="n">
-        <v>9045</v>
+        <v>9390</v>
       </c>
       <c r="E156" t="n">
-        <v>9045</v>
+        <v>9215</v>
       </c>
       <c r="F156" t="n">
-        <v>1.10558319</v>
+        <v>49.1269</v>
       </c>
       <c r="G156" t="n">
-        <v>-1913.17141191</v>
+        <v>1236.72342171</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5863,33 +6930,40 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8970</v>
+        <v>9390</v>
       </c>
       <c r="C157" t="n">
-        <v>8970</v>
+        <v>9390</v>
       </c>
       <c r="D157" t="n">
-        <v>8970</v>
+        <v>9390</v>
       </c>
       <c r="E157" t="n">
-        <v>8970</v>
+        <v>9285</v>
       </c>
       <c r="F157" t="n">
-        <v>113.9458</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-2027.11721191</v>
+        <v>1246.42342171</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5898,74 +6972,88 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9030</v>
+        <v>9305</v>
       </c>
       <c r="C158" t="n">
-        <v>9055</v>
+        <v>9390</v>
       </c>
       <c r="D158" t="n">
-        <v>9055</v>
+        <v>9390</v>
       </c>
       <c r="E158" t="n">
-        <v>9030</v>
+        <v>9300</v>
       </c>
       <c r="F158" t="n">
-        <v>399.99991681</v>
+        <v>74.59910000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>-1627.1172951</v>
+        <v>1246.42342171</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>8950</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M158" t="n">
-        <v>1</v>
-      </c>
+        <v>1.044162011173184</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9055</v>
+        <v>9240</v>
       </c>
       <c r="C159" t="n">
-        <v>8975</v>
+        <v>9380</v>
       </c>
       <c r="D159" t="n">
-        <v>9055</v>
+        <v>9380</v>
       </c>
       <c r="E159" t="n">
-        <v>8975</v>
+        <v>9240</v>
       </c>
       <c r="F159" t="n">
-        <v>2.80008319</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-1629.91737829</v>
+        <v>1171.32342171</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -5973,34 +7061,35 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8970</v>
+        <v>9130</v>
       </c>
       <c r="C160" t="n">
-        <v>8965</v>
+        <v>9275</v>
       </c>
       <c r="D160" t="n">
-        <v>8970</v>
+        <v>9275</v>
       </c>
       <c r="E160" t="n">
-        <v>8965</v>
+        <v>9130</v>
       </c>
       <c r="F160" t="n">
-        <v>71.0278</v>
+        <v>21.3359</v>
       </c>
       <c r="G160" t="n">
-        <v>-1700.94517829</v>
+        <v>1149.98752171</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6008,34 +7097,35 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8985</v>
+        <v>9260</v>
       </c>
       <c r="C161" t="n">
-        <v>8980</v>
+        <v>9260</v>
       </c>
       <c r="D161" t="n">
-        <v>8985</v>
+        <v>9260</v>
       </c>
       <c r="E161" t="n">
-        <v>8980</v>
+        <v>9260</v>
       </c>
       <c r="F161" t="n">
-        <v>28.5803</v>
+        <v>0.1</v>
       </c>
       <c r="G161" t="n">
-        <v>-1672.36487829</v>
+        <v>1149.88752171</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6043,34 +7133,35 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8985</v>
+        <v>9120</v>
       </c>
       <c r="C162" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="D162" t="n">
-        <v>8985</v>
+        <v>9120</v>
       </c>
       <c r="E162" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="F162" t="n">
-        <v>28.5803</v>
+        <v>95.2338</v>
       </c>
       <c r="G162" t="n">
-        <v>-1672.36487829</v>
+        <v>1054.65372171</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6078,34 +7169,35 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="C163" t="n">
-        <v>8995</v>
+        <v>9200</v>
       </c>
       <c r="D163" t="n">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E163" t="n">
-        <v>8995</v>
+        <v>9200</v>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="G163" t="n">
-        <v>-1642.36487829</v>
+        <v>1054.75372171</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6113,34 +7205,35 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9000</v>
+        <v>9135</v>
       </c>
       <c r="C164" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="D164" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="E164" t="n">
-        <v>9000</v>
+        <v>9120</v>
       </c>
       <c r="F164" t="n">
-        <v>9.975</v>
+        <v>124.0021</v>
       </c>
       <c r="G164" t="n">
-        <v>-1632.38987829</v>
+        <v>930.7516217100002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6148,34 +7241,35 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9000</v>
+        <v>9170</v>
       </c>
       <c r="C165" t="n">
-        <v>9000</v>
+        <v>9170</v>
       </c>
       <c r="D165" t="n">
-        <v>9000</v>
+        <v>9175</v>
       </c>
       <c r="E165" t="n">
-        <v>9000</v>
+        <v>9170</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5</v>
+        <v>93.6694</v>
       </c>
       <c r="G165" t="n">
-        <v>-1632.38987829</v>
+        <v>837.0822217100002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6183,34 +7277,35 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8995</v>
+        <v>9170</v>
       </c>
       <c r="C166" t="n">
-        <v>8995</v>
+        <v>9175</v>
       </c>
       <c r="D166" t="n">
-        <v>8995</v>
+        <v>9175</v>
       </c>
       <c r="E166" t="n">
-        <v>8995</v>
+        <v>9170</v>
       </c>
       <c r="F166" t="n">
-        <v>35.2394</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>-1667.62927829</v>
+        <v>838.0822217100002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6218,34 +7313,35 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8995</v>
+        <v>9175</v>
       </c>
       <c r="C167" t="n">
-        <v>8995</v>
+        <v>9180</v>
       </c>
       <c r="D167" t="n">
-        <v>8995</v>
+        <v>9180</v>
       </c>
       <c r="E167" t="n">
-        <v>8995</v>
+        <v>9175</v>
       </c>
       <c r="F167" t="n">
-        <v>318.7155</v>
+        <v>55.8657</v>
       </c>
       <c r="G167" t="n">
-        <v>-1667.62927829</v>
+        <v>893.9479217100002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6253,34 +7349,35 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8995</v>
+        <v>9190</v>
       </c>
       <c r="C168" t="n">
-        <v>8995</v>
+        <v>9245</v>
       </c>
       <c r="D168" t="n">
-        <v>8995</v>
+        <v>9245</v>
       </c>
       <c r="E168" t="n">
-        <v>8995</v>
+        <v>9190</v>
       </c>
       <c r="F168" t="n">
-        <v>7.8255</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>-1667.62927829</v>
+        <v>895.9479217100002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6288,28 +7385,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8995</v>
+        <v>9145</v>
       </c>
       <c r="C169" t="n">
-        <v>8995</v>
+        <v>9240</v>
       </c>
       <c r="D169" t="n">
-        <v>8995</v>
+        <v>9240</v>
       </c>
       <c r="E169" t="n">
-        <v>8995</v>
+        <v>9100</v>
       </c>
       <c r="F169" t="n">
-        <v>33.1645</v>
+        <v>71.6874</v>
       </c>
       <c r="G169" t="n">
-        <v>-1667.62927829</v>
+        <v>824.2605217100001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6323,34 +7421,35 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8995</v>
+        <v>9150</v>
       </c>
       <c r="C170" t="n">
-        <v>8995</v>
+        <v>9230</v>
       </c>
       <c r="D170" t="n">
-        <v>8995</v>
+        <v>9230</v>
       </c>
       <c r="E170" t="n">
-        <v>8995</v>
+        <v>9060</v>
       </c>
       <c r="F170" t="n">
-        <v>76.9564</v>
+        <v>182.1</v>
       </c>
       <c r="G170" t="n">
-        <v>-1667.62927829</v>
+        <v>642.1605217100001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6358,34 +7457,35 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8995</v>
+        <v>9105</v>
       </c>
       <c r="C171" t="n">
-        <v>8995</v>
+        <v>9185</v>
       </c>
       <c r="D171" t="n">
-        <v>8995</v>
+        <v>9195</v>
       </c>
       <c r="E171" t="n">
-        <v>8995</v>
+        <v>9090</v>
       </c>
       <c r="F171" t="n">
-        <v>153.9671</v>
+        <v>234.4358</v>
       </c>
       <c r="G171" t="n">
-        <v>-1667.62927829</v>
+        <v>407.7247217100002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6393,1631 +7493,43 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8995</v>
+        <v>9180</v>
       </c>
       <c r="C172" t="n">
-        <v>8995</v>
+        <v>9230</v>
       </c>
       <c r="D172" t="n">
-        <v>8995</v>
+        <v>9230</v>
       </c>
       <c r="E172" t="n">
-        <v>8995</v>
+        <v>9090</v>
       </c>
       <c r="F172" t="n">
-        <v>32.0555</v>
+        <v>239.6645</v>
       </c>
       <c r="G172" t="n">
-        <v>-1667.62927829</v>
+        <v>647.3892217100001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K172" t="n">
-        <v>8995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F173" t="n">
-        <v>50</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K173" t="n">
-        <v>8995</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F174" t="n">
-        <v>171.6929</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K174" t="n">
-        <v>8995</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F175" t="n">
-        <v>50</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F176" t="n">
-        <v>18</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K176" t="n">
-        <v>8995</v>
-      </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C177" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D177" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E177" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F177" t="n">
-        <v>12.7089</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>8995</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C178" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D178" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E178" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F178" t="n">
-        <v>33.8485</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>8995</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C179" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D179" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E179" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F179" t="n">
-        <v>228</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D180" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F180" t="n">
-        <v>42</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8965</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E181" t="n">
-        <v>8965</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1.462</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>8965</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8965</v>
-      </c>
-      <c r="D182" t="n">
-        <v>8965</v>
-      </c>
-      <c r="E182" t="n">
-        <v>8965</v>
-      </c>
-      <c r="F182" t="n">
-        <v>65.3211</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>8965</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8965</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8965</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8965</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9.707700000000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>8940</v>
-      </c>
-      <c r="C184" t="n">
-        <v>8930</v>
-      </c>
-      <c r="D184" t="n">
-        <v>8940</v>
-      </c>
-      <c r="E184" t="n">
-        <v>8930</v>
-      </c>
-      <c r="F184" t="n">
-        <v>87</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1756.09127829</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>8940</v>
-      </c>
-      <c r="C185" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D185" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E185" t="n">
-        <v>8940</v>
-      </c>
-      <c r="F185" t="n">
-        <v>89.59910000000001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1666.49217829</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>8940</v>
-      </c>
-      <c r="C186" t="n">
-        <v>8940</v>
-      </c>
-      <c r="D186" t="n">
-        <v>8940</v>
-      </c>
-      <c r="E186" t="n">
-        <v>8940</v>
-      </c>
-      <c r="F186" t="n">
-        <v>53.9618</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1720.45397829</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9050</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E187" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F187" t="n">
-        <v>388.787</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1331.66697829</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9070</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9070</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9050</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1306.1764</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9070</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9070</v>
-      </c>
-      <c r="F189" t="n">
-        <v>53.9448</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9070</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9070</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9070</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9070</v>
-      </c>
-      <c r="F190" t="n">
-        <v>25</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9095</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9095</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9080</v>
-      </c>
-      <c r="F191" t="n">
-        <v>23.0072</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2.483378289999802</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9100</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9100</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9100</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F192" t="n">
-        <v>69.9671</v>
-      </c>
-      <c r="G192" t="n">
-        <v>67.4837217100002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9155</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9155</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9155</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9155</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6.4939</v>
-      </c>
-      <c r="G193" t="n">
-        <v>73.97762171000019</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F194" t="n">
-        <v>157.9035</v>
-      </c>
-      <c r="G194" t="n">
-        <v>231.8811217100002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.6249</v>
-      </c>
-      <c r="G195" t="n">
-        <v>231.8811217100002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9225</v>
-      </c>
-      <c r="D196" t="n">
-        <v>9225</v>
-      </c>
-      <c r="E196" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F196" t="n">
-        <v>108.7229</v>
-      </c>
-      <c r="G196" t="n">
-        <v>340.6040217100002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>9235</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9390</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9390</v>
-      </c>
-      <c r="E197" t="n">
-        <v>9235</v>
-      </c>
-      <c r="F197" t="n">
-        <v>945.2463</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1285.85032171</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>9215</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9265</v>
-      </c>
-      <c r="D198" t="n">
-        <v>9390</v>
-      </c>
-      <c r="E198" t="n">
-        <v>9215</v>
-      </c>
-      <c r="F198" t="n">
-        <v>49.1269</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1236.72342171</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>9390</v>
-      </c>
-      <c r="C199" t="n">
-        <v>9390</v>
-      </c>
-      <c r="D199" t="n">
-        <v>9390</v>
-      </c>
-      <c r="E199" t="n">
-        <v>9285</v>
-      </c>
-      <c r="F199" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1246.42342171</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>9305</v>
-      </c>
-      <c r="C200" t="n">
-        <v>9390</v>
-      </c>
-      <c r="D200" t="n">
-        <v>9390</v>
-      </c>
-      <c r="E200" t="n">
-        <v>9300</v>
-      </c>
-      <c r="F200" t="n">
-        <v>74.59910000000001</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1246.42342171</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>9240</v>
-      </c>
-      <c r="C201" t="n">
-        <v>9380</v>
-      </c>
-      <c r="D201" t="n">
-        <v>9380</v>
-      </c>
-      <c r="E201" t="n">
-        <v>9240</v>
-      </c>
-      <c r="F201" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1171.32342171</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>9130</v>
-      </c>
-      <c r="C202" t="n">
-        <v>9275</v>
-      </c>
-      <c r="D202" t="n">
-        <v>9275</v>
-      </c>
-      <c r="E202" t="n">
-        <v>9130</v>
-      </c>
-      <c r="F202" t="n">
-        <v>21.3359</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1149.98752171</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>9260</v>
-      </c>
-      <c r="C203" t="n">
-        <v>9260</v>
-      </c>
-      <c r="D203" t="n">
-        <v>9260</v>
-      </c>
-      <c r="E203" t="n">
-        <v>9260</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1149.88752171</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>9120</v>
-      </c>
-      <c r="C204" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D204" t="n">
-        <v>9120</v>
-      </c>
-      <c r="E204" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F204" t="n">
-        <v>95.2338</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1054.65372171</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>9200</v>
-      </c>
-      <c r="C205" t="n">
-        <v>9200</v>
-      </c>
-      <c r="D205" t="n">
-        <v>9200</v>
-      </c>
-      <c r="E205" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1054.75372171</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>9135</v>
-      </c>
-      <c r="C206" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D206" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E206" t="n">
-        <v>9120</v>
-      </c>
-      <c r="F206" t="n">
-        <v>124.0021</v>
-      </c>
-      <c r="G206" t="n">
-        <v>930.7516217100002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C207" t="n">
-        <v>9170</v>
-      </c>
-      <c r="D207" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E207" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F207" t="n">
-        <v>93.6694</v>
-      </c>
-      <c r="G207" t="n">
-        <v>837.0822217100002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C208" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D208" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E208" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1</v>
-      </c>
-      <c r="G208" t="n">
-        <v>838.0822217100002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C209" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D209" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E209" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F209" t="n">
-        <v>55.8657</v>
-      </c>
-      <c r="G209" t="n">
-        <v>893.9479217100002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>9190</v>
-      </c>
-      <c r="C210" t="n">
-        <v>9245</v>
-      </c>
-      <c r="D210" t="n">
-        <v>9245</v>
-      </c>
-      <c r="E210" t="n">
-        <v>9190</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2</v>
-      </c>
-      <c r="G210" t="n">
-        <v>895.9479217100002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>9145</v>
-      </c>
-      <c r="C211" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D211" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E211" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F211" t="n">
-        <v>71.6874</v>
-      </c>
-      <c r="G211" t="n">
-        <v>824.2605217100001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>9150</v>
-      </c>
-      <c r="C212" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D212" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E212" t="n">
-        <v>9060</v>
-      </c>
-      <c r="F212" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>642.1605217100001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C213" t="n">
-        <v>9185</v>
-      </c>
-      <c r="D213" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E213" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F213" t="n">
-        <v>234.4358</v>
-      </c>
-      <c r="G213" t="n">
-        <v>407.7247217100002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C214" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D214" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E214" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F214" t="n">
-        <v>239.6645</v>
-      </c>
-      <c r="G214" t="n">
-        <v>647.3892217100001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
+      <c r="N172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9040</v>
+        <v>8855</v>
       </c>
       <c r="C2" t="n">
-        <v>9040</v>
+        <v>8855</v>
       </c>
       <c r="D2" t="n">
-        <v>9040</v>
+        <v>8855</v>
       </c>
       <c r="E2" t="n">
-        <v>9040</v>
+        <v>8855</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>-1322.41360776</v>
+        <v>-1223.76610776</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="C3" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="D3" t="n">
-        <v>8925</v>
+        <v>8855</v>
       </c>
       <c r="E3" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="F3" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>-1445.41360776</v>
+        <v>-1223.76610776</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8855</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="C4" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="D4" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="E4" t="n">
-        <v>8920</v>
+        <v>8855</v>
       </c>
       <c r="F4" t="n">
-        <v>65.5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-1445.41360776</v>
+        <v>-1223.76610776</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8920</v>
+        <v>8940</v>
       </c>
       <c r="C5" t="n">
-        <v>8920</v>
+        <v>8945</v>
       </c>
       <c r="D5" t="n">
-        <v>8920</v>
+        <v>8945</v>
       </c>
       <c r="E5" t="n">
-        <v>8920</v>
+        <v>8940</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>86.39960000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-1445.41360776</v>
+        <v>-1137.36650776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8855</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,19 +614,23 @@
         <v>8920</v>
       </c>
       <c r="F6" t="n">
-        <v>103</v>
+        <v>72.0107</v>
       </c>
       <c r="G6" t="n">
-        <v>-1445.41360776</v>
+        <v>-1209.37720776</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8945</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8955</v>
+        <v>8945</v>
       </c>
       <c r="C7" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="D7" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="E7" t="n">
-        <v>8955</v>
+        <v>8945</v>
       </c>
       <c r="F7" t="n">
-        <v>5.581</v>
+        <v>97.2317</v>
       </c>
       <c r="G7" t="n">
-        <v>-1439.83260776</v>
+        <v>-1112.14550776</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>8920</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="C8" t="n">
         <v>8950</v>
@@ -663,13 +695,13 @@
         <v>8950</v>
       </c>
       <c r="E8" t="n">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="F8" t="n">
-        <v>48.6047</v>
+        <v>392.94301046</v>
       </c>
       <c r="G8" t="n">
-        <v>-1488.43730776</v>
+        <v>-1112.14550776</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="C9" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="D9" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="E9" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2228</v>
+        <v>3.9242</v>
       </c>
       <c r="G9" t="n">
-        <v>-1488.21450776</v>
+        <v>-1108.22130776</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +752,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +770,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="C10" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="D10" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="E10" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>6.0358</v>
       </c>
       <c r="G10" t="n">
-        <v>-1523.21450776</v>
+        <v>-1108.22130776</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +794,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +812,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="C11" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="D11" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="E11" t="n">
-        <v>8925</v>
+        <v>8975</v>
       </c>
       <c r="F11" t="n">
-        <v>230</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>-1523.21450776</v>
+        <v>-1108.22130776</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +836,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8935</v>
+        <v>8975</v>
       </c>
       <c r="C12" t="n">
-        <v>8930</v>
+        <v>8975</v>
       </c>
       <c r="D12" t="n">
-        <v>8935</v>
+        <v>8975</v>
       </c>
       <c r="E12" t="n">
-        <v>8930</v>
+        <v>8975</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0776</v>
+        <v>67.2319</v>
       </c>
       <c r="G12" t="n">
-        <v>-1501.13690776</v>
+        <v>-1108.22130776</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +878,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="C13" t="n">
-        <v>8935</v>
+        <v>8980</v>
       </c>
       <c r="D13" t="n">
-        <v>9025</v>
+        <v>8980</v>
       </c>
       <c r="E13" t="n">
-        <v>8930</v>
+        <v>8980</v>
       </c>
       <c r="F13" t="n">
-        <v>337.6297</v>
+        <v>97.1917</v>
       </c>
       <c r="G13" t="n">
-        <v>-1163.50720776</v>
+        <v>-1011.02960776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,36 +938,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="C14" t="n">
-        <v>9010</v>
+        <v>8920</v>
       </c>
       <c r="D14" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="E14" t="n">
-        <v>9010</v>
+        <v>8920</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2362</v>
+        <v>32.767</v>
       </c>
       <c r="G14" t="n">
-        <v>-1163.27100776</v>
+        <v>-1043.79660776</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>8935</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>8935</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -910,38 +980,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C15" t="n">
-        <v>8985</v>
+        <v>9000</v>
       </c>
       <c r="D15" t="n">
-        <v>8985</v>
+        <v>9000</v>
       </c>
       <c r="E15" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F15" t="n">
-        <v>32.579</v>
+        <v>202</v>
       </c>
       <c r="G15" t="n">
-        <v>-1195.85000776</v>
+        <v>-841.7966077599999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9010</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>8935</v>
+        <v>8945</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -954,38 +1022,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="C16" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="D16" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="E16" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="F16" t="n">
-        <v>85.0809</v>
+        <v>47.6068</v>
       </c>
       <c r="G16" t="n">
-        <v>-1280.93090776</v>
+        <v>-889.4034077599999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>8985</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>8935</v>
+        <v>8945</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -998,36 +1064,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="C17" t="n">
-        <v>9015</v>
+        <v>8995</v>
       </c>
       <c r="D17" t="n">
-        <v>9015</v>
+        <v>8995</v>
       </c>
       <c r="E17" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="F17" t="n">
-        <v>8.8452</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-1272.08570776</v>
+        <v>-889.4034077599999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>8950</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1038,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="C18" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="D18" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="E18" t="n">
-        <v>8950</v>
+        <v>8995</v>
       </c>
       <c r="F18" t="n">
-        <v>33.9785</v>
+        <v>19.2757</v>
       </c>
       <c r="G18" t="n">
-        <v>-1306.06420776</v>
+        <v>-889.4034077599999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1063,11 +1131,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1080,34 +1148,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="C19" t="n">
-        <v>8960</v>
+        <v>8925</v>
       </c>
       <c r="D19" t="n">
-        <v>8960</v>
+        <v>8995</v>
       </c>
       <c r="E19" t="n">
-        <v>8960</v>
+        <v>8925</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29.4469</v>
       </c>
       <c r="G19" t="n">
-        <v>-1306.06420776</v>
+        <v>-918.85030776</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>8960</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1124,34 +1190,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8960</v>
+        <v>8935</v>
       </c>
       <c r="C20" t="n">
-        <v>8960</v>
+        <v>8930</v>
       </c>
       <c r="D20" t="n">
-        <v>8960</v>
+        <v>8935</v>
       </c>
       <c r="E20" t="n">
-        <v>8960</v>
+        <v>8930</v>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>75.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-1306.06420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>8960</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1168,34 +1232,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8960</v>
+        <v>8930</v>
       </c>
       <c r="C21" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="D21" t="n">
-        <v>8960</v>
+        <v>8930</v>
       </c>
       <c r="E21" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="F21" t="n">
-        <v>63.5</v>
+        <v>62</v>
       </c>
       <c r="G21" t="n">
-        <v>-1369.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>8960</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1212,34 +1274,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="C22" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="D22" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="E22" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="F22" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>-1369.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>8950</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1256,34 +1316,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="C23" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="D23" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="E23" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-1369.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>8950</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1300,34 +1358,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="C24" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="D24" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="E24" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="F24" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-1278.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>8950</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1344,34 +1400,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="C25" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="D25" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="E25" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="F25" t="n">
-        <v>33.5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>-1278.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>8955</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1388,34 +1442,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="C26" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="D26" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="E26" t="n">
-        <v>8955</v>
+        <v>8930</v>
       </c>
       <c r="F26" t="n">
-        <v>32.5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>-1278.56420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>8955</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1432,34 +1484,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="C27" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="D27" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="E27" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-1278.46420776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>8955</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1476,22 +1526,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="C28" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="D28" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="E28" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="F28" t="n">
-        <v>22.041</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-1256.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1501,7 +1551,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1518,22 +1568,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="C29" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="D29" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="E29" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>-1256.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1543,7 +1593,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1560,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8990</v>
+        <v>8930</v>
       </c>
       <c r="C30" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D30" t="n">
-        <v>8990</v>
+        <v>8995</v>
       </c>
       <c r="E30" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F30" t="n">
-        <v>56</v>
+        <v>15.2234</v>
       </c>
       <c r="G30" t="n">
-        <v>-1312.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1585,7 +1635,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1602,22 +1652,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="C31" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D31" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="E31" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>-1312.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1627,7 +1677,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1644,22 +1694,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="C32" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D32" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="E32" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F32" t="n">
-        <v>38.5</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>-1312.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1669,7 +1719,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1686,22 +1736,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9015</v>
+        <v>8930</v>
       </c>
       <c r="C33" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D33" t="n">
-        <v>9015</v>
+        <v>8930</v>
       </c>
       <c r="E33" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F33" t="n">
-        <v>110.8614</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>-1312.42320776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1711,7 +1761,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1728,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="C34" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="D34" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="E34" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="F34" t="n">
-        <v>332.9175</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-979.50570776</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1753,7 +1803,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1770,22 +1820,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="C35" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D35" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="E35" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9975000000000001</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>-980.5032077599999</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1795,7 +1845,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1812,22 +1862,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="C36" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="D36" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="E36" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="F36" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>-920.5032077599999</v>
+        <v>-843.35030776</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1837,7 +1887,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1854,22 +1904,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8970</v>
+        <v>8935</v>
       </c>
       <c r="C37" t="n">
-        <v>8970</v>
+        <v>8935</v>
       </c>
       <c r="D37" t="n">
-        <v>8970</v>
+        <v>8935</v>
       </c>
       <c r="E37" t="n">
-        <v>8970</v>
+        <v>8935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0255</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>-920.5032077599999</v>
+        <v>-839.35030776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1879,7 +1929,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1896,22 +1946,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8980</v>
+        <v>8930</v>
       </c>
       <c r="C38" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="D38" t="n">
-        <v>8980</v>
+        <v>8935</v>
       </c>
       <c r="E38" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="F38" t="n">
-        <v>70.2487</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>-850.2545077599999</v>
+        <v>-839.35030776</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1921,7 +1971,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1938,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="C39" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="D39" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="E39" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="F39" t="n">
-        <v>10.9267</v>
+        <v>37</v>
       </c>
       <c r="G39" t="n">
-        <v>-839.3278077599999</v>
+        <v>-839.35030776</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1963,7 +2013,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1980,22 +2030,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8980</v>
+        <v>8935</v>
       </c>
       <c r="C40" t="n">
-        <v>8980</v>
+        <v>8935</v>
       </c>
       <c r="D40" t="n">
-        <v>8980</v>
+        <v>8935</v>
       </c>
       <c r="E40" t="n">
-        <v>8980</v>
+        <v>8935</v>
       </c>
       <c r="F40" t="n">
-        <v>5.5841</v>
+        <v>16</v>
       </c>
       <c r="G40" t="n">
-        <v>-844.91190776</v>
+        <v>-839.35030776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2005,7 +2055,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2022,22 +2072,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="C41" t="n">
-        <v>8965</v>
+        <v>8935</v>
       </c>
       <c r="D41" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="E41" t="n">
-        <v>8965</v>
+        <v>8935</v>
       </c>
       <c r="F41" t="n">
-        <v>285.6626</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-1130.57450776</v>
+        <v>-839.35030776</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2047,7 +2097,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2064,22 +2114,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8965</v>
+        <v>8935</v>
       </c>
       <c r="C42" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="D42" t="n">
-        <v>8965</v>
+        <v>8935</v>
       </c>
       <c r="E42" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="F42" t="n">
-        <v>57.5</v>
+        <v>85.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-1130.57450776</v>
+        <v>-924.85030776</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2089,7 +2139,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2106,34 +2156,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="C43" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="D43" t="n">
-        <v>8965</v>
+        <v>8930</v>
       </c>
       <c r="E43" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="F43" t="n">
-        <v>3.1399</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>-1130.57450776</v>
+        <v>-928.85030776</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2150,34 +2198,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="C44" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="D44" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="E44" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="F44" t="n">
-        <v>4.4159</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>-1126.15860776</v>
+        <v>-928.85030776</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2194,34 +2240,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8985</v>
+        <v>8915</v>
       </c>
       <c r="C45" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="D45" t="n">
-        <v>8985</v>
+        <v>8915</v>
       </c>
       <c r="E45" t="n">
-        <v>8980</v>
+        <v>8915</v>
       </c>
       <c r="F45" t="n">
-        <v>9.148099999999999</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>-1126.15860776</v>
+        <v>-928.85030776</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>8980</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2238,34 +2282,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9010</v>
+        <v>8915</v>
       </c>
       <c r="C46" t="n">
-        <v>8985</v>
+        <v>8915</v>
       </c>
       <c r="D46" t="n">
-        <v>9045</v>
+        <v>8915</v>
       </c>
       <c r="E46" t="n">
-        <v>8985</v>
+        <v>8915</v>
       </c>
       <c r="F46" t="n">
-        <v>324.17791127</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>-801.98069649</v>
+        <v>-928.85030776</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>8980</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2282,22 +2324,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9040</v>
+        <v>8990</v>
       </c>
       <c r="C47" t="n">
-        <v>9040</v>
+        <v>8990</v>
       </c>
       <c r="D47" t="n">
-        <v>9040</v>
+        <v>8990</v>
       </c>
       <c r="E47" t="n">
-        <v>9040</v>
+        <v>8990</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>7.5723</v>
       </c>
       <c r="G47" t="n">
-        <v>-798.98069649</v>
+        <v>-921.2780077599999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2307,7 +2349,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2324,22 +2366,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="C48" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="D48" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="E48" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F48" t="n">
-        <v>99.40179999999999</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-898.38249649</v>
+        <v>-919.2780077599999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2349,7 +2391,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2366,22 +2408,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="C49" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="D49" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="E49" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0075</v>
+        <v>1.9204</v>
       </c>
       <c r="G49" t="n">
-        <v>-898.38249649</v>
+        <v>-919.2780077599999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2391,7 +2433,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2408,22 +2450,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9005</v>
+        <v>8945</v>
       </c>
       <c r="C50" t="n">
-        <v>8980</v>
+        <v>8950</v>
       </c>
       <c r="D50" t="n">
-        <v>9005</v>
+        <v>8950</v>
       </c>
       <c r="E50" t="n">
-        <v>8980</v>
+        <v>8945</v>
       </c>
       <c r="F50" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>-939.38249649</v>
+        <v>-943.2780077599999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2433,7 +2475,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2450,22 +2492,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8980</v>
+        <v>8950</v>
       </c>
       <c r="C51" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="D51" t="n">
-        <v>8980</v>
+        <v>8950</v>
       </c>
       <c r="E51" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="F51" t="n">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>-1040.38249649</v>
+        <v>-943.2780077599999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2475,7 +2517,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2492,22 +2534,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="C52" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="D52" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="E52" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="F52" t="n">
-        <v>52</v>
+        <v>5.761</v>
       </c>
       <c r="G52" t="n">
-        <v>-1092.38249649</v>
+        <v>-937.51700776</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2517,7 +2559,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2534,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="C53" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="D53" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="E53" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="F53" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-1092.38249649</v>
+        <v>-939.51700776</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2559,7 +2601,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2576,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="C54" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="D54" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="E54" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="F54" t="n">
-        <v>682.3686</v>
+        <v>44.9587</v>
       </c>
       <c r="G54" t="n">
-        <v>-1092.38249649</v>
+        <v>-939.51700776</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2601,7 +2643,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2618,22 +2660,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="C55" t="n">
-        <v>8965</v>
+        <v>8855</v>
       </c>
       <c r="D55" t="n">
-        <v>8965</v>
+        <v>8915</v>
       </c>
       <c r="E55" t="n">
-        <v>8965</v>
+        <v>8855</v>
       </c>
       <c r="F55" t="n">
-        <v>23.2463</v>
+        <v>220.2643</v>
       </c>
       <c r="G55" t="n">
-        <v>-1092.38249649</v>
+        <v>-1159.78130776</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2643,7 +2685,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2660,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="C56" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="D56" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="E56" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.34</v>
+        <v>21.6062</v>
       </c>
       <c r="G56" t="n">
-        <v>-1092.04249649</v>
+        <v>-1138.17510776</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2685,7 +2727,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2702,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8965</v>
+        <v>8890</v>
       </c>
       <c r="C57" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="D57" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="E57" t="n">
-        <v>8965</v>
+        <v>8880</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>120.1336</v>
       </c>
       <c r="G57" t="n">
-        <v>-1105.04249649</v>
+        <v>-1138.17510776</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2727,7 +2769,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2744,22 +2786,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="C58" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="D58" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E58" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="F58" t="n">
-        <v>16.2487</v>
+        <v>21.6393</v>
       </c>
       <c r="G58" t="n">
-        <v>-1088.79379649</v>
+        <v>-1116.53580776</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2769,7 +2811,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2786,22 +2828,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="C59" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="D59" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="E59" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="F59" t="n">
-        <v>2.2272</v>
+        <v>22.1852</v>
       </c>
       <c r="G59" t="n">
-        <v>-1086.56659649</v>
+        <v>-1116.53580776</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2811,7 +2853,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2828,22 +2870,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="C60" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="D60" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="E60" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="F60" t="n">
-        <v>5.7807</v>
+        <v>97.11539999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-1086.56659649</v>
+        <v>-1116.53580776</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2853,7 +2895,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2870,22 +2912,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8975</v>
+        <v>8905</v>
       </c>
       <c r="C61" t="n">
-        <v>8975</v>
+        <v>8905</v>
       </c>
       <c r="D61" t="n">
-        <v>8975</v>
+        <v>8905</v>
       </c>
       <c r="E61" t="n">
-        <v>8975</v>
+        <v>8905</v>
       </c>
       <c r="F61" t="n">
-        <v>86.3215</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-1172.88809649</v>
+        <v>-1126.53580776</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2895,7 +2937,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2912,22 +2954,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="C62" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="D62" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="E62" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01</v>
+        <v>52.3259</v>
       </c>
       <c r="G62" t="n">
-        <v>-1172.87809649</v>
+        <v>-1074.20990776</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2937,7 +2979,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2954,22 +2996,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="C63" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="D63" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E63" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="F63" t="n">
-        <v>2.639</v>
+        <v>5.90955555</v>
       </c>
       <c r="G63" t="n">
-        <v>-1175.51709649</v>
+        <v>-1074.20990776</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2979,7 +3021,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2996,22 +3038,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="C64" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="D64" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="E64" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01949861</v>
+        <v>43.7637</v>
       </c>
       <c r="G64" t="n">
-        <v>-1175.5365951</v>
+        <v>-1074.20990776</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3021,7 +3063,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3038,22 +3080,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8975</v>
+        <v>9070</v>
       </c>
       <c r="C65" t="n">
-        <v>8975</v>
+        <v>9070</v>
       </c>
       <c r="D65" t="n">
-        <v>8975</v>
+        <v>9070</v>
       </c>
       <c r="E65" t="n">
-        <v>8975</v>
+        <v>9070</v>
       </c>
       <c r="F65" t="n">
-        <v>5.7798</v>
+        <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>-1169.7567951</v>
+        <v>-1074.10990776</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3063,7 +3105,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3080,22 +3122,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8975</v>
+        <v>8940</v>
       </c>
       <c r="C66" t="n">
-        <v>8975</v>
+        <v>8940</v>
       </c>
       <c r="D66" t="n">
-        <v>8975</v>
+        <v>8940</v>
       </c>
       <c r="E66" t="n">
-        <v>8975</v>
+        <v>8940</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1114</v>
+        <v>35</v>
       </c>
       <c r="G66" t="n">
-        <v>-1169.7567951</v>
+        <v>-1109.10990776</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3105,7 +3147,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3122,22 +3164,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8975</v>
+        <v>9045</v>
       </c>
       <c r="C67" t="n">
-        <v>8975</v>
+        <v>9045</v>
       </c>
       <c r="D67" t="n">
-        <v>8975</v>
+        <v>9045</v>
       </c>
       <c r="E67" t="n">
-        <v>8975</v>
+        <v>9045</v>
       </c>
       <c r="F67" t="n">
-        <v>6.9518</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-1169.7567951</v>
+        <v>-1108.10990776</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3147,7 +3189,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3164,22 +3206,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="C68" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="D68" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="E68" t="n">
-        <v>8970</v>
+        <v>9000</v>
       </c>
       <c r="F68" t="n">
-        <v>6.9518</v>
+        <v>22.1975</v>
       </c>
       <c r="G68" t="n">
-        <v>-1176.7085951</v>
+        <v>-1130.30740776</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3189,7 +3231,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3206,22 +3248,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="C69" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="D69" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="E69" t="n">
-        <v>8970</v>
+        <v>8995</v>
       </c>
       <c r="F69" t="n">
-        <v>12.988</v>
+        <v>11.802</v>
       </c>
       <c r="G69" t="n">
-        <v>-1176.7085951</v>
+        <v>-1142.10940776</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3231,7 +3273,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3248,22 +3290,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="C70" t="n">
-        <v>9020</v>
+        <v>8905</v>
       </c>
       <c r="D70" t="n">
-        <v>9020</v>
+        <v>9005</v>
       </c>
       <c r="E70" t="n">
-        <v>9020</v>
+        <v>8905</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>233.3042</v>
       </c>
       <c r="G70" t="n">
-        <v>-1175.7085951</v>
+        <v>-1375.41360776</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3273,7 +3315,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3290,22 +3332,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8970</v>
+        <v>8905</v>
       </c>
       <c r="C71" t="n">
-        <v>8970</v>
+        <v>8905</v>
       </c>
       <c r="D71" t="n">
-        <v>8970</v>
+        <v>8905</v>
       </c>
       <c r="E71" t="n">
-        <v>8970</v>
+        <v>8905</v>
       </c>
       <c r="F71" t="n">
-        <v>10.991</v>
+        <v>164</v>
       </c>
       <c r="G71" t="n">
-        <v>-1186.6995951</v>
+        <v>-1375.41360776</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3315,7 +3357,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3332,22 +3374,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="C72" t="n">
-        <v>8970</v>
+        <v>8920</v>
       </c>
       <c r="D72" t="n">
-        <v>8970</v>
+        <v>8930</v>
       </c>
       <c r="E72" t="n">
-        <v>8970</v>
+        <v>8920</v>
       </c>
       <c r="F72" t="n">
-        <v>228.9822</v>
+        <v>43</v>
       </c>
       <c r="G72" t="n">
-        <v>-1186.6995951</v>
+        <v>-1332.41360776</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3357,7 +3399,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3374,22 +3416,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="C73" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="D73" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="E73" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="F73" t="n">
-        <v>35.3277</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-1151.3718951</v>
+        <v>-1322.41360776</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3399,7 +3441,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3416,22 +3458,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="C74" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="D74" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="E74" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="F74" t="n">
-        <v>73.736</v>
+        <v>123</v>
       </c>
       <c r="G74" t="n">
-        <v>-1225.1078951</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3441,7 +3483,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3458,22 +3500,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="C75" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="D75" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="E75" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="F75" t="n">
-        <v>4.6265</v>
+        <v>65.5</v>
       </c>
       <c r="G75" t="n">
-        <v>-1225.1078951</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3483,7 +3525,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3500,22 +3542,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8980</v>
+        <v>8920</v>
       </c>
       <c r="C76" t="n">
-        <v>8980</v>
+        <v>8920</v>
       </c>
       <c r="D76" t="n">
-        <v>8980</v>
+        <v>8920</v>
       </c>
       <c r="E76" t="n">
-        <v>8980</v>
+        <v>8920</v>
       </c>
       <c r="F76" t="n">
-        <v>14.6693</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
-        <v>-1210.4385951</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3525,7 +3567,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3542,22 +3584,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="C77" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="D77" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="E77" t="n">
-        <v>8975</v>
+        <v>8920</v>
       </c>
       <c r="F77" t="n">
-        <v>99.7778</v>
+        <v>103</v>
       </c>
       <c r="G77" t="n">
-        <v>-1310.2163951</v>
+        <v>-1445.41360776</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3567,7 +3609,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3584,22 +3626,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="C78" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="D78" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="E78" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="F78" t="n">
-        <v>51.1921</v>
+        <v>5.581</v>
       </c>
       <c r="G78" t="n">
-        <v>-1310.2163951</v>
+        <v>-1439.83260776</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3609,7 +3651,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3626,22 +3668,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8975</v>
+        <v>8945</v>
       </c>
       <c r="C79" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="D79" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="E79" t="n">
-        <v>8975</v>
+        <v>8945</v>
       </c>
       <c r="F79" t="n">
-        <v>54</v>
+        <v>48.6047</v>
       </c>
       <c r="G79" t="n">
-        <v>-1310.2163951</v>
+        <v>-1488.43730776</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3651,7 +3693,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3668,22 +3710,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="C80" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="D80" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="E80" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="F80" t="n">
-        <v>48</v>
+        <v>0.2228</v>
       </c>
       <c r="G80" t="n">
-        <v>-1310.2163951</v>
+        <v>-1488.21450776</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3693,7 +3735,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3710,22 +3752,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="C81" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="D81" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="E81" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="F81" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G81" t="n">
-        <v>-1310.2163951</v>
+        <v>-1523.21450776</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3735,7 +3777,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3752,22 +3794,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="C82" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="D82" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="E82" t="n">
-        <v>8975</v>
+        <v>8925</v>
       </c>
       <c r="F82" t="n">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="G82" t="n">
-        <v>-1310.2163951</v>
+        <v>-1523.21450776</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3777,7 +3819,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3794,22 +3836,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="C83" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="D83" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="E83" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>22.0776</v>
       </c>
       <c r="G83" t="n">
-        <v>-1310.2163951</v>
+        <v>-1501.13690776</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3819,7 +3861,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3836,22 +3878,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8975</v>
+        <v>8995</v>
       </c>
       <c r="C84" t="n">
-        <v>8975</v>
+        <v>8935</v>
       </c>
       <c r="D84" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="E84" t="n">
-        <v>8975</v>
+        <v>8930</v>
       </c>
       <c r="F84" t="n">
-        <v>48</v>
+        <v>337.6297</v>
       </c>
       <c r="G84" t="n">
-        <v>-1310.2163951</v>
+        <v>-1163.50720776</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3861,7 +3903,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3878,22 +3920,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="C85" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="D85" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="E85" t="n">
-        <v>8975</v>
+        <v>9010</v>
       </c>
       <c r="F85" t="n">
-        <v>69.2428</v>
+        <v>0.2362</v>
       </c>
       <c r="G85" t="n">
-        <v>-1310.2163951</v>
+        <v>-1163.27100776</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3903,7 +3945,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3920,22 +3962,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C86" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="D86" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="E86" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F86" t="n">
-        <v>68</v>
+        <v>32.579</v>
       </c>
       <c r="G86" t="n">
-        <v>-1310.2163951</v>
+        <v>-1195.85000776</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3945,7 +3987,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3962,22 +4004,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="C87" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="D87" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="E87" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="F87" t="n">
-        <v>210</v>
+        <v>85.0809</v>
       </c>
       <c r="G87" t="n">
-        <v>-1310.2163951</v>
+        <v>-1280.93090776</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3987,7 +4029,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4004,22 +4046,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="C88" t="n">
-        <v>8975</v>
+        <v>9015</v>
       </c>
       <c r="D88" t="n">
-        <v>8975</v>
+        <v>9015</v>
       </c>
       <c r="E88" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="F88" t="n">
-        <v>212.5341</v>
+        <v>8.8452</v>
       </c>
       <c r="G88" t="n">
-        <v>-1310.2163951</v>
+        <v>-1272.08570776</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4029,7 +4071,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4046,22 +4088,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="C89" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="D89" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="E89" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="F89" t="n">
-        <v>398.2513</v>
+        <v>33.9785</v>
       </c>
       <c r="G89" t="n">
-        <v>-1310.2163951</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4071,7 +4113,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4088,22 +4130,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="C90" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="D90" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="E90" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6615</v>
+        <v>30</v>
       </c>
       <c r="G90" t="n">
-        <v>-1310.2163951</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4113,7 +4155,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4130,22 +4172,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="C91" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="D91" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="E91" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="F91" t="n">
-        <v>173.9937</v>
+        <v>41</v>
       </c>
       <c r="G91" t="n">
-        <v>-1310.2163951</v>
+        <v>-1306.06420776</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4155,7 +4197,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4172,22 +4214,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="C92" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="D92" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="E92" t="n">
-        <v>8975</v>
+        <v>8950</v>
       </c>
       <c r="F92" t="n">
-        <v>8.062799999999999</v>
+        <v>63.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-1310.2163951</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4197,7 +4239,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4214,22 +4256,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="C93" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="D93" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="E93" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="F93" t="n">
-        <v>143.7767</v>
+        <v>130</v>
       </c>
       <c r="G93" t="n">
-        <v>-1453.9930951</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4239,7 +4281,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4256,22 +4298,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="C94" t="n">
-        <v>8965</v>
+        <v>8950</v>
       </c>
       <c r="D94" t="n">
-        <v>8970</v>
+        <v>8950</v>
       </c>
       <c r="E94" t="n">
-        <v>8965</v>
+        <v>8950</v>
       </c>
       <c r="F94" t="n">
-        <v>335.9023</v>
+        <v>35</v>
       </c>
       <c r="G94" t="n">
-        <v>-1789.8953951</v>
+        <v>-1369.56420776</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4281,7 +4323,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4298,22 +4340,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8980</v>
+        <v>8950</v>
       </c>
       <c r="C95" t="n">
-        <v>8980</v>
+        <v>8955</v>
       </c>
       <c r="D95" t="n">
-        <v>8980</v>
+        <v>8955</v>
       </c>
       <c r="E95" t="n">
-        <v>8980</v>
+        <v>8950</v>
       </c>
       <c r="F95" t="n">
-        <v>17.9435</v>
+        <v>91</v>
       </c>
       <c r="G95" t="n">
-        <v>-1771.9518951</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4323,7 +4365,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4340,34 +4382,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="C96" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="D96" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="E96" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="F96" t="n">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="G96" t="n">
-        <v>-1805.9518951</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>8980</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4384,34 +4424,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="C97" t="n">
-        <v>8965</v>
+        <v>8955</v>
       </c>
       <c r="D97" t="n">
-        <v>8970</v>
+        <v>8955</v>
       </c>
       <c r="E97" t="n">
-        <v>8965</v>
+        <v>8955</v>
       </c>
       <c r="F97" t="n">
-        <v>172.6283</v>
+        <v>32.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-1978.5801951</v>
+        <v>-1278.56420776</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>8970</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4428,34 +4466,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C98" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D98" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E98" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F98" t="n">
-        <v>276.0698</v>
+        <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>-1978.5801951</v>
+        <v>-1278.46420776</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4472,34 +4508,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="C99" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="D99" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="E99" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="F99" t="n">
-        <v>208.0764</v>
+        <v>22.041</v>
       </c>
       <c r="G99" t="n">
-        <v>-1978.5801951</v>
+        <v>-1256.42320776</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4516,34 +4550,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="C100" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="D100" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="E100" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="F100" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G100" t="n">
-        <v>-1978.5801951</v>
+        <v>-1256.42320776</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4560,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8985</v>
+        <v>8990</v>
       </c>
       <c r="C101" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="D101" t="n">
-        <v>8985</v>
+        <v>8990</v>
       </c>
       <c r="E101" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="F101" t="n">
-        <v>10.1163</v>
+        <v>56</v>
       </c>
       <c r="G101" t="n">
-        <v>-1968.4638951</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4585,7 +4617,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4602,34 +4634,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="C102" t="n">
         <v>8965</v>
       </c>
       <c r="D102" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="E102" t="n">
         <v>8965</v>
       </c>
       <c r="F102" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G102" t="n">
-        <v>-2004.4638951</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>8985</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4646,22 +4676,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="C103" t="n">
         <v>8965</v>
       </c>
       <c r="D103" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="E103" t="n">
         <v>8965</v>
       </c>
       <c r="F103" t="n">
-        <v>43.5</v>
+        <v>38.5</v>
       </c>
       <c r="G103" t="n">
-        <v>-2004.4638951</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4671,7 +4701,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4688,34 +4718,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8965</v>
+        <v>9015</v>
       </c>
       <c r="C104" t="n">
         <v>8965</v>
       </c>
       <c r="D104" t="n">
-        <v>8965</v>
+        <v>9015</v>
       </c>
       <c r="E104" t="n">
         <v>8965</v>
       </c>
       <c r="F104" t="n">
-        <v>199</v>
+        <v>110.8614</v>
       </c>
       <c r="G104" t="n">
-        <v>-2004.4638951</v>
+        <v>-1312.42320776</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4732,22 +4760,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C105" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D105" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E105" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F105" t="n">
-        <v>199.5</v>
+        <v>332.9175</v>
       </c>
       <c r="G105" t="n">
-        <v>-2004.4638951</v>
+        <v>-979.50570776</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4757,7 +4785,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4774,34 +4802,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="C106" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D106" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="E106" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F106" t="n">
-        <v>29.1666</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-1975.2972951</v>
+        <v>-980.5032077599999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4818,22 +4844,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C107" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D107" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E107" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F107" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>-2009.2972951</v>
+        <v>-920.5032077599999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4843,7 +4869,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4860,34 +4886,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9030</v>
+        <v>8970</v>
       </c>
       <c r="C108" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="D108" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="E108" t="n">
-        <v>8990</v>
+        <v>8970</v>
       </c>
       <c r="F108" t="n">
-        <v>240.5368</v>
+        <v>0.0255</v>
       </c>
       <c r="G108" t="n">
-        <v>-1768.7604951</v>
+        <v>-920.5032077599999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4904,22 +4928,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9055</v>
+        <v>8980</v>
       </c>
       <c r="C109" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D109" t="n">
-        <v>9055</v>
+        <v>8980</v>
       </c>
       <c r="E109" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F109" t="n">
-        <v>5.3436</v>
+        <v>70.2487</v>
       </c>
       <c r="G109" t="n">
-        <v>-1774.1040951</v>
+        <v>-850.2545077599999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4929,7 +4953,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4946,22 +4970,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9060</v>
+        <v>9010</v>
       </c>
       <c r="C110" t="n">
-        <v>9060</v>
+        <v>9010</v>
       </c>
       <c r="D110" t="n">
-        <v>9060</v>
+        <v>9010</v>
       </c>
       <c r="E110" t="n">
-        <v>9060</v>
+        <v>9010</v>
       </c>
       <c r="F110" t="n">
-        <v>4.6718</v>
+        <v>10.9267</v>
       </c>
       <c r="G110" t="n">
-        <v>-1769.4322951</v>
+        <v>-839.3278077599999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4971,7 +4995,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4988,22 +5012,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9060</v>
+        <v>8980</v>
       </c>
       <c r="C111" t="n">
-        <v>9060</v>
+        <v>8980</v>
       </c>
       <c r="D111" t="n">
-        <v>9060</v>
+        <v>8980</v>
       </c>
       <c r="E111" t="n">
-        <v>9060</v>
+        <v>8980</v>
       </c>
       <c r="F111" t="n">
-        <v>95.3282</v>
+        <v>5.5841</v>
       </c>
       <c r="G111" t="n">
-        <v>-1769.4322951</v>
+        <v>-844.91190776</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5013,7 +5037,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5030,22 +5054,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="C112" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D112" t="n">
-        <v>8985</v>
+        <v>8975</v>
       </c>
       <c r="E112" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F112" t="n">
-        <v>142.8447</v>
+        <v>285.6626</v>
       </c>
       <c r="G112" t="n">
-        <v>-1912.2769951</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5055,7 +5079,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5072,22 +5096,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="C113" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="D113" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="E113" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>57.5</v>
       </c>
       <c r="G113" t="n">
-        <v>-1914.2769951</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5097,7 +5121,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5114,22 +5138,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9045</v>
+        <v>8965</v>
       </c>
       <c r="C114" t="n">
-        <v>9045</v>
+        <v>8965</v>
       </c>
       <c r="D114" t="n">
-        <v>9045</v>
+        <v>8965</v>
       </c>
       <c r="E114" t="n">
-        <v>9045</v>
+        <v>8965</v>
       </c>
       <c r="F114" t="n">
-        <v>1.10558319</v>
+        <v>3.1399</v>
       </c>
       <c r="G114" t="n">
-        <v>-1913.17141191</v>
+        <v>-1130.57450776</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5139,7 +5163,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5156,22 +5180,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="C115" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D115" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="E115" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F115" t="n">
-        <v>113.9458</v>
+        <v>4.4159</v>
       </c>
       <c r="G115" t="n">
-        <v>-2027.11721191</v>
+        <v>-1126.15860776</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5181,7 +5205,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5198,22 +5222,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9030</v>
+        <v>8985</v>
       </c>
       <c r="C116" t="n">
-        <v>9055</v>
+        <v>8980</v>
       </c>
       <c r="D116" t="n">
-        <v>9055</v>
+        <v>8985</v>
       </c>
       <c r="E116" t="n">
-        <v>9030</v>
+        <v>8980</v>
       </c>
       <c r="F116" t="n">
-        <v>399.99991681</v>
+        <v>9.148099999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-1627.1172951</v>
+        <v>-1126.15860776</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5223,7 +5247,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5240,22 +5264,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9055</v>
+        <v>9010</v>
       </c>
       <c r="C117" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="D117" t="n">
-        <v>9055</v>
+        <v>9045</v>
       </c>
       <c r="E117" t="n">
-        <v>8975</v>
+        <v>8985</v>
       </c>
       <c r="F117" t="n">
-        <v>2.80008319</v>
+        <v>324.17791127</v>
       </c>
       <c r="G117" t="n">
-        <v>-1629.91737829</v>
+        <v>-801.98069649</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5265,7 +5289,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5282,22 +5306,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8970</v>
+        <v>9040</v>
       </c>
       <c r="C118" t="n">
-        <v>8965</v>
+        <v>9040</v>
       </c>
       <c r="D118" t="n">
-        <v>8970</v>
+        <v>9040</v>
       </c>
       <c r="E118" t="n">
-        <v>8965</v>
+        <v>9040</v>
       </c>
       <c r="F118" t="n">
-        <v>71.0278</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-1700.94517829</v>
+        <v>-798.98069649</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5307,7 +5331,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5324,22 +5348,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8985</v>
+        <v>9000</v>
       </c>
       <c r="C119" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="D119" t="n">
-        <v>8985</v>
+        <v>9005</v>
       </c>
       <c r="E119" t="n">
-        <v>8980</v>
+        <v>9000</v>
       </c>
       <c r="F119" t="n">
-        <v>28.5803</v>
+        <v>99.40179999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-1672.36487829</v>
+        <v>-898.38249649</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5349,7 +5373,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5366,22 +5390,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8985</v>
+        <v>9005</v>
       </c>
       <c r="C120" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="D120" t="n">
-        <v>8985</v>
+        <v>9005</v>
       </c>
       <c r="E120" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="F120" t="n">
-        <v>28.5803</v>
+        <v>3.0075</v>
       </c>
       <c r="G120" t="n">
-        <v>-1672.36487829</v>
+        <v>-898.38249649</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5391,7 +5415,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5408,22 +5432,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="C121" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D121" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="E121" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F121" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G121" t="n">
-        <v>-1642.36487829</v>
+        <v>-939.38249649</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5433,7 +5457,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5450,22 +5474,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9000</v>
+        <v>8980</v>
       </c>
       <c r="C122" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="D122" t="n">
-        <v>9000</v>
+        <v>8980</v>
       </c>
       <c r="E122" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="F122" t="n">
-        <v>9.975</v>
+        <v>101</v>
       </c>
       <c r="G122" t="n">
-        <v>-1632.38987829</v>
+        <v>-1040.38249649</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5475,7 +5499,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5492,22 +5516,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="C123" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D123" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="E123" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5</v>
+        <v>52</v>
       </c>
       <c r="G123" t="n">
-        <v>-1632.38987829</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5517,7 +5541,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5534,22 +5558,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="C124" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="D124" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="E124" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="F124" t="n">
-        <v>35.2394</v>
+        <v>46</v>
       </c>
       <c r="G124" t="n">
-        <v>-1667.62927829</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5559,7 +5583,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5576,22 +5600,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="C125" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="D125" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="E125" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="F125" t="n">
-        <v>318.7155</v>
+        <v>682.3686</v>
       </c>
       <c r="G125" t="n">
-        <v>-1667.62927829</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5601,7 +5625,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5618,22 +5642,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="C126" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="D126" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="E126" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="F126" t="n">
-        <v>7.8255</v>
+        <v>23.2463</v>
       </c>
       <c r="G126" t="n">
-        <v>-1667.62927829</v>
+        <v>-1092.38249649</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5643,7 +5667,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5660,22 +5684,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="C127" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="D127" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="E127" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="F127" t="n">
-        <v>33.1645</v>
+        <v>0.34</v>
       </c>
       <c r="G127" t="n">
-        <v>-1667.62927829</v>
+        <v>-1092.04249649</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5685,7 +5709,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5702,22 +5726,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="C128" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="D128" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="E128" t="n">
-        <v>8995</v>
+        <v>8965</v>
       </c>
       <c r="F128" t="n">
-        <v>76.9564</v>
+        <v>13</v>
       </c>
       <c r="G128" t="n">
-        <v>-1667.62927829</v>
+        <v>-1105.04249649</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5727,7 +5751,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5744,22 +5768,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C129" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D129" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E129" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F129" t="n">
-        <v>153.9671</v>
+        <v>16.2487</v>
       </c>
       <c r="G129" t="n">
-        <v>-1667.62927829</v>
+        <v>-1088.79379649</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5769,7 +5793,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5786,22 +5810,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="C130" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D130" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="E130" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F130" t="n">
-        <v>32.0555</v>
+        <v>2.2272</v>
       </c>
       <c r="G130" t="n">
-        <v>-1667.62927829</v>
+        <v>-1086.56659649</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5811,7 +5835,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5828,34 +5852,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="C131" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D131" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="E131" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>5.7807</v>
       </c>
       <c r="G131" t="n">
-        <v>-1667.62927829</v>
+        <v>-1086.56659649</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5872,22 +5894,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C132" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D132" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E132" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F132" t="n">
-        <v>171.6929</v>
+        <v>86.3215</v>
       </c>
       <c r="G132" t="n">
-        <v>-1667.62927829</v>
+        <v>-1172.88809649</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5897,7 +5919,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5914,34 +5936,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="C133" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="D133" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="E133" t="n">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="G133" t="n">
-        <v>-1667.62927829</v>
+        <v>-1172.87809649</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5958,34 +5978,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C134" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D134" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E134" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F134" t="n">
-        <v>18</v>
+        <v>2.639</v>
       </c>
       <c r="G134" t="n">
-        <v>-1667.62927829</v>
+        <v>-1175.51709649</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6002,34 +6020,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="C135" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="D135" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="E135" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="F135" t="n">
-        <v>12.7089</v>
+        <v>0.01949861</v>
       </c>
       <c r="G135" t="n">
-        <v>-1667.62927829</v>
+        <v>-1175.5365951</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6046,34 +6062,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C136" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D136" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E136" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F136" t="n">
-        <v>33.8485</v>
+        <v>5.7798</v>
       </c>
       <c r="G136" t="n">
-        <v>-1667.62927829</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6090,34 +6104,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C137" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D137" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E137" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F137" t="n">
-        <v>228</v>
+        <v>0.1114</v>
       </c>
       <c r="G137" t="n">
-        <v>-1667.62927829</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6134,34 +6146,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C138" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="D138" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="E138" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F138" t="n">
-        <v>42</v>
+        <v>6.9518</v>
       </c>
       <c r="G138" t="n">
-        <v>-1667.62927829</v>
+        <v>-1169.7567951</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6178,34 +6188,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="C139" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D139" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="E139" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F139" t="n">
-        <v>1.462</v>
+        <v>6.9518</v>
       </c>
       <c r="G139" t="n">
-        <v>-1669.09127829</v>
+        <v>-1176.7085951</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6222,34 +6230,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C140" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D140" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E140" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F140" t="n">
-        <v>65.3211</v>
+        <v>12.988</v>
       </c>
       <c r="G140" t="n">
-        <v>-1669.09127829</v>
+        <v>-1176.7085951</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6266,34 +6272,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8965</v>
+        <v>9020</v>
       </c>
       <c r="C141" t="n">
-        <v>8965</v>
+        <v>9020</v>
       </c>
       <c r="D141" t="n">
-        <v>8965</v>
+        <v>9020</v>
       </c>
       <c r="E141" t="n">
-        <v>8965</v>
+        <v>9020</v>
       </c>
       <c r="F141" t="n">
-        <v>9.707700000000001</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>-1669.09127829</v>
+        <v>-1175.7085951</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6310,34 +6314,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="C142" t="n">
-        <v>8930</v>
+        <v>8970</v>
       </c>
       <c r="D142" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="E142" t="n">
-        <v>8930</v>
+        <v>8970</v>
       </c>
       <c r="F142" t="n">
-        <v>87</v>
+        <v>10.991</v>
       </c>
       <c r="G142" t="n">
-        <v>-1756.09127829</v>
+        <v>-1186.6995951</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>8965</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6354,34 +6356,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="C143" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="D143" t="n">
-        <v>8995</v>
+        <v>8970</v>
       </c>
       <c r="E143" t="n">
-        <v>8940</v>
+        <v>8970</v>
       </c>
       <c r="F143" t="n">
-        <v>89.59910000000001</v>
+        <v>228.9822</v>
       </c>
       <c r="G143" t="n">
-        <v>-1666.49217829</v>
+        <v>-1186.6995951</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>8930</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6398,34 +6398,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8940</v>
+        <v>9025</v>
       </c>
       <c r="C144" t="n">
-        <v>8940</v>
+        <v>9025</v>
       </c>
       <c r="D144" t="n">
-        <v>8940</v>
+        <v>9025</v>
       </c>
       <c r="E144" t="n">
-        <v>8940</v>
+        <v>9025</v>
       </c>
       <c r="F144" t="n">
-        <v>53.9618</v>
+        <v>35.3277</v>
       </c>
       <c r="G144" t="n">
-        <v>-1720.45397829</v>
+        <v>-1151.3718951</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6442,34 +6440,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="C145" t="n">
-        <v>9050</v>
+        <v>8975</v>
       </c>
       <c r="D145" t="n">
-        <v>9050</v>
+        <v>8975</v>
       </c>
       <c r="E145" t="n">
-        <v>8995</v>
+        <v>8975</v>
       </c>
       <c r="F145" t="n">
-        <v>388.787</v>
+        <v>73.736</v>
       </c>
       <c r="G145" t="n">
-        <v>-1331.66697829</v>
+        <v>-1225.1078951</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>8940</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6486,22 +6482,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9050</v>
+        <v>8975</v>
       </c>
       <c r="C146" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="D146" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="E146" t="n">
-        <v>9050</v>
+        <v>8975</v>
       </c>
       <c r="F146" t="n">
-        <v>1306.1764</v>
+        <v>4.6265</v>
       </c>
       <c r="G146" t="n">
-        <v>-25.4905782899998</v>
+        <v>-1225.1078951</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6511,7 +6507,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6528,22 +6524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9080</v>
+        <v>8980</v>
       </c>
       <c r="C147" t="n">
-        <v>9070</v>
+        <v>8980</v>
       </c>
       <c r="D147" t="n">
-        <v>9080</v>
+        <v>8980</v>
       </c>
       <c r="E147" t="n">
-        <v>9070</v>
+        <v>8980</v>
       </c>
       <c r="F147" t="n">
-        <v>53.9448</v>
+        <v>14.6693</v>
       </c>
       <c r="G147" t="n">
-        <v>-25.4905782899998</v>
+        <v>-1210.4385951</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6553,7 +6549,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6570,22 +6566,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="C148" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="D148" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="E148" t="n">
-        <v>9070</v>
+        <v>8975</v>
       </c>
       <c r="F148" t="n">
-        <v>25</v>
+        <v>99.7778</v>
       </c>
       <c r="G148" t="n">
-        <v>-25.4905782899998</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6595,7 +6591,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6612,22 +6608,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9080</v>
+        <v>8975</v>
       </c>
       <c r="C149" t="n">
-        <v>9095</v>
+        <v>8975</v>
       </c>
       <c r="D149" t="n">
-        <v>9095</v>
+        <v>8975</v>
       </c>
       <c r="E149" t="n">
-        <v>9080</v>
+        <v>8975</v>
       </c>
       <c r="F149" t="n">
-        <v>23.0072</v>
+        <v>51.1921</v>
       </c>
       <c r="G149" t="n">
-        <v>-2.483378289999802</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6637,7 +6633,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6654,22 +6650,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9100</v>
+        <v>8975</v>
       </c>
       <c r="C150" t="n">
-        <v>9100</v>
+        <v>8975</v>
       </c>
       <c r="D150" t="n">
-        <v>9100</v>
+        <v>8975</v>
       </c>
       <c r="E150" t="n">
-        <v>9100</v>
+        <v>8975</v>
       </c>
       <c r="F150" t="n">
-        <v>69.9671</v>
+        <v>54</v>
       </c>
       <c r="G150" t="n">
-        <v>67.4837217100002</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6679,7 +6675,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6696,22 +6692,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9155</v>
+        <v>8975</v>
       </c>
       <c r="C151" t="n">
-        <v>9155</v>
+        <v>8975</v>
       </c>
       <c r="D151" t="n">
-        <v>9155</v>
+        <v>8975</v>
       </c>
       <c r="E151" t="n">
-        <v>9155</v>
+        <v>8975</v>
       </c>
       <c r="F151" t="n">
-        <v>6.4939</v>
+        <v>48</v>
       </c>
       <c r="G151" t="n">
-        <v>73.97762171000019</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6721,7 +6717,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6738,22 +6734,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="C152" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="D152" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="E152" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="F152" t="n">
-        <v>157.9035</v>
+        <v>24</v>
       </c>
       <c r="G152" t="n">
-        <v>231.8811217100002</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6763,7 +6759,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6780,22 +6776,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="C153" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="D153" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="E153" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6249</v>
+        <v>68</v>
       </c>
       <c r="G153" t="n">
-        <v>231.8811217100002</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6805,7 +6801,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6822,22 +6818,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="C154" t="n">
-        <v>9225</v>
+        <v>8975</v>
       </c>
       <c r="D154" t="n">
-        <v>9225</v>
+        <v>8975</v>
       </c>
       <c r="E154" t="n">
-        <v>9180</v>
+        <v>8975</v>
       </c>
       <c r="F154" t="n">
-        <v>108.7229</v>
+        <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>340.6040217100002</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6847,7 +6843,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6864,22 +6860,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9235</v>
+        <v>8975</v>
       </c>
       <c r="C155" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="D155" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="E155" t="n">
-        <v>9235</v>
+        <v>8975</v>
       </c>
       <c r="F155" t="n">
-        <v>945.2463</v>
+        <v>48</v>
       </c>
       <c r="G155" t="n">
-        <v>1285.85032171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6889,7 +6885,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6906,22 +6902,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9215</v>
+        <v>8975</v>
       </c>
       <c r="C156" t="n">
-        <v>9265</v>
+        <v>8975</v>
       </c>
       <c r="D156" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="E156" t="n">
-        <v>9215</v>
+        <v>8975</v>
       </c>
       <c r="F156" t="n">
-        <v>49.1269</v>
+        <v>69.2428</v>
       </c>
       <c r="G156" t="n">
-        <v>1236.72342171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6931,7 +6927,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6948,22 +6944,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="C157" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="D157" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="E157" t="n">
-        <v>9285</v>
+        <v>8975</v>
       </c>
       <c r="F157" t="n">
-        <v>9.699999999999999</v>
+        <v>68</v>
       </c>
       <c r="G157" t="n">
-        <v>1246.42342171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6973,7 +6969,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6990,40 +6986,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9305</v>
+        <v>8975</v>
       </c>
       <c r="C158" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="D158" t="n">
-        <v>9390</v>
+        <v>8975</v>
       </c>
       <c r="E158" t="n">
-        <v>9300</v>
+        <v>8975</v>
       </c>
       <c r="F158" t="n">
-        <v>74.59910000000001</v>
+        <v>210</v>
       </c>
       <c r="G158" t="n">
-        <v>1246.42342171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>1.044162011173184</v>
+        <v>1</v>
       </c>
       <c r="N158" t="inlineStr"/>
     </row>
@@ -7032,32 +7028,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9240</v>
+        <v>8975</v>
       </c>
       <c r="C159" t="n">
-        <v>9380</v>
+        <v>8975</v>
       </c>
       <c r="D159" t="n">
-        <v>9380</v>
+        <v>8975</v>
       </c>
       <c r="E159" t="n">
-        <v>9240</v>
+        <v>8975</v>
       </c>
       <c r="F159" t="n">
-        <v>75.09999999999999</v>
+        <v>212.5341</v>
       </c>
       <c r="G159" t="n">
-        <v>1171.32342171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7068,32 +7070,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9130</v>
+        <v>8975</v>
       </c>
       <c r="C160" t="n">
-        <v>9275</v>
+        <v>8975</v>
       </c>
       <c r="D160" t="n">
-        <v>9275</v>
+        <v>8975</v>
       </c>
       <c r="E160" t="n">
-        <v>9130</v>
+        <v>8975</v>
       </c>
       <c r="F160" t="n">
-        <v>21.3359</v>
+        <v>398.2513</v>
       </c>
       <c r="G160" t="n">
-        <v>1149.98752171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7104,32 +7112,38 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9260</v>
+        <v>8975</v>
       </c>
       <c r="C161" t="n">
-        <v>9260</v>
+        <v>8975</v>
       </c>
       <c r="D161" t="n">
-        <v>9260</v>
+        <v>8975</v>
       </c>
       <c r="E161" t="n">
-        <v>9260</v>
+        <v>8975</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1</v>
+        <v>1.6615</v>
       </c>
       <c r="G161" t="n">
-        <v>1149.88752171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7140,32 +7154,38 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9120</v>
+        <v>8975</v>
       </c>
       <c r="C162" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="D162" t="n">
-        <v>9120</v>
+        <v>8975</v>
       </c>
       <c r="E162" t="n">
-        <v>9000</v>
+        <v>8975</v>
       </c>
       <c r="F162" t="n">
-        <v>95.2338</v>
+        <v>173.9937</v>
       </c>
       <c r="G162" t="n">
-        <v>1054.65372171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7176,32 +7196,38 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9200</v>
+        <v>8975</v>
       </c>
       <c r="C163" t="n">
-        <v>9200</v>
+        <v>8975</v>
       </c>
       <c r="D163" t="n">
-        <v>9200</v>
+        <v>8975</v>
       </c>
       <c r="E163" t="n">
-        <v>9200</v>
+        <v>8975</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1</v>
+        <v>8.062799999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>1054.75372171</v>
+        <v>-1310.2163951</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7212,32 +7238,38 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9135</v>
+        <v>8970</v>
       </c>
       <c r="C164" t="n">
-        <v>9180</v>
+        <v>8970</v>
       </c>
       <c r="D164" t="n">
-        <v>9180</v>
+        <v>8970</v>
       </c>
       <c r="E164" t="n">
-        <v>9120</v>
+        <v>8970</v>
       </c>
       <c r="F164" t="n">
-        <v>124.0021</v>
+        <v>143.7767</v>
       </c>
       <c r="G164" t="n">
-        <v>930.7516217100002</v>
+        <v>-1453.9930951</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7248,32 +7280,38 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9170</v>
+        <v>8970</v>
       </c>
       <c r="C165" t="n">
-        <v>9170</v>
+        <v>8965</v>
       </c>
       <c r="D165" t="n">
-        <v>9175</v>
+        <v>8970</v>
       </c>
       <c r="E165" t="n">
-        <v>9170</v>
+        <v>8965</v>
       </c>
       <c r="F165" t="n">
-        <v>93.6694</v>
+        <v>335.9023</v>
       </c>
       <c r="G165" t="n">
-        <v>837.0822217100002</v>
+        <v>-1789.8953951</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7284,32 +7322,38 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9170</v>
+        <v>8980</v>
       </c>
       <c r="C166" t="n">
-        <v>9175</v>
+        <v>8980</v>
       </c>
       <c r="D166" t="n">
-        <v>9175</v>
+        <v>8980</v>
       </c>
       <c r="E166" t="n">
-        <v>9170</v>
+        <v>8980</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>17.9435</v>
       </c>
       <c r="G166" t="n">
-        <v>838.0822217100002</v>
+        <v>-1771.9518951</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7320,32 +7364,38 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9175</v>
+        <v>8970</v>
       </c>
       <c r="C167" t="n">
-        <v>9180</v>
+        <v>8970</v>
       </c>
       <c r="D167" t="n">
-        <v>9180</v>
+        <v>8970</v>
       </c>
       <c r="E167" t="n">
-        <v>9175</v>
+        <v>8970</v>
       </c>
       <c r="F167" t="n">
-        <v>55.8657</v>
+        <v>34</v>
       </c>
       <c r="G167" t="n">
-        <v>893.9479217100002</v>
+        <v>-1805.9518951</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7356,32 +7406,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9190</v>
+        <v>8970</v>
       </c>
       <c r="C168" t="n">
-        <v>9245</v>
+        <v>8965</v>
       </c>
       <c r="D168" t="n">
-        <v>9245</v>
+        <v>8970</v>
       </c>
       <c r="E168" t="n">
-        <v>9190</v>
+        <v>8965</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>172.6283</v>
       </c>
       <c r="G168" t="n">
-        <v>895.9479217100002</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7392,22 +7448,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9145</v>
+        <v>8965</v>
       </c>
       <c r="C169" t="n">
-        <v>9240</v>
+        <v>8965</v>
       </c>
       <c r="D169" t="n">
-        <v>9240</v>
+        <v>8965</v>
       </c>
       <c r="E169" t="n">
-        <v>9100</v>
+        <v>8965</v>
       </c>
       <c r="F169" t="n">
-        <v>71.6874</v>
+        <v>276.0698</v>
       </c>
       <c r="G169" t="n">
-        <v>824.2605217100001</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7416,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7428,32 +7490,38 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9150</v>
+        <v>8965</v>
       </c>
       <c r="C170" t="n">
-        <v>9230</v>
+        <v>8965</v>
       </c>
       <c r="D170" t="n">
-        <v>9230</v>
+        <v>8965</v>
       </c>
       <c r="E170" t="n">
-        <v>9060</v>
+        <v>8965</v>
       </c>
       <c r="F170" t="n">
-        <v>182.1</v>
+        <v>208.0764</v>
       </c>
       <c r="G170" t="n">
-        <v>642.1605217100001</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7464,32 +7532,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9105</v>
+        <v>8965</v>
       </c>
       <c r="C171" t="n">
-        <v>9185</v>
+        <v>8965</v>
       </c>
       <c r="D171" t="n">
-        <v>9195</v>
+        <v>8965</v>
       </c>
       <c r="E171" t="n">
-        <v>9090</v>
+        <v>8965</v>
       </c>
       <c r="F171" t="n">
-        <v>234.4358</v>
+        <v>29</v>
       </c>
       <c r="G171" t="n">
-        <v>407.7247217100002</v>
+        <v>-1978.5801951</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7500,36 +7574,2940 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>8985</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8985</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8985</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8985</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10.1163</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1968.4638951</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8970</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8970</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F173" t="n">
+        <v>36</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2004.4638951</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8970</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D174" t="n">
+        <v>8970</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F174" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2004.4638951</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8965</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8965</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F175" t="n">
+        <v>199</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2004.4638951</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8965</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D176" t="n">
+        <v>8965</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F176" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2004.4638951</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>29.1666</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1975.2972951</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8965</v>
+      </c>
+      <c r="C178" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8965</v>
+      </c>
+      <c r="E178" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F178" t="n">
+        <v>34</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2009.2972951</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9055</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9055</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8990</v>
+      </c>
+      <c r="F179" t="n">
+        <v>240.5368</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1768.7604951</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9055</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8970</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9055</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8970</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5.3436</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1774.1040951</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9060</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9060</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4.6718</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1769.4322951</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9060</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9060</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9060</v>
+      </c>
+      <c r="F182" t="n">
+        <v>95.3282</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1769.4322951</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8985</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8980</v>
+      </c>
+      <c r="D183" t="n">
+        <v>8985</v>
+      </c>
+      <c r="E183" t="n">
+        <v>8980</v>
+      </c>
+      <c r="F183" t="n">
+        <v>142.8447</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1912.2769951</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8970</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8970</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8970</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8970</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1914.2769951</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9045</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9045</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9045</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.10558319</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1913.17141191</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8970</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8970</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8970</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8970</v>
+      </c>
+      <c r="F186" t="n">
+        <v>113.9458</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2027.11721191</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9055</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9055</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9030</v>
+      </c>
+      <c r="F187" t="n">
+        <v>399.99991681</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1627.1172951</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9055</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8975</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9055</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8975</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.80008319</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1629.91737829</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8970</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D189" t="n">
+        <v>8970</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F189" t="n">
+        <v>71.0278</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1700.94517829</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8985</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8980</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8985</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8980</v>
+      </c>
+      <c r="F190" t="n">
+        <v>28.5803</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1672.36487829</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8985</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8980</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8985</v>
+      </c>
+      <c r="E191" t="n">
+        <v>8980</v>
+      </c>
+      <c r="F191" t="n">
+        <v>28.5803</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1672.36487829</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F192" t="n">
+        <v>30</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1642.36487829</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F193" t="n">
+        <v>9.975</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1632.38987829</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1632.38987829</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F195" t="n">
+        <v>35.2394</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F196" t="n">
+        <v>318.7155</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D197" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7.8255</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E198" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33.1645</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E199" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F199" t="n">
+        <v>76.9564</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D200" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E200" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F200" t="n">
+        <v>153.9671</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C201" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D201" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F201" t="n">
+        <v>32.0555</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E202" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F202" t="n">
+        <v>50</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E203" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F203" t="n">
+        <v>171.6929</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F204" t="n">
+        <v>50</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E205" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D206" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F206" t="n">
+        <v>12.7089</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D207" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E207" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F207" t="n">
+        <v>33.8485</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D208" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E208" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F208" t="n">
+        <v>228</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D209" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E209" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F209" t="n">
+        <v>42</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1667.62927829</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D210" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E210" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1669.09127829</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8965</v>
+      </c>
+      <c r="C211" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D211" t="n">
+        <v>8965</v>
+      </c>
+      <c r="E211" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F211" t="n">
+        <v>65.3211</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1669.09127829</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8965</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D212" t="n">
+        <v>8965</v>
+      </c>
+      <c r="E212" t="n">
+        <v>8965</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9.707700000000001</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1669.09127829</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8940</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8930</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8940</v>
+      </c>
+      <c r="E213" t="n">
+        <v>8930</v>
+      </c>
+      <c r="F213" t="n">
+        <v>87</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1756.09127829</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8940</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E214" t="n">
+        <v>8940</v>
+      </c>
+      <c r="F214" t="n">
+        <v>89.59910000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1666.49217829</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8940</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8940</v>
+      </c>
+      <c r="D215" t="n">
+        <v>8940</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8940</v>
+      </c>
+      <c r="F215" t="n">
+        <v>53.9618</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1720.45397829</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9050</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E216" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F216" t="n">
+        <v>388.787</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1331.66697829</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9070</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9070</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9050</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1306.1764</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-25.4905782899998</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9070</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9080</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9070</v>
+      </c>
+      <c r="F218" t="n">
+        <v>53.9448</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-25.4905782899998</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9070</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9070</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9070</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-25.4905782899998</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9095</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9095</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9080</v>
+      </c>
+      <c r="F220" t="n">
+        <v>23.0072</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2.483378289999802</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9100</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9100</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F221" t="n">
+        <v>69.9671</v>
+      </c>
+      <c r="G221" t="n">
+        <v>67.4837217100002</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9155</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9155</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9155</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9155</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6.4939</v>
+      </c>
+      <c r="G222" t="n">
+        <v>73.97762171000019</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>9180</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C223" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F223" t="n">
+        <v>157.9035</v>
+      </c>
+      <c r="G223" t="n">
+        <v>231.8811217100002</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E224" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.6249</v>
+      </c>
+      <c r="G224" t="n">
+        <v>231.8811217100002</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9225</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9225</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F225" t="n">
+        <v>108.7229</v>
+      </c>
+      <c r="G225" t="n">
+        <v>340.6040217100002</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9235</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E226" t="n">
+        <v>9235</v>
+      </c>
+      <c r="F226" t="n">
+        <v>945.2463</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1285.85032171</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9215</v>
+      </c>
+      <c r="C227" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9215</v>
+      </c>
+      <c r="F227" t="n">
+        <v>49.1269</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1236.72342171</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C228" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9285</v>
+      </c>
+      <c r="F228" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1246.42342171</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>9305</v>
+      </c>
+      <c r="C229" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D229" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F229" t="n">
+        <v>74.59910000000001</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1246.42342171</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1.044748462828396</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C230" t="n">
+        <v>9380</v>
+      </c>
+      <c r="D230" t="n">
+        <v>9380</v>
+      </c>
+      <c r="E230" t="n">
+        <v>9240</v>
+      </c>
+      <c r="F230" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1171.32342171</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9275</v>
+      </c>
+      <c r="D231" t="n">
+        <v>9275</v>
+      </c>
+      <c r="E231" t="n">
+        <v>9130</v>
+      </c>
+      <c r="F231" t="n">
+        <v>21.3359</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1149.98752171</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C232" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9260</v>
+      </c>
+      <c r="E232" t="n">
+        <v>9260</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1149.88752171</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>9120</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>9120</v>
+      </c>
+      <c r="E233" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F233" t="n">
+        <v>95.2338</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1054.65372171</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>9200</v>
+      </c>
+      <c r="C234" t="n">
+        <v>9200</v>
+      </c>
+      <c r="D234" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E234" t="n">
+        <v>9200</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1054.75372171</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9135</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9120</v>
+      </c>
+      <c r="F235" t="n">
+        <v>124.0021</v>
+      </c>
+      <c r="G235" t="n">
+        <v>930.7516217100002</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C236" t="n">
+        <v>9170</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F236" t="n">
+        <v>93.6694</v>
+      </c>
+      <c r="G236" t="n">
+        <v>837.0822217100002</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C237" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>838.0822217100002</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C238" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E238" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F238" t="n">
+        <v>55.8657</v>
+      </c>
+      <c r="G238" t="n">
+        <v>893.9479217100002</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C239" t="n">
+        <v>9245</v>
+      </c>
+      <c r="D239" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9190</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
+      <c r="G239" t="n">
+        <v>895.9479217100002</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C240" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E240" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F240" t="n">
+        <v>71.6874</v>
+      </c>
+      <c r="G240" t="n">
+        <v>824.2605217100001</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C241" t="n">
         <v>9230</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D241" t="n">
         <v>9230</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E241" t="n">
+        <v>9060</v>
+      </c>
+      <c r="F241" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>642.1605217100001</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C242" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E242" t="n">
         <v>9090</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F242" t="n">
+        <v>234.4358</v>
+      </c>
+      <c r="G242" t="n">
+        <v>407.7247217100002</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C243" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E243" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F243" t="n">
         <v>239.6645</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G243" t="n">
         <v>647.3892217100001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N243"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8855</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8855</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,154 +517,132 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8940</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8945</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8940</v>
+      </c>
+      <c r="F5" t="n">
+        <v>86.39960000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1137.36650776</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
         <v>8855</v>
       </c>
-      <c r="K4" t="n">
+      <c r="J5" t="n">
         <v>8855</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8920</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8920</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8920</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8920</v>
+      </c>
+      <c r="F6" t="n">
+        <v>72.0107</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1209.37720776</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8945</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8940</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>8945</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C7" t="n">
+        <v>8950</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8950</v>
+      </c>
+      <c r="E7" t="n">
         <v>8945</v>
       </c>
-      <c r="E5" t="n">
-        <v>8940</v>
-      </c>
-      <c r="F5" t="n">
-        <v>86.39960000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1137.36650776</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="F7" t="n">
+        <v>97.2317</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1112.14550776</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" t="n">
-        <v>8855</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8920</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8920</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8920</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8920</v>
-      </c>
-      <c r="F6" t="n">
-        <v>72.0107</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1209.37720776</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8945</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8950</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8950</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8945</v>
-      </c>
-      <c r="F7" t="n">
-        <v>97.2317</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1112.14550776</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +667,19 @@
         <v>-1112.14550776</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>8950</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +706,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +745,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>8950</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +784,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,22 +817,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +850,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +883,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +916,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +949,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +982,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1015,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1048,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1081,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1114,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1147,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1180,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1213,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1246,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1279,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1312,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1345,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1378,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1411,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1444,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1477,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1510,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1543,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1576,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1609,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1642,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1675,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1708,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1741,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1774,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +1807,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +1840,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +1873,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +1906,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +1939,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +1972,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2005,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,22 +2038,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2071,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2104,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2137,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2170,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2203,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2236,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2269,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2302,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2335,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2368,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2401,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2434,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2467,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2500,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2533,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2566,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2599,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2632,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +2665,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +2698,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +2731,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +2764,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +2797,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,22 +2830,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3478,22 +2863,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3520,22 +2896,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3562,22 +2929,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,22 +2962,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,22 +2995,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3688,22 +3028,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3730,22 +3061,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3772,22 +3094,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,22 +3127,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3856,22 +3160,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3898,22 +3193,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3940,22 +3226,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3982,22 +3259,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4024,22 +3292,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4066,22 +3325,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4108,22 +3358,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4150,22 +3391,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4192,22 +3424,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4234,22 +3457,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4276,22 +3490,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4318,22 +3523,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4360,22 +3556,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4402,22 +3589,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4444,22 +3622,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4486,22 +3655,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4528,22 +3688,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4570,22 +3721,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4612,22 +3754,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4654,22 +3787,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4696,22 +3820,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4738,22 +3853,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4780,22 +3886,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4822,22 +3919,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4864,22 +3952,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,22 +3985,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4948,22 +4018,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4990,22 +4051,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5032,22 +4084,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5074,22 +4117,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5116,22 +4150,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,22 +4183,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5200,22 +4216,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5242,22 +4249,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5284,22 +4282,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5326,22 +4315,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5368,22 +4348,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5410,22 +4381,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5452,22 +4414,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5494,22 +4447,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5536,22 +4480,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5578,22 +4513,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5620,22 +4546,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5662,22 +4579,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5704,22 +4612,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5746,22 +4645,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5788,22 +4678,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5830,22 +4711,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5872,22 +4744,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5914,22 +4777,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5956,22 +4810,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5998,22 +4843,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6040,22 +4876,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6082,22 +4909,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6124,22 +4942,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6166,22 +4975,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6208,22 +5008,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6250,22 +5041,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6292,22 +5074,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6334,22 +5107,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6376,22 +5140,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6418,22 +5173,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6460,22 +5206,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6502,22 +5239,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6544,22 +5272,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6586,22 +5305,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6628,22 +5338,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6670,22 +5371,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6712,22 +5404,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6754,22 +5437,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6796,22 +5470,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6838,22 +5503,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6880,22 +5536,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6922,22 +5569,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6964,22 +5602,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7006,22 +5635,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7048,22 +5668,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7090,22 +5701,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7132,22 +5734,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7174,22 +5767,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7216,22 +5800,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7258,22 +5833,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7300,22 +5866,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7342,22 +5899,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7384,22 +5932,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7426,22 +5965,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7468,22 +5998,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7510,22 +6031,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7552,22 +6064,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7594,22 +6097,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7636,22 +6130,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7678,22 +6163,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7720,22 +6196,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7762,22 +6229,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7804,22 +6262,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7846,22 +6295,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7888,22 +6328,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7930,22 +6361,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7972,22 +6394,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8014,22 +6427,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8056,22 +6460,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8098,22 +6493,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8140,22 +6526,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8182,22 +6559,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8224,22 +6592,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8266,22 +6625,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8308,22 +6658,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8350,22 +6691,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8392,22 +6724,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8434,22 +6757,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8476,22 +6790,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8518,22 +6823,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8560,22 +6856,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8602,22 +6889,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8644,22 +6922,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8686,22 +6955,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8728,22 +6988,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8770,22 +7021,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8812,22 +7054,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8854,22 +7087,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8896,22 +7120,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8938,22 +7153,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8980,22 +7186,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9022,22 +7219,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9064,22 +7252,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9106,22 +7285,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9148,22 +7318,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9190,22 +7351,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9232,22 +7384,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9274,22 +7417,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9316,22 +7450,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9358,22 +7483,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9400,22 +7516,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9442,22 +7549,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9484,22 +7582,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9526,22 +7615,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9568,22 +7648,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9610,22 +7681,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9652,22 +7714,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9694,22 +7747,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9736,22 +7780,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9778,22 +7813,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9820,22 +7846,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9862,22 +7879,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9902,24 +7910,15 @@
         <v>1236.72342171</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9944,24 +7943,15 @@
         <v>1246.42342171</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9986,24 +7976,15 @@
         <v>1246.42342171</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1.044748462828396</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10030,16 +8011,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10064,18 +8042,15 @@
         <v>1149.98752171</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10102,16 +8077,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10136,18 +8108,15 @@
         <v>1054.65372171</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10172,18 +8141,15 @@
         <v>1054.75372171</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10208,18 +8174,15 @@
         <v>930.7516217100002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10244,18 +8207,15 @@
         <v>837.0822217100002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10280,18 +8240,15 @@
         <v>838.0822217100002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10316,18 +8273,15 @@
         <v>893.9479217100002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10352,18 +8306,15 @@
         <v>895.9479217100002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10388,18 +8339,15 @@
         <v>824.2605217100001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10424,18 +8372,15 @@
         <v>642.1605217100001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10460,18 +8405,15 @@
         <v>407.7247217100002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10496,20 +8438,17 @@
         <v>647.3892217100001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8855</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,7 +562,7 @@
         <v>-1137.36650776</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>8855</v>
@@ -558,7 +570,11 @@
       <c r="J5" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,19 +603,15 @@
         <v>-1209.37720776</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>8945</v>
       </c>
       <c r="J6" t="n">
-        <v>8855</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>8945</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,15 +640,17 @@
         <v>-1112.14550776</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8920</v>
+      </c>
       <c r="J7" t="n">
-        <v>8855</v>
+        <v>8945</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -667,15 +681,19 @@
         <v>-1112.14550776</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>8950</v>
       </c>
       <c r="J8" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -704,15 +722,17 @@
         <v>-1108.22130776</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8950</v>
+      </c>
       <c r="J9" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -747,11 +767,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>8950</v>
+        <v>8945</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -785,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -818,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -851,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -884,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -917,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -950,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -983,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1016,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1049,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1082,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1115,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1148,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1181,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1309,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1350,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1277,11 +1391,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1432,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1473,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1379,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1412,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1445,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1478,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1511,8 +1673,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1544,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1610,8 +1790,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1643,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1676,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1709,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1742,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1775,8 +1985,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1808,8 +2024,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1841,8 +2063,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1874,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +2138,19 @@
         <v>-928.85030776</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8915</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +2179,19 @@
         <v>-928.85030776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8915</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +2220,19 @@
         <v>-921.2780077599999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8915</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2006,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2039,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2072,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2105,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2138,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2171,8 +2459,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2204,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2237,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2270,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2402,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2600,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3353,19 @@
         <v>-1445.41360776</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8920</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2993,11 +3433,19 @@
         <v>-1439.83260776</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8920</v>
+      </c>
+      <c r="J78" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +3474,19 @@
         <v>-1488.43730776</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>8955</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3515,19 @@
         <v>-1488.21450776</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8950</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +3595,19 @@
         <v>-1523.21450776</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8925</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3639,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3795,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3834,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3951,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +4029,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4380,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4419,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4536,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4575,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4151,8 +4809,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4887,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4415,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4448,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4481,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4514,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4547,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4844,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4943,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4976,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5141,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5174,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5207,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5273,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5306,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5372,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5438,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5504,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5636,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5669,8 +6603,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5702,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5735,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5768,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5801,8 +6759,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5834,8 +6798,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5867,8 +6837,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5933,8 +6915,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5966,8 +6954,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5999,8 +6993,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6032,8 +7032,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6065,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6098,8 +7110,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6131,8 +7149,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6230,8 +7266,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6263,8 +7305,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6296,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6329,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6362,8 +7422,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6395,8 +7461,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6428,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6461,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6494,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6527,8 +7617,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6560,8 +7656,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6593,8 +7695,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6626,8 +7734,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6659,8 +7773,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6692,8 +7812,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6725,8 +7851,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6758,8 +7890,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6791,8 +7929,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6824,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6857,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6890,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6923,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6956,8 +8124,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6989,8 +8163,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7022,8 +8202,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7055,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7088,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7121,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7154,8 +8358,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7187,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7220,8 +8436,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7253,8 +8475,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7286,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +8553,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +8592,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7385,8 +8631,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7418,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7451,8 +8709,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7484,8 +8748,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7517,8 +8787,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7550,8 +8826,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7583,8 +8865,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7616,8 +8904,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7649,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7682,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7715,8 +9021,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7748,8 +9060,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7781,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7880,8 +9216,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +9252,17 @@
         <v>1236.72342171</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7943,11 +9291,17 @@
         <v>1246.42342171</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +9330,17 @@
         <v>1246.42342171</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8012,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8042,11 +9408,17 @@
         <v>1149.98752171</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8078,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +9486,17 @@
         <v>1054.65372171</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +9525,17 @@
         <v>1054.75372171</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8174,11 +9564,17 @@
         <v>930.7516217100002</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +9603,17 @@
         <v>837.0822217100002</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +9642,17 @@
         <v>838.0822217100002</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8273,13 +9681,19 @@
         <v>893.9479217100002</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L238" t="n">
-        <v>1</v>
+        <v>1.021271660145333</v>
       </c>
       <c r="M238" t="inlineStr"/>
     </row>
@@ -8306,7 +9720,7 @@
         <v>895.9479217100002</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8339,7 +9753,7 @@
         <v>824.2605217100001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8372,7 +9786,7 @@
         <v>642.1605217100001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8405,7 +9819,7 @@
         <v>407.7247217100002</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8438,7 +9852,7 @@
         <v>647.3892217100001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8449,6 +9863,6 @@
       <c r="M243" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -484,10 +484,14 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8855</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-1137.36650776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8855</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-1209.37720776</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8945</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8945</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +721,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +877,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +955,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>-889.4034077599999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1072,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>-918.85030776</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1227,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1268,19 @@
         <v>-843.35030776</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8930</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2755,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2794,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,15 +7276,17 @@
         <v>-1975.2972951</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>8965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +7319,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6302,17 +7354,15 @@
         <v>-1768.7604951</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>8965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6346,8 +7396,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7552,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7591,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +7630,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +8020,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +8059,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6937,11 +8095,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J198" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +8136,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J199" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +8177,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J200" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +8218,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J201" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7075,9 +8265,13 @@
         <v>8995</v>
       </c>
       <c r="J202" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7106,15 +8300,17 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>8995</v>
+      </c>
       <c r="J203" t="n">
-        <v>8995</v>
+        <v>8945</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7145,15 +8341,17 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>8995</v>
+      </c>
       <c r="J204" t="n">
-        <v>8995</v>
+        <v>8945</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7190,9 +8388,13 @@
         <v>8995</v>
       </c>
       <c r="J205" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +8429,11 @@
         <v>8995</v>
       </c>
       <c r="J206" t="n">
-        <v>8995</v>
+        <v>8945</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7268,11 +8470,11 @@
         <v>8995</v>
       </c>
       <c r="J207" t="n">
-        <v>8995</v>
+        <v>8945</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7303,11 +8505,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J208" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7336,11 +8546,19 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J209" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7369,11 +8587,19 @@
         <v>-1669.09127829</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J210" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7402,11 +8628,19 @@
         <v>-1669.09127829</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>8965</v>
+      </c>
+      <c r="J211" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7441,9 +8675,13 @@
         <v>8965</v>
       </c>
       <c r="J212" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+        <v>8945</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7478,11 +8716,11 @@
         <v>8965</v>
       </c>
       <c r="J213" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7519,7 +8757,7 @@
         <v>8930</v>
       </c>
       <c r="J214" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7560,7 +8798,7 @@
         <v>8995</v>
       </c>
       <c r="J215" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7601,7 +8839,7 @@
         <v>8940</v>
       </c>
       <c r="J216" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7636,11 +8874,13 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>9050</v>
+      </c>
       <c r="J217" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7675,11 +8915,11 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7714,11 +8954,11 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7753,11 +8993,11 @@
         <v>-2.483378289999802</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7792,11 +9032,11 @@
         <v>67.4837217100002</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7831,11 +9071,11 @@
         <v>73.97762171000019</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7870,11 +9110,11 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7909,19 +9149,19 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>8965</v>
+        <v>8945</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1.018982152816509</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -7948,11 +9188,17 @@
         <v>340.6040217100002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +9227,17 @@
         <v>1285.85032171</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8050,8 +9308,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8080,13 +9344,19 @@
         <v>1246.42342171</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8945</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L229" t="n">
-        <v>1</v>
+        <v>1.044748462828396</v>
       </c>
       <c r="M229" t="inlineStr"/>
     </row>
@@ -8113,7 +9383,7 @@
         <v>1171.32342171</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8146,7 +9416,7 @@
         <v>1149.98752171</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8179,7 +9449,7 @@
         <v>1149.88752171</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8443,7 +9713,7 @@
         <v>824.2605217100001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest BTG.xlsx
+++ b/BackTest/2019-10-21 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:L243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>-1223.76610776</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>-1223.76610776</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8855</v>
       </c>
       <c r="I3" t="n">
         <v>8855</v>
       </c>
-      <c r="J3" t="n">
-        <v>8855</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-1223.76610776</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8855</v>
       </c>
       <c r="I4" t="n">
         <v>8855</v>
       </c>
-      <c r="J4" t="n">
-        <v>8855</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>86.39960000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-1137.36650776</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8855</v>
       </c>
       <c r="I5" t="n">
         <v>8855</v>
       </c>
-      <c r="J5" t="n">
-        <v>8855</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>72.0107</v>
       </c>
       <c r="G6" t="n">
-        <v>-1209.37720776</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +613,15 @@
         <v>97.2317</v>
       </c>
       <c r="G7" t="n">
-        <v>-1112.14550776</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +643,15 @@
         <v>392.94301046</v>
       </c>
       <c r="G8" t="n">
-        <v>-1112.14550776</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +673,15 @@
         <v>3.9242</v>
       </c>
       <c r="G9" t="n">
-        <v>-1108.22130776</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +703,15 @@
         <v>6.0358</v>
       </c>
       <c r="G10" t="n">
-        <v>-1108.22130776</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +733,15 @@
         <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>-1108.22130776</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +763,15 @@
         <v>67.2319</v>
       </c>
       <c r="G12" t="n">
-        <v>-1108.22130776</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +793,15 @@
         <v>97.1917</v>
       </c>
       <c r="G13" t="n">
-        <v>-1011.02960776</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +823,15 @@
         <v>32.767</v>
       </c>
       <c r="G14" t="n">
-        <v>-1043.79660776</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +853,15 @@
         <v>202</v>
       </c>
       <c r="G15" t="n">
-        <v>-841.7966077599999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +883,15 @@
         <v>47.6068</v>
       </c>
       <c r="G16" t="n">
-        <v>-889.4034077599999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +913,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-889.4034077599999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +943,15 @@
         <v>19.2757</v>
       </c>
       <c r="G18" t="n">
-        <v>-889.4034077599999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +973,15 @@
         <v>29.4469</v>
       </c>
       <c r="G19" t="n">
-        <v>-918.85030776</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +1003,15 @@
         <v>75.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,26 +1033,15 @@
         <v>62</v>
       </c>
       <c r="G21" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8930</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,26 +1063,15 @@
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8930</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,26 +1093,15 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8930</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,24 +1123,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1345,24 +1153,15 @@
         <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1384,24 +1183,15 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,24 +1213,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,24 +1243,15 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,24 +1273,15 @@
         <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,24 +1303,15 @@
         <v>15.2234</v>
       </c>
       <c r="G30" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,24 +1333,15 @@
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,24 +1363,15 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1657,24 +1393,15 @@
         <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,24 +1423,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,24 +1453,15 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,24 +1483,15 @@
         <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>-843.35030776</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,24 +1513,15 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>-839.35030776</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,24 +1543,15 @@
         <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>-839.35030776</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,24 +1573,15 @@
         <v>37</v>
       </c>
       <c r="G39" t="n">
-        <v>-839.35030776</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,24 +1603,15 @@
         <v>16</v>
       </c>
       <c r="G40" t="n">
-        <v>-839.35030776</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1969,24 +1633,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-839.35030776</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1663,15 @@
         <v>85.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-924.85030776</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,24 +1693,15 @@
         <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>-928.85030776</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1723,15 @@
         <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>-928.85030776</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,24 +1753,15 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>-928.85030776</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +1783,15 @@
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>-928.85030776</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +1813,15 @@
         <v>7.5723</v>
       </c>
       <c r="G47" t="n">
-        <v>-921.2780077599999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,24 +1843,15 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-919.2780077599999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,24 +1873,15 @@
         <v>1.9204</v>
       </c>
       <c r="G49" t="n">
-        <v>-919.2780077599999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,24 +1903,15 @@
         <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>-943.2780077599999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,24 +1933,15 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>-943.2780077599999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2398,24 +1963,15 @@
         <v>5.761</v>
       </c>
       <c r="G52" t="n">
-        <v>-937.51700776</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,24 +1993,15 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-939.51700776</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,24 +2023,15 @@
         <v>44.9587</v>
       </c>
       <c r="G54" t="n">
-        <v>-939.51700776</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2515,24 +2053,15 @@
         <v>220.2643</v>
       </c>
       <c r="G55" t="n">
-        <v>-1159.78130776</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,24 +2083,15 @@
         <v>21.6062</v>
       </c>
       <c r="G56" t="n">
-        <v>-1138.17510776</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2593,24 +2113,15 @@
         <v>120.1336</v>
       </c>
       <c r="G57" t="n">
-        <v>-1138.17510776</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,24 +2143,15 @@
         <v>21.6393</v>
       </c>
       <c r="G58" t="n">
-        <v>-1116.53580776</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2671,24 +2173,15 @@
         <v>22.1852</v>
       </c>
       <c r="G59" t="n">
-        <v>-1116.53580776</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,24 +2203,15 @@
         <v>97.11539999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-1116.53580776</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2749,24 +2233,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-1126.53580776</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,24 +2263,15 @@
         <v>52.3259</v>
       </c>
       <c r="G62" t="n">
-        <v>-1074.20990776</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2827,24 +2293,15 @@
         <v>5.90955555</v>
       </c>
       <c r="G63" t="n">
-        <v>-1074.20990776</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,24 +2323,15 @@
         <v>43.7637</v>
       </c>
       <c r="G64" t="n">
-        <v>-1074.20990776</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2905,24 +2353,15 @@
         <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>-1074.10990776</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2944,24 +2383,15 @@
         <v>35</v>
       </c>
       <c r="G66" t="n">
-        <v>-1109.10990776</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2983,24 +2413,15 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-1108.10990776</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,24 +2443,15 @@
         <v>22.1975</v>
       </c>
       <c r="G68" t="n">
-        <v>-1130.30740776</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3061,24 +2473,15 @@
         <v>11.802</v>
       </c>
       <c r="G69" t="n">
-        <v>-1142.10940776</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3100,24 +2503,15 @@
         <v>233.3042</v>
       </c>
       <c r="G70" t="n">
-        <v>-1375.41360776</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3139,24 +2533,15 @@
         <v>164</v>
       </c>
       <c r="G71" t="n">
-        <v>-1375.41360776</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3178,24 +2563,15 @@
         <v>43</v>
       </c>
       <c r="G72" t="n">
-        <v>-1332.41360776</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3217,24 +2593,15 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-1322.41360776</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3256,24 +2623,15 @@
         <v>123</v>
       </c>
       <c r="G74" t="n">
-        <v>-1445.41360776</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3295,24 +2653,15 @@
         <v>65.5</v>
       </c>
       <c r="G75" t="n">
-        <v>-1445.41360776</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,24 +2683,15 @@
         <v>31</v>
       </c>
       <c r="G76" t="n">
-        <v>-1445.41360776</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3373,24 +2713,15 @@
         <v>103</v>
       </c>
       <c r="G77" t="n">
-        <v>-1445.41360776</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,24 +2743,15 @@
         <v>5.581</v>
       </c>
       <c r="G78" t="n">
-        <v>-1439.83260776</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3451,24 +2773,15 @@
         <v>48.6047</v>
       </c>
       <c r="G79" t="n">
-        <v>-1488.43730776</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3490,24 +2803,15 @@
         <v>0.2228</v>
       </c>
       <c r="G80" t="n">
-        <v>-1488.21450776</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3529,24 +2833,15 @@
         <v>35</v>
       </c>
       <c r="G81" t="n">
-        <v>-1523.21450776</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,24 +2863,15 @@
         <v>230</v>
       </c>
       <c r="G82" t="n">
-        <v>-1523.21450776</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3607,24 +2893,15 @@
         <v>22.0776</v>
       </c>
       <c r="G83" t="n">
-        <v>-1501.13690776</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3646,24 +2923,15 @@
         <v>337.6297</v>
       </c>
       <c r="G84" t="n">
-        <v>-1163.50720776</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3685,24 +2953,15 @@
         <v>0.2362</v>
       </c>
       <c r="G85" t="n">
-        <v>-1163.27100776</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,24 +2983,15 @@
         <v>32.579</v>
       </c>
       <c r="G86" t="n">
-        <v>-1195.85000776</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3763,24 +3013,15 @@
         <v>85.0809</v>
       </c>
       <c r="G87" t="n">
-        <v>-1280.93090776</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3802,24 +3043,15 @@
         <v>8.8452</v>
       </c>
       <c r="G88" t="n">
-        <v>-1272.08570776</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,24 +3073,15 @@
         <v>33.9785</v>
       </c>
       <c r="G89" t="n">
-        <v>-1306.06420776</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,24 +3103,15 @@
         <v>30</v>
       </c>
       <c r="G90" t="n">
-        <v>-1306.06420776</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3919,24 +3133,15 @@
         <v>41</v>
       </c>
       <c r="G91" t="n">
-        <v>-1306.06420776</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3958,24 +3163,15 @@
         <v>63.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-1369.56420776</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3997,24 +3193,15 @@
         <v>130</v>
       </c>
       <c r="G93" t="n">
-        <v>-1369.56420776</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4036,24 +3223,15 @@
         <v>35</v>
       </c>
       <c r="G94" t="n">
-        <v>-1369.56420776</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4075,24 +3253,15 @@
         <v>91</v>
       </c>
       <c r="G95" t="n">
-        <v>-1278.56420776</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4114,24 +3283,15 @@
         <v>33.5</v>
       </c>
       <c r="G96" t="n">
-        <v>-1278.56420776</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4153,24 +3313,15 @@
         <v>32.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-1278.56420776</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4192,24 +3343,15 @@
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>-1278.46420776</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4231,24 +3373,15 @@
         <v>22.041</v>
       </c>
       <c r="G99" t="n">
-        <v>-1256.42320776</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,24 +3403,15 @@
         <v>44</v>
       </c>
       <c r="G100" t="n">
-        <v>-1256.42320776</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4309,24 +3433,15 @@
         <v>56</v>
       </c>
       <c r="G101" t="n">
-        <v>-1312.42320776</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4348,24 +3463,15 @@
         <v>54</v>
       </c>
       <c r="G102" t="n">
-        <v>-1312.42320776</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4387,24 +3493,15 @@
         <v>38.5</v>
       </c>
       <c r="G103" t="n">
-        <v>-1312.42320776</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4426,24 +3523,15 @@
         <v>110.8614</v>
       </c>
       <c r="G104" t="n">
-        <v>-1312.42320776</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4465,24 +3553,15 @@
         <v>332.9175</v>
       </c>
       <c r="G105" t="n">
-        <v>-979.50570776</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4504,24 +3583,15 @@
         <v>0.9975000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-980.5032077599999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4543,24 +3613,15 @@
         <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>-920.5032077599999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4582,24 +3643,15 @@
         <v>0.0255</v>
       </c>
       <c r="G108" t="n">
-        <v>-920.5032077599999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4621,24 +3673,15 @@
         <v>70.2487</v>
       </c>
       <c r="G109" t="n">
-        <v>-850.2545077599999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4660,24 +3703,15 @@
         <v>10.9267</v>
       </c>
       <c r="G110" t="n">
-        <v>-839.3278077599999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4699,24 +3733,15 @@
         <v>5.5841</v>
       </c>
       <c r="G111" t="n">
-        <v>-844.91190776</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4738,24 +3763,15 @@
         <v>285.6626</v>
       </c>
       <c r="G112" t="n">
-        <v>-1130.57450776</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4777,24 +3793,15 @@
         <v>57.5</v>
       </c>
       <c r="G113" t="n">
-        <v>-1130.57450776</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4816,24 +3823,15 @@
         <v>3.1399</v>
       </c>
       <c r="G114" t="n">
-        <v>-1130.57450776</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4855,24 +3853,15 @@
         <v>4.4159</v>
       </c>
       <c r="G115" t="n">
-        <v>-1126.15860776</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4894,24 +3883,15 @@
         <v>9.148099999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-1126.15860776</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4933,24 +3913,15 @@
         <v>324.17791127</v>
       </c>
       <c r="G117" t="n">
-        <v>-801.98069649</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4972,24 +3943,15 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-798.98069649</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5011,24 +3973,15 @@
         <v>99.40179999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-898.38249649</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5050,24 +4003,15 @@
         <v>3.0075</v>
       </c>
       <c r="G120" t="n">
-        <v>-898.38249649</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5089,24 +4033,15 @@
         <v>41</v>
       </c>
       <c r="G121" t="n">
-        <v>-939.38249649</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5128,24 +4063,15 @@
         <v>101</v>
       </c>
       <c r="G122" t="n">
-        <v>-1040.38249649</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5167,24 +4093,15 @@
         <v>52</v>
       </c>
       <c r="G123" t="n">
-        <v>-1092.38249649</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5206,24 +4123,15 @@
         <v>46</v>
       </c>
       <c r="G124" t="n">
-        <v>-1092.38249649</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5245,24 +4153,15 @@
         <v>682.3686</v>
       </c>
       <c r="G125" t="n">
-        <v>-1092.38249649</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5284,24 +4183,15 @@
         <v>23.2463</v>
       </c>
       <c r="G126" t="n">
-        <v>-1092.38249649</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5323,24 +4213,15 @@
         <v>0.34</v>
       </c>
       <c r="G127" t="n">
-        <v>-1092.04249649</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5362,24 +4243,15 @@
         <v>13</v>
       </c>
       <c r="G128" t="n">
-        <v>-1105.04249649</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5401,24 +4273,15 @@
         <v>16.2487</v>
       </c>
       <c r="G129" t="n">
-        <v>-1088.79379649</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5440,24 +4303,15 @@
         <v>2.2272</v>
       </c>
       <c r="G130" t="n">
-        <v>-1086.56659649</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5479,24 +4333,15 @@
         <v>5.7807</v>
       </c>
       <c r="G131" t="n">
-        <v>-1086.56659649</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5518,24 +4363,15 @@
         <v>86.3215</v>
       </c>
       <c r="G132" t="n">
-        <v>-1172.88809649</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5557,24 +4393,15 @@
         <v>0.01</v>
       </c>
       <c r="G133" t="n">
-        <v>-1172.87809649</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5596,24 +4423,15 @@
         <v>2.639</v>
       </c>
       <c r="G134" t="n">
-        <v>-1175.51709649</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5635,24 +4453,15 @@
         <v>0.01949861</v>
       </c>
       <c r="G135" t="n">
-        <v>-1175.5365951</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5674,24 +4483,15 @@
         <v>5.7798</v>
       </c>
       <c r="G136" t="n">
-        <v>-1169.7567951</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5713,24 +4513,15 @@
         <v>0.1114</v>
       </c>
       <c r="G137" t="n">
-        <v>-1169.7567951</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5752,24 +4543,15 @@
         <v>6.9518</v>
       </c>
       <c r="G138" t="n">
-        <v>-1169.7567951</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5791,24 +4573,15 @@
         <v>6.9518</v>
       </c>
       <c r="G139" t="n">
-        <v>-1176.7085951</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5830,24 +4603,15 @@
         <v>12.988</v>
       </c>
       <c r="G140" t="n">
-        <v>-1176.7085951</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5869,24 +4633,15 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>-1175.7085951</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5908,24 +4663,15 @@
         <v>10.991</v>
       </c>
       <c r="G142" t="n">
-        <v>-1186.6995951</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5947,24 +4693,15 @@
         <v>228.9822</v>
       </c>
       <c r="G143" t="n">
-        <v>-1186.6995951</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5986,24 +4723,15 @@
         <v>35.3277</v>
       </c>
       <c r="G144" t="n">
-        <v>-1151.3718951</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6025,24 +4753,15 @@
         <v>73.736</v>
       </c>
       <c r="G145" t="n">
-        <v>-1225.1078951</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6064,24 +4783,15 @@
         <v>4.6265</v>
       </c>
       <c r="G146" t="n">
-        <v>-1225.1078951</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6103,24 +4813,15 @@
         <v>14.6693</v>
       </c>
       <c r="G147" t="n">
-        <v>-1210.4385951</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6142,24 +4843,15 @@
         <v>99.7778</v>
       </c>
       <c r="G148" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6181,24 +4873,15 @@
         <v>51.1921</v>
       </c>
       <c r="G149" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6220,24 +4903,15 @@
         <v>54</v>
       </c>
       <c r="G150" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6259,24 +4933,15 @@
         <v>48</v>
       </c>
       <c r="G151" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6298,24 +4963,15 @@
         <v>24</v>
       </c>
       <c r="G152" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6337,24 +4993,15 @@
         <v>68</v>
       </c>
       <c r="G153" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6376,24 +5023,15 @@
         <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6415,24 +5053,15 @@
         <v>48</v>
       </c>
       <c r="G155" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6454,24 +5083,15 @@
         <v>69.2428</v>
       </c>
       <c r="G156" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6493,24 +5113,15 @@
         <v>68</v>
       </c>
       <c r="G157" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6532,24 +5143,15 @@
         <v>210</v>
       </c>
       <c r="G158" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6571,24 +5173,15 @@
         <v>212.5341</v>
       </c>
       <c r="G159" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6610,24 +5203,15 @@
         <v>398.2513</v>
       </c>
       <c r="G160" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6649,24 +5233,15 @@
         <v>1.6615</v>
       </c>
       <c r="G161" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6688,24 +5263,15 @@
         <v>173.9937</v>
       </c>
       <c r="G162" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6727,24 +5293,15 @@
         <v>8.062799999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>-1310.2163951</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6766,24 +5323,15 @@
         <v>143.7767</v>
       </c>
       <c r="G164" t="n">
-        <v>-1453.9930951</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6805,24 +5353,15 @@
         <v>335.9023</v>
       </c>
       <c r="G165" t="n">
-        <v>-1789.8953951</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6844,24 +5383,15 @@
         <v>17.9435</v>
       </c>
       <c r="G166" t="n">
-        <v>-1771.9518951</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6883,24 +5413,15 @@
         <v>34</v>
       </c>
       <c r="G167" t="n">
-        <v>-1805.9518951</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6922,24 +5443,15 @@
         <v>172.6283</v>
       </c>
       <c r="G168" t="n">
-        <v>-1978.5801951</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6961,24 +5473,15 @@
         <v>276.0698</v>
       </c>
       <c r="G169" t="n">
-        <v>-1978.5801951</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7000,24 +5503,15 @@
         <v>208.0764</v>
       </c>
       <c r="G170" t="n">
-        <v>-1978.5801951</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7039,24 +5533,15 @@
         <v>29</v>
       </c>
       <c r="G171" t="n">
-        <v>-1978.5801951</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7078,24 +5563,15 @@
         <v>10.1163</v>
       </c>
       <c r="G172" t="n">
-        <v>-1968.4638951</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7117,24 +5593,15 @@
         <v>36</v>
       </c>
       <c r="G173" t="n">
-        <v>-2004.4638951</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7156,24 +5623,15 @@
         <v>43.5</v>
       </c>
       <c r="G174" t="n">
-        <v>-2004.4638951</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7195,24 +5653,15 @@
         <v>199</v>
       </c>
       <c r="G175" t="n">
-        <v>-2004.4638951</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7234,24 +5683,15 @@
         <v>199.5</v>
       </c>
       <c r="G176" t="n">
-        <v>-2004.4638951</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7273,24 +5713,15 @@
         <v>29.1666</v>
       </c>
       <c r="G177" t="n">
-        <v>-1975.2972951</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7312,24 +5743,15 @@
         <v>34</v>
       </c>
       <c r="G178" t="n">
-        <v>-2009.2972951</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7351,24 +5773,15 @@
         <v>240.5368</v>
       </c>
       <c r="G179" t="n">
-        <v>-1768.7604951</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7390,24 +5803,15 @@
         <v>5.3436</v>
       </c>
       <c r="G180" t="n">
-        <v>-1774.1040951</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7429,24 +5833,15 @@
         <v>4.6718</v>
       </c>
       <c r="G181" t="n">
-        <v>-1769.4322951</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7468,24 +5863,15 @@
         <v>95.3282</v>
       </c>
       <c r="G182" t="n">
-        <v>-1769.4322951</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7507,24 +5893,15 @@
         <v>142.8447</v>
       </c>
       <c r="G183" t="n">
-        <v>-1912.2769951</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7546,24 +5923,15 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>-1914.2769951</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7585,24 +5953,15 @@
         <v>1.10558319</v>
       </c>
       <c r="G185" t="n">
-        <v>-1913.17141191</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7624,24 +5983,15 @@
         <v>113.9458</v>
       </c>
       <c r="G186" t="n">
-        <v>-2027.11721191</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7663,24 +6013,15 @@
         <v>399.99991681</v>
       </c>
       <c r="G187" t="n">
-        <v>-1627.1172951</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7702,24 +6043,15 @@
         <v>2.80008319</v>
       </c>
       <c r="G188" t="n">
-        <v>-1629.91737829</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7741,24 +6073,15 @@
         <v>71.0278</v>
       </c>
       <c r="G189" t="n">
-        <v>-1700.94517829</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7780,24 +6103,15 @@
         <v>28.5803</v>
       </c>
       <c r="G190" t="n">
-        <v>-1672.36487829</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7819,24 +6133,15 @@
         <v>28.5803</v>
       </c>
       <c r="G191" t="n">
-        <v>-1672.36487829</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7858,24 +6163,15 @@
         <v>30</v>
       </c>
       <c r="G192" t="n">
-        <v>-1642.36487829</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7897,24 +6193,15 @@
         <v>9.975</v>
       </c>
       <c r="G193" t="n">
-        <v>-1632.38987829</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7936,24 +6223,15 @@
         <v>0.5</v>
       </c>
       <c r="G194" t="n">
-        <v>-1632.38987829</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7975,24 +6253,15 @@
         <v>35.2394</v>
       </c>
       <c r="G195" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8014,24 +6283,15 @@
         <v>318.7155</v>
       </c>
       <c r="G196" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8053,24 +6313,15 @@
         <v>7.8255</v>
       </c>
       <c r="G197" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8092,26 +6343,15 @@
         <v>33.1645</v>
       </c>
       <c r="G198" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J198" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8133,26 +6373,15 @@
         <v>76.9564</v>
       </c>
       <c r="G199" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J199" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8174,26 +6403,15 @@
         <v>153.9671</v>
       </c>
       <c r="G200" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J200" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8215,26 +6433,15 @@
         <v>32.0555</v>
       </c>
       <c r="G201" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J201" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8256,26 +6463,15 @@
         <v>50</v>
       </c>
       <c r="G202" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J202" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8297,26 +6493,15 @@
         <v>171.6929</v>
       </c>
       <c r="G203" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J203" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8338,26 +6523,15 @@
         <v>50</v>
       </c>
       <c r="G204" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J204" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8379,26 +6553,15 @@
         <v>18</v>
       </c>
       <c r="G205" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J205" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8420,26 +6583,15 @@
         <v>12.7089</v>
       </c>
       <c r="G206" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J206" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8461,26 +6613,15 @@
         <v>33.8485</v>
       </c>
       <c r="G207" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J207" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8502,26 +6643,15 @@
         <v>228</v>
       </c>
       <c r="G208" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J208" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8543,26 +6673,15 @@
         <v>42</v>
       </c>
       <c r="G209" t="n">
-        <v>-1667.62927829</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J209" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8584,26 +6703,15 @@
         <v>1.462</v>
       </c>
       <c r="G210" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J210" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8625,26 +6733,15 @@
         <v>65.3211</v>
       </c>
       <c r="G211" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>8965</v>
-      </c>
-      <c r="J211" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8666,26 +6763,15 @@
         <v>9.707700000000001</v>
       </c>
       <c r="G212" t="n">
-        <v>-1669.09127829</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>8965</v>
-      </c>
-      <c r="J212" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8707,26 +6793,15 @@
         <v>87</v>
       </c>
       <c r="G213" t="n">
-        <v>-1756.09127829</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>8965</v>
-      </c>
-      <c r="J213" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8748,26 +6823,15 @@
         <v>89.59910000000001</v>
       </c>
       <c r="G214" t="n">
-        <v>-1666.49217829</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>8930</v>
-      </c>
-      <c r="J214" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8789,26 +6853,15 @@
         <v>53.9618</v>
       </c>
       <c r="G215" t="n">
-        <v>-1720.45397829</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J215" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8830,26 +6883,15 @@
         <v>388.787</v>
       </c>
       <c r="G216" t="n">
-        <v>-1331.66697829</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>8940</v>
-      </c>
-      <c r="J216" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8871,26 +6913,15 @@
         <v>1306.1764</v>
       </c>
       <c r="G217" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>9050</v>
-      </c>
-      <c r="J217" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8912,24 +6943,15 @@
         <v>53.9448</v>
       </c>
       <c r="G218" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8951,24 +6973,15 @@
         <v>25</v>
       </c>
       <c r="G219" t="n">
-        <v>-25.4905782899998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8990,24 +7003,15 @@
         <v>23.0072</v>
       </c>
       <c r="G220" t="n">
-        <v>-2.483378289999802</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9029,24 +7033,15 @@
         <v>69.9671</v>
       </c>
       <c r="G221" t="n">
-        <v>67.4837217100002</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9068,24 +7063,15 @@
         <v>6.4939</v>
       </c>
       <c r="G222" t="n">
-        <v>73.97762171000019</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9107,24 +7093,15 @@
         <v>157.9035</v>
       </c>
       <c r="G223" t="n">
-        <v>231.8811217100002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9146,24 +7123,15 @@
         <v>0.6249</v>
       </c>
       <c r="G224" t="n">
-        <v>231.8811217100002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9185,24 +7153,15 @@
         <v>108.7229</v>
       </c>
       <c r="G225" t="n">
-        <v>340.6040217100002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9224,24 +7183,15 @@
         <v>945.2463</v>
       </c>
       <c r="G226" t="n">
-        <v>1285.85032171</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9263,24 +7213,15 @@
         <v>49.1269</v>
       </c>
       <c r="G227" t="n">
-        <v>1236.72342171</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9302,24 +7243,15 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G228" t="n">
-        <v>1246.42342171</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9341,24 +7273,15 @@
         <v>74.59910000000001</v>
       </c>
       <c r="G229" t="n">
-        <v>1246.42342171</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>8945</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1.044748462828396</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9380,18 +7303,15 @@
         <v>75.09999999999999</v>
       </c>
       <c r="G230" t="n">
-        <v>1171.32342171</v>
-      </c>
-      <c r="H230" t="n">
         <v>2</v>
       </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9413,18 +7333,15 @@
         <v>21.3359</v>
       </c>
       <c r="G231" t="n">
-        <v>1149.98752171</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9446,18 +7363,15 @@
         <v>0.1</v>
       </c>
       <c r="G232" t="n">
-        <v>1149.88752171</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9479,18 +7393,15 @@
         <v>95.2338</v>
       </c>
       <c r="G233" t="n">
-        <v>1054.65372171</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9512,18 +7423,15 @@
         <v>0.1</v>
       </c>
       <c r="G234" t="n">
-        <v>1054.75372171</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9545,18 +7453,15 @@
         <v>124.0021</v>
       </c>
       <c r="G235" t="n">
-        <v>930.7516217100002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9578,18 +7483,15 @@
         <v>93.6694</v>
       </c>
       <c r="G236" t="n">
-        <v>837.0822217100002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9611,18 +7513,15 @@
         <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>838.0822217100002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9644,18 +7543,15 @@
         <v>55.8657</v>
       </c>
       <c r="G238" t="n">
-        <v>893.9479217100002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9677,18 +7573,15 @@
         <v>2</v>
       </c>
       <c r="G239" t="n">
-        <v>895.9479217100002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9710,18 +7603,15 @@
         <v>71.6874</v>
       </c>
       <c r="G240" t="n">
-        <v>824.2605217100001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9743,18 +7633,15 @@
         <v>182.1</v>
       </c>
       <c r="G241" t="n">
-        <v>642.1605217100001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9776,18 +7663,15 @@
         <v>234.4358</v>
       </c>
       <c r="G242" t="n">
-        <v>407.7247217100002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9809,18 +7693,15 @@
         <v>239.6645</v>
       </c>
       <c r="G243" t="n">
-        <v>647.3892217100001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
